--- a/results/train/DeepBench_NV_TitanX_Pascal.xlsx
+++ b/results/train/DeepBench_NV_TitanX_Pascal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="1180" windowWidth="24480" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="3" r:id="rId1"/>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">K </t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>Recurrent Layers - Vanilla</t>
@@ -228,6 +222,12 @@
   <si>
     <t>Float</t>
   </si>
+  <si>
+    <t>R (Filter height)</t>
+  </si>
+  <si>
+    <t>S (Filter width)</t>
+  </si>
 </sst>
 </file>
 
@@ -298,8 +298,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="289">
+  <cellStyleXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -608,7 +626,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="289">
+  <cellStyles count="307">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -753,6 +771,15 @@
     <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -897,6 +924,15 @@
     <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1229,7 +1265,7 @@
   <dimension ref="A1:AE339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1251,10 +1287,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1277,10 +1313,10 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1814,7 +1850,7 @@
         <v>1760</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
         <v>3</v>
@@ -1840,7 +1876,7 @@
         <v>1760</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
         <v>3</v>
@@ -1866,7 +1902,7 @@
         <v>1760</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
         <v>3</v>
@@ -1892,7 +1928,7 @@
         <v>1760</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
         <v>3</v>
@@ -1918,7 +1954,7 @@
         <v>1760</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
         <v>3</v>
@@ -1944,7 +1980,7 @@
         <v>2048</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
         <v>3</v>
@@ -1970,7 +2006,7 @@
         <v>2048</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
         <v>3</v>
@@ -1996,7 +2032,7 @@
         <v>2048</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
         <v>3</v>
@@ -2022,7 +2058,7 @@
         <v>2048</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
         <v>3</v>
@@ -2048,7 +2084,7 @@
         <v>2048</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
         <v>3</v>
@@ -2074,7 +2110,7 @@
         <v>2560</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
         <v>3</v>
@@ -2100,7 +2136,7 @@
         <v>2560</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
         <v>3</v>
@@ -2126,7 +2162,7 @@
         <v>2560</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
         <v>3</v>
@@ -2152,7 +2188,7 @@
         <v>2560</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
         <v>3</v>
@@ -2178,7 +2214,7 @@
         <v>2560</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
         <v>3</v>
@@ -2204,7 +2240,7 @@
         <v>4096</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
         <v>3</v>
@@ -2230,7 +2266,7 @@
         <v>4096</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
         <v>3</v>
@@ -2256,7 +2292,7 @@
         <v>4096</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
         <v>3</v>
@@ -2282,7 +2318,7 @@
         <v>4096</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
         <v>3</v>
@@ -2308,7 +2344,7 @@
         <v>4096</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
         <v>3</v>
@@ -2337,10 +2373,10 @@
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="2">
         <v>4.2530000000000001</v>
@@ -2366,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I45" s="2">
         <v>5.6070000000000002</v>
@@ -2392,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I46" s="2">
         <v>8.7680000000000007</v>
@@ -2418,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I47" s="2">
         <v>22.658999999999999</v>
@@ -2661,7 +2697,7 @@
         <v>1760</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
         <v>3</v>
@@ -2687,7 +2723,7 @@
         <v>1760</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s">
         <v>3</v>
@@ -2713,7 +2749,7 @@
         <v>2048</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G60" t="s">
         <v>3</v>
@@ -2739,7 +2775,7 @@
         <v>2048</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s">
         <v>3</v>
@@ -2765,7 +2801,7 @@
         <v>2560</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
         <v>3</v>
@@ -2791,7 +2827,7 @@
         <v>2560</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G63" t="s">
         <v>3</v>
@@ -2817,7 +2853,7 @@
         <v>4096</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G64" t="s">
         <v>3</v>
@@ -2843,7 +2879,7 @@
         <v>4096</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
         <v>3</v>
@@ -2979,7 +3015,7 @@
         <v>2560</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
         <v>3</v>
@@ -3005,7 +3041,7 @@
         <v>2560</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
         <v>3</v>
@@ -3031,7 +3067,7 @@
         <v>2560</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
         <v>3</v>
@@ -3057,7 +3093,7 @@
         <v>2560</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
         <v>3</v>
@@ -3192,7 +3228,7 @@
         <v>1024</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G79" t="s">
         <v>3</v>
@@ -3219,7 +3255,7 @@
         <v>1024</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
         <v>3</v>
@@ -3246,7 +3282,7 @@
         <v>1024</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
         <v>3</v>
@@ -3273,7 +3309,7 @@
         <v>1024</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
         <v>3</v>
@@ -3308,7 +3344,7 @@
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I84" s="2">
         <v>4.9269999999999996</v>
@@ -3334,7 +3370,7 @@
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I85" s="2">
         <v>20.986000000000001</v>
@@ -3453,7 +3489,7 @@
         <v>500000</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G91" t="s">
         <v>3</v>
@@ -3477,7 +3513,7 @@
         <v>500000</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s">
         <v>3</v>
@@ -3501,7 +3537,7 @@
         <v>500000</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
         <v>3</v>
@@ -3525,7 +3561,7 @@
         <v>500000</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
         <v>3</v>
@@ -3573,7 +3609,7 @@
         <v>512</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G96" t="s">
         <v>3</v>
@@ -3849,7 +3885,7 @@
         <v>2560</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G107" t="s">
         <v>3</v>
@@ -3873,7 +3909,7 @@
         <v>2048</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
         <v>3</v>
@@ -3898,7 +3934,7 @@
         <v>1536</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>3</v>
@@ -3924,7 +3960,7 @@
         <v>2816</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>3</v>
@@ -3950,7 +3986,7 @@
         <v>1024</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>3</v>
@@ -3975,7 +4011,7 @@
         <v>2560</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G112" t="s">
         <v>3</v>
@@ -3999,7 +4035,7 @@
         <v>2048</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G113" t="s">
         <v>3</v>
@@ -4024,7 +4060,7 @@
         <v>1536</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>3</v>
@@ -4050,7 +4086,7 @@
         <v>2816</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>3</v>
@@ -4076,7 +4112,7 @@
         <v>1024</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>3</v>
@@ -4258,7 +4294,7 @@
         <v>2048</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>3</v>
@@ -4284,7 +4320,7 @@
         <v>1536</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>3</v>
@@ -4310,7 +4346,7 @@
         <v>2816</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>3</v>
@@ -4336,7 +4372,7 @@
         <v>2048</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>3</v>
@@ -4362,7 +4398,7 @@
         <v>1536</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>3</v>
@@ -4388,7 +4424,7 @@
         <v>2816</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>3</v>
@@ -4678,7 +4714,7 @@
         <v>2816</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>3</v>
@@ -4704,7 +4740,7 @@
         <v>2048</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>3</v>
@@ -4731,7 +4767,7 @@
         <v>2560</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>3</v>
@@ -4758,7 +4794,7 @@
         <v>1530</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>3</v>
@@ -4784,7 +4820,7 @@
         <v>2816</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>3</v>
@@ -4810,7 +4846,7 @@
         <v>2048</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>3</v>
@@ -4837,7 +4873,7 @@
         <v>2560</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>3</v>
@@ -4864,7 +4900,7 @@
         <v>1530</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>3</v>
@@ -4893,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="2">
@@ -4919,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="2">
@@ -5206,7 +5242,7 @@
         <v>2816</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>3</v>
@@ -5232,7 +5268,7 @@
         <v>2048</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>3</v>
@@ -5259,7 +5295,7 @@
         <v>2560</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>3</v>
@@ -5286,7 +5322,7 @@
         <v>1530</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>3</v>
@@ -5312,7 +5348,7 @@
         <v>2816</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>3</v>
@@ -5338,7 +5374,7 @@
         <v>2048</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>3</v>
@@ -5365,7 +5401,7 @@
         <v>2560</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>3</v>
@@ -5392,7 +5428,7 @@
         <v>1530</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>3</v>
@@ -5421,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="2">
@@ -5447,7 +5483,7 @@
         <v>3</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="2">
@@ -5483,52 +5519,52 @@
         <v>10</v>
       </c>
       <c r="H174" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="I174" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="J174" t="s">
+        <v>27</v>
+      </c>
+      <c r="K174" t="s">
+        <v>26</v>
+      </c>
+      <c r="L174" t="s">
+        <v>29</v>
+      </c>
+      <c r="M174" t="s">
         <v>28</v>
       </c>
-      <c r="K174" t="s">
-        <v>29</v>
-      </c>
-      <c r="L174" t="s">
+      <c r="N174" t="s">
+        <v>21</v>
+      </c>
+      <c r="O174" t="s">
+        <v>22</v>
+      </c>
+      <c r="P174" t="s">
+        <v>23</v>
+      </c>
+      <c r="R174" t="s">
         <v>30</v>
       </c>
-      <c r="M174" t="s">
+      <c r="S174" t="s">
         <v>31</v>
       </c>
-      <c r="N174" t="s">
-        <v>23</v>
-      </c>
-      <c r="O174" t="s">
-        <v>24</v>
-      </c>
-      <c r="P174" t="s">
-        <v>25</v>
-      </c>
-      <c r="R174" t="s">
+      <c r="T174" t="s">
+        <v>59</v>
+      </c>
+      <c r="U174" t="s">
+        <v>36</v>
+      </c>
+      <c r="V174" t="s">
+        <v>37</v>
+      </c>
+      <c r="W174" t="s">
+        <v>38</v>
+      </c>
+      <c r="X174" t="s">
         <v>32</v>
-      </c>
-      <c r="S174" t="s">
-        <v>33</v>
-      </c>
-      <c r="T174" t="s">
-        <v>61</v>
-      </c>
-      <c r="U174" t="s">
-        <v>38</v>
-      </c>
-      <c r="V174" t="s">
-        <v>39</v>
-      </c>
-      <c r="W174" t="s">
-        <v>40</v>
-      </c>
-      <c r="X174" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:31">
@@ -5548,10 +5584,10 @@
         <v>32</v>
       </c>
       <c r="H175">
+        <v>20</v>
+      </c>
+      <c r="I175">
         <v>5</v>
-      </c>
-      <c r="I175">
-        <v>20</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -5569,17 +5605,17 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P175" s="2">
         <v>0.28000000000000003</v>
       </c>
       <c r="R175" s="4">
-        <f t="shared" ref="R175:R256" si="9">(D175-H175+1+2*J175)/L175</f>
+        <f>(D175-I175+1+2*K175)/M175</f>
         <v>78.5</v>
       </c>
       <c r="S175" s="4">
-        <f t="shared" ref="S175:S256" si="10">(C175-I175+1+2*K175)/M175</f>
+        <f>(C175-H175+1+2*J175)/L175</f>
         <v>340.5</v>
       </c>
       <c r="T175" s="2">
@@ -5587,18 +5623,18 @@
         <v>0.41200000000000003</v>
       </c>
       <c r="U175" s="2">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$H175*$I175)/(N175/1000)/10^12</f>
+        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
         <v>5.1838545454545448</v>
       </c>
       <c r="V175" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W175" s="2">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$H175*$I175)/(P175/1000)/10^12</f>
+        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
         <v>2.4438171428571427</v>
       </c>
       <c r="X175" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA175" s="2"/>
       <c r="AE175" s="2"/>
@@ -5620,10 +5656,10 @@
         <v>32</v>
       </c>
       <c r="H176">
+        <v>20</v>
+      </c>
+      <c r="I176">
         <v>5</v>
-      </c>
-      <c r="I176">
-        <v>20</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -5641,17 +5677,17 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P176" s="2">
         <v>0.51500000000000001</v>
       </c>
       <c r="R176" s="4">
-        <f t="shared" si="9"/>
+        <f>(D176-I176+1+2*K176)/M176</f>
         <v>78.5</v>
       </c>
       <c r="S176" s="4">
-        <f t="shared" si="10"/>
+        <f>(C176-H176+1+2*J176)/L176</f>
         <v>340.5</v>
       </c>
       <c r="T176" s="2">
@@ -5659,18 +5695,18 @@
         <v>0.746</v>
       </c>
       <c r="U176" s="2">
-        <f t="shared" ref="U176:V230" si="11">(2*$R176*$S176*$F176*$G176*$E176*$H176*$I176)/(N176/1000)/10^12</f>
+        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(N176/1000)/10^12</f>
         <v>5.9244051948051943</v>
       </c>
       <c r="V176" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W176" s="2">
-        <f t="shared" ref="W176:W257" si="12">(2*$R176*$S176*$F176*$G176*$E176*$H176*$I176)/(P176/1000)/10^12</f>
+        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(P176/1000)/10^12</f>
         <v>2.6573545631067961</v>
       </c>
       <c r="X176" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA176" s="2"/>
       <c r="AE176" s="2"/>
@@ -5692,10 +5728,10 @@
         <v>32</v>
       </c>
       <c r="H177">
+        <v>20</v>
+      </c>
+      <c r="I177">
         <v>5</v>
-      </c>
-      <c r="I177">
-        <v>20</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -5713,17 +5749,17 @@
         <v>0.41</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P177" s="2">
         <v>0.98699999999999999</v>
       </c>
       <c r="R177" s="4">
-        <f t="shared" si="9"/>
+        <f>(D177-I177+1+2*K177)/M177</f>
         <v>78.5</v>
       </c>
       <c r="S177" s="4">
-        <f t="shared" si="10"/>
+        <f>(C177-H177+1+2*J177)/L177</f>
         <v>340.5</v>
       </c>
       <c r="T177" s="2">
@@ -5731,18 +5767,18 @@
         <v>1.397</v>
       </c>
       <c r="U177" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(N177/1000)/10^12</f>
         <v>6.6757931707317066</v>
       </c>
       <c r="V177" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W177" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(P177/1000)/10^12</f>
         <v>2.7731258358662614</v>
       </c>
       <c r="X177" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA177" s="2"/>
       <c r="AE177" s="2"/>
@@ -5764,10 +5800,10 @@
         <v>32</v>
       </c>
       <c r="H178">
+        <v>20</v>
+      </c>
+      <c r="I178">
         <v>5</v>
-      </c>
-      <c r="I178">
-        <v>20</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -5785,17 +5821,17 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P178" s="2">
         <v>2.1349999999999998</v>
       </c>
       <c r="R178" s="4">
-        <f t="shared" si="9"/>
+        <f>(D178-I178+1+2*K178)/M178</f>
         <v>78.5</v>
       </c>
       <c r="S178" s="4">
-        <f t="shared" si="10"/>
+        <f>(C178-H178+1+2*J178)/L178</f>
         <v>340.5</v>
       </c>
       <c r="T178" s="2">
@@ -5803,18 +5839,18 @@
         <v>2.96</v>
       </c>
       <c r="U178" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(N178/1000)/10^12</f>
         <v>6.6353338181818184</v>
       </c>
       <c r="V178" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W178" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(P178/1000)/10^12</f>
         <v>2.5640048711943799</v>
       </c>
       <c r="X178" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA178" s="2"/>
       <c r="AE178" s="2"/>
@@ -5836,10 +5872,10 @@
         <v>32</v>
       </c>
       <c r="H179">
+        <v>10</v>
+      </c>
+      <c r="I179">
         <v>5</v>
-      </c>
-      <c r="I179">
-        <v>10</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -5863,11 +5899,11 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="R179" s="4">
-        <f t="shared" si="9"/>
+        <f>(D179-I179+1+2*K179)/M179</f>
         <v>37.5</v>
       </c>
       <c r="S179" s="4">
-        <f t="shared" si="10"/>
+        <f>(C179-H179+1+2*J179)/L179</f>
         <v>166</v>
       </c>
       <c r="T179" s="2">
@@ -5875,19 +5911,19 @@
         <v>2.3519999999999999</v>
       </c>
       <c r="U179" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(N179/1000)/10^12</f>
         <v>6.7453968253968251</v>
       </c>
       <c r="V179" s="2">
-        <f t="shared" ref="V179:V210" si="13">(2*$R179*$S179*$F179*$G179*$E179*$H179*$I179)/(O179/1000)/10^12</f>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(O179/1000)/10^12</f>
         <v>1.6741694024950757</v>
       </c>
       <c r="W179" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(P179/1000)/10^12</f>
         <v>5.6535698447893568</v>
       </c>
       <c r="X179" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA179" s="2"/>
       <c r="AE179" s="2"/>
@@ -5909,10 +5945,10 @@
         <v>32</v>
       </c>
       <c r="H180">
+        <v>10</v>
+      </c>
+      <c r="I180">
         <v>5</v>
-      </c>
-      <c r="I180">
-        <v>10</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -5936,31 +5972,31 @@
         <v>0.89400000000000002</v>
       </c>
       <c r="R180" s="4">
-        <f t="shared" si="9"/>
+        <f>(D180-I180+1+2*K180)/M180</f>
         <v>37.5</v>
       </c>
       <c r="S180" s="4">
-        <f t="shared" si="10"/>
+        <f>(C180-H180+1+2*J180)/L180</f>
         <v>166</v>
       </c>
       <c r="T180" s="2">
-        <f t="shared" ref="T180:T182" si="14">N180+O180+P180</f>
+        <f t="shared" ref="T180:T182" si="9">N180+O180+P180</f>
         <v>4.4370000000000003</v>
       </c>
       <c r="U180" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(N180/1000)/10^12</f>
         <v>7.8696296296296291</v>
       </c>
       <c r="V180" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(O180/1000)/10^12</f>
         <v>1.7614922279792746</v>
       </c>
       <c r="W180" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(P180/1000)/10^12</f>
         <v>5.7041610738255031</v>
       </c>
       <c r="X180" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA180" s="2"/>
       <c r="AE180" s="2"/>
@@ -5982,10 +6018,10 @@
         <v>32</v>
       </c>
       <c r="H181">
+        <v>10</v>
+      </c>
+      <c r="I181">
         <v>5</v>
-      </c>
-      <c r="I181">
-        <v>10</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -6009,31 +6045,31 @@
         <v>1.726</v>
       </c>
       <c r="R181" s="4">
+        <f>(D181-I181+1+2*K181)/M181</f>
+        <v>37.5</v>
+      </c>
+      <c r="S181" s="4">
+        <f>(C181-H181+1+2*J181)/L181</f>
+        <v>166</v>
+      </c>
+      <c r="T181" s="2">
         <f t="shared" si="9"/>
-        <v>37.5</v>
-      </c>
-      <c r="S181" s="4">
-        <f t="shared" si="10"/>
-        <v>166</v>
-      </c>
-      <c r="T181" s="2">
-        <f t="shared" si="14"/>
         <v>8.73</v>
       </c>
       <c r="U181" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(N181/1000)/10^12</f>
         <v>7.7441457858769933</v>
       </c>
       <c r="V181" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(O181/1000)/10^12</f>
         <v>1.7933954633374363</v>
       </c>
       <c r="W181" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(P181/1000)/10^12</f>
         <v>5.9090614136732338</v>
       </c>
       <c r="X181" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA181" s="2"/>
       <c r="AE181" s="2"/>
@@ -6055,10 +6091,10 @@
         <v>32</v>
       </c>
       <c r="H182">
+        <v>10</v>
+      </c>
+      <c r="I182">
         <v>5</v>
-      </c>
-      <c r="I182">
-        <v>10</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -6082,31 +6118,31 @@
         <v>3.4060000000000001</v>
       </c>
       <c r="R182" s="4">
+        <f>(D182-I182+1+2*K182)/M182</f>
+        <v>37.5</v>
+      </c>
+      <c r="S182" s="4">
+        <f>(C182-H182+1+2*J182)/L182</f>
+        <v>166</v>
+      </c>
+      <c r="T182" s="2">
         <f t="shared" si="9"/>
-        <v>37.5</v>
-      </c>
-      <c r="S182" s="4">
-        <f t="shared" si="10"/>
-        <v>166</v>
-      </c>
-      <c r="T182" s="2">
-        <f t="shared" si="14"/>
         <v>17.392999999999997</v>
       </c>
       <c r="U182" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(N182/1000)/10^12</f>
         <v>7.4472727272727282</v>
       </c>
       <c r="V182" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(O182/1000)/10^12</f>
         <v>1.81348506401138</v>
       </c>
       <c r="W182" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(P182/1000)/10^12</f>
         <v>5.9888667058132707</v>
       </c>
       <c r="X182" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA182" s="2"/>
       <c r="AE182" s="2"/>
@@ -6149,17 +6185,17 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P183" s="2">
         <v>0.40600000000000003</v>
       </c>
       <c r="R183" s="4">
-        <f t="shared" si="9"/>
+        <f>(D183-I183+1+2*K183)/M183</f>
         <v>48</v>
       </c>
       <c r="S183" s="4">
-        <f t="shared" si="10"/>
+        <f>(C183-H183+1+2*J183)/L183</f>
         <v>480</v>
       </c>
       <c r="T183" s="2">
@@ -6167,18 +6203,18 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="U183" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(N183/1000)/10^12</f>
         <v>0.89217075630252107</v>
       </c>
       <c r="V183" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W183" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(P183/1000)/10^12</f>
         <v>0.26149832512315269</v>
       </c>
       <c r="X183" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA183" s="2"/>
       <c r="AE183" s="2"/>
@@ -6227,11 +6263,11 @@
         <v>0.495</v>
       </c>
       <c r="R184" s="4">
-        <f t="shared" si="9"/>
+        <f>(D184-I184+1+2*K184)/M184</f>
         <v>24</v>
       </c>
       <c r="S184" s="4">
-        <f t="shared" si="10"/>
+        <f>(C184-H184+1+2*J184)/L184</f>
         <v>240</v>
       </c>
       <c r="T184" s="2">
@@ -6239,19 +6275,19 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="U184" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(N184/1000)/10^12</f>
         <v>6.0667611428571426</v>
       </c>
       <c r="V184" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(O184/1000)/10^12</f>
         <v>5.0859075449101789</v>
       </c>
       <c r="W184" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(P184/1000)/10^12</f>
         <v>1.7158516363636365</v>
       </c>
       <c r="X184" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA184" s="2"/>
       <c r="AE184" s="2"/>
@@ -6300,31 +6336,31 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="R185" s="4">
-        <f t="shared" si="9"/>
+        <f>(D185-I185+1+2*K185)/M185</f>
         <v>12</v>
       </c>
       <c r="S185" s="4">
-        <f t="shared" si="10"/>
+        <f>(C185-H185+1+2*J185)/L185</f>
         <v>120</v>
       </c>
       <c r="T185" s="2">
-        <f t="shared" ref="T185:T186" si="15">N185+O185+P185</f>
+        <f t="shared" ref="T185:T186" si="10">N185+O185+P185</f>
         <v>0.53100000000000003</v>
       </c>
       <c r="U185" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(N185/1000)/10^12</f>
         <v>7.4504084210526305</v>
       </c>
       <c r="V185" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(O185/1000)/10^12</f>
         <v>9.9923124705882351</v>
       </c>
       <c r="W185" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(P185/1000)/10^12</f>
         <v>2.5582727710843374</v>
       </c>
       <c r="X185" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA185" s="2"/>
       <c r="AE185" s="2"/>
@@ -6373,31 +6409,31 @@
         <v>0.183</v>
       </c>
       <c r="R186" s="4">
-        <f t="shared" si="9"/>
+        <f>(D186-I186+1+2*K186)/M186</f>
         <v>6</v>
       </c>
       <c r="S186" s="4">
+        <f>(C186-H186+1+2*J186)/L186</f>
+        <v>60</v>
+      </c>
+      <c r="T186" s="2">
         <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="T186" s="2">
-        <f t="shared" si="15"/>
         <v>0.33599999999999997</v>
       </c>
       <c r="U186" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(N186/1000)/10^12</f>
         <v>10.357884878048781</v>
       </c>
       <c r="V186" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(O186/1000)/10^12</f>
         <v>11.962627605633804</v>
       </c>
       <c r="W186" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(P186/1000)/10^12</f>
         <v>4.6412380327868847</v>
       </c>
       <c r="X186" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA186" s="2"/>
       <c r="AE186" s="2"/>
@@ -6440,17 +6476,17 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P187" s="2">
         <v>0.10199999999999999</v>
       </c>
       <c r="R187" s="4">
-        <f t="shared" si="9"/>
+        <f>(D187-I187+1+2*K187)/M187</f>
         <v>54</v>
       </c>
       <c r="S187" s="4">
-        <f t="shared" si="10"/>
+        <f>(C187-H187+1+2*J187)/L187</f>
         <v>54</v>
       </c>
       <c r="T187" s="2">
@@ -6458,18 +6494,18 @@
         <v>0.13899999999999998</v>
       </c>
       <c r="U187" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(N187/1000)/10^12</f>
         <v>2.1789612972972972</v>
       </c>
       <c r="V187" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W187" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(P187/1000)/10^12</f>
         <v>0.79040752941176473</v>
       </c>
       <c r="X187" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA187" s="2"/>
       <c r="AE187" s="2"/>
@@ -6518,11 +6554,11 @@
         <v>0.311</v>
       </c>
       <c r="R188" s="4">
-        <f t="shared" si="9"/>
+        <f>(D188-I188+1+2*K188)/M188</f>
         <v>54</v>
       </c>
       <c r="S188" s="4">
-        <f t="shared" si="10"/>
+        <f>(C188-H188+1+2*J188)/L188</f>
         <v>54</v>
       </c>
       <c r="T188" s="2">
@@ -6530,19 +6566,19 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="U188" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(N188/1000)/10^12</f>
         <v>10.749542399999999</v>
       </c>
       <c r="V188" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(O188/1000)/10^12</f>
         <v>10.551698061349693</v>
       </c>
       <c r="W188" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(P188/1000)/10^12</f>
         <v>5.5303112025723467</v>
       </c>
       <c r="X188" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA188" s="2"/>
       <c r="AE188" s="2"/>
@@ -6591,31 +6627,31 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="R189" s="4">
-        <f t="shared" si="9"/>
+        <f>(D189-I189+1+2*K189)/M189</f>
         <v>27</v>
       </c>
       <c r="S189" s="4">
-        <f t="shared" si="10"/>
+        <f>(C189-H189+1+2*J189)/L189</f>
         <v>27</v>
       </c>
       <c r="T189" s="2">
-        <f t="shared" ref="T189:T191" si="16">N189+O189+P189</f>
+        <f t="shared" ref="T189:T191" si="11">N189+O189+P189</f>
         <v>0.497</v>
       </c>
       <c r="U189" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(N189/1000)/10^12</f>
         <v>13.029748363636363</v>
       </c>
       <c r="V189" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(O189/1000)/10^12</f>
         <v>13.029748363636363</v>
       </c>
       <c r="W189" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(P189/1000)/10^12</f>
         <v>7.3816600171673805</v>
       </c>
       <c r="X189" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA189" s="2"/>
       <c r="AE189" s="2"/>
@@ -6664,31 +6700,31 @@
         <v>0.153</v>
       </c>
       <c r="R190" s="4">
-        <f t="shared" si="9"/>
+        <f>(D190-I190+1+2*K190)/M190</f>
         <v>14</v>
       </c>
       <c r="S190" s="4">
-        <f t="shared" si="10"/>
+        <f>(C190-H190+1+2*J190)/L190</f>
         <v>14</v>
       </c>
       <c r="T190" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>0.30299999999999999</v>
       </c>
       <c r="U190" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(N190/1000)/10^12</f>
         <v>12.010961454545455</v>
       </c>
       <c r="V190" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(O190/1000)/10^12</f>
         <v>12.669096328767123</v>
       </c>
       <c r="W190" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(P190/1000)/10^12</f>
         <v>6.0447322352941173</v>
       </c>
       <c r="X190" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA190" s="2"/>
       <c r="AE190" s="2"/>
@@ -6737,31 +6773,31 @@
         <v>0.28299999999999997</v>
       </c>
       <c r="R191" s="4">
-        <f t="shared" si="9"/>
+        <f>(D191-I191+1+2*K191)/M191</f>
         <v>7</v>
       </c>
       <c r="S191" s="4">
-        <f t="shared" si="10"/>
+        <f>(C191-H191+1+2*J191)/L191</f>
         <v>7</v>
       </c>
       <c r="T191" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>0.66700000000000004</v>
       </c>
       <c r="U191" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(N191/1000)/10^12</f>
         <v>4.9456900106951878</v>
       </c>
       <c r="V191" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(O191/1000)/10^12</f>
         <v>4.6946397563451772</v>
       </c>
       <c r="W191" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(P191/1000)/10^12</f>
         <v>3.2680001130742049</v>
       </c>
       <c r="X191" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA191" s="2"/>
       <c r="AE191" s="2"/>
@@ -6804,17 +6840,17 @@
         <v>0.39800000000000002</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P192" s="2">
         <v>1.611</v>
       </c>
       <c r="R192" s="4">
-        <f t="shared" si="9"/>
+        <f>(D192-I192+1+2*K192)/M192</f>
         <v>224</v>
       </c>
       <c r="S192" s="4">
-        <f t="shared" si="10"/>
+        <f>(C192-H192+1+2*J192)/L192</f>
         <v>224</v>
       </c>
       <c r="T192" s="2">
@@ -6822,18 +6858,18 @@
         <v>2.0089999999999999</v>
       </c>
       <c r="U192" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(N192/1000)/10^12</f>
         <v>3.4855930854271353</v>
       </c>
       <c r="V192" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W192" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(P192/1000)/10^12</f>
         <v>0.86112107262569837</v>
       </c>
       <c r="X192" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA192" s="2"/>
       <c r="AE192" s="2"/>
@@ -6882,11 +6918,11 @@
         <v>1.847</v>
       </c>
       <c r="R193" s="4">
-        <f t="shared" si="9"/>
+        <f>(D193-I193+1+2*K193)/M193</f>
         <v>112</v>
       </c>
       <c r="S193" s="4">
-        <f t="shared" si="10"/>
+        <f>(C193-H193+1+2*J193)/L193</f>
         <v>112</v>
       </c>
       <c r="T193" s="2">
@@ -6894,19 +6930,19 @@
         <v>3.7130000000000001</v>
       </c>
       <c r="U193" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(N193/1000)/10^12</f>
         <v>15.145859275332651</v>
       </c>
       <c r="V193" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(O193/1000)/10^12</f>
         <v>16.645111937007872</v>
       </c>
       <c r="W193" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(P193/1000)/10^12</f>
         <v>8.0116429409853822</v>
       </c>
       <c r="X193" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA193" s="2"/>
       <c r="AE193" s="2"/>
@@ -6956,31 +6992,31 @@
         <v>1.6439999999999999</v>
       </c>
       <c r="R194" s="4">
-        <f t="shared" si="9"/>
+        <f>(D194-I194+1+2*K194)/M194</f>
         <v>56</v>
       </c>
       <c r="S194" s="4">
-        <f t="shared" si="10"/>
+        <f>(C194-H194+1+2*J194)/L194</f>
         <v>56</v>
       </c>
       <c r="T194" s="2">
-        <f t="shared" ref="T194:T197" si="17">N194+O194+P194</f>
+        <f t="shared" ref="T194:T197" si="12">N194+O194+P194</f>
         <v>6.19</v>
       </c>
       <c r="U194" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(N194/1000)/10^12</f>
         <v>4.0607860900109767</v>
       </c>
       <c r="V194" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(O194/1000)/10^12</f>
         <v>16.405215645232815</v>
       </c>
       <c r="W194" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(P194/1000)/10^12</f>
         <v>9.0009151532846712</v>
       </c>
       <c r="X194" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA194" s="2"/>
       <c r="AE194" s="2"/>
@@ -7030,31 +7066,31 @@
         <v>1.8819999999999999</v>
       </c>
       <c r="R195" s="4">
-        <f t="shared" si="9"/>
+        <f>(D195-I195+1+2*K195)/M195</f>
         <v>28</v>
       </c>
       <c r="S195" s="4">
-        <f t="shared" si="10"/>
+        <f>(C195-H195+1+2*J195)/L195</f>
         <v>28</v>
       </c>
       <c r="T195" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>3.7640000000000002</v>
       </c>
       <c r="U195" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(N195/1000)/10^12</f>
         <v>15.022847220304568</v>
       </c>
       <c r="V195" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(O195/1000)/10^12</f>
         <v>16.496660548494983</v>
       </c>
       <c r="W195" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(P195/1000)/10^12</f>
         <v>7.8626485185972372</v>
       </c>
       <c r="X195" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA195" s="2"/>
       <c r="AE195" s="2"/>
@@ -7103,31 +7139,31 @@
         <v>1.232</v>
       </c>
       <c r="R196" s="4">
-        <f t="shared" si="9"/>
+        <f>(D196-I196+1+2*K196)/M196</f>
         <v>14</v>
       </c>
       <c r="S196" s="4">
-        <f t="shared" si="10"/>
+        <f>(C196-H196+1+2*J196)/L196</f>
         <v>14</v>
       </c>
       <c r="T196" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>2.2389999999999999</v>
       </c>
       <c r="U196" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(N196/1000)/10^12</f>
         <v>14.283305513513513</v>
       </c>
       <c r="V196" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(O196/1000)/10^12</f>
         <v>15.130372711656443</v>
       </c>
       <c r="W196" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(P196/1000)/10^12</f>
         <v>6.0054807272727277</v>
       </c>
       <c r="X196" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA196" s="2"/>
       <c r="AE196" s="2"/>
@@ -7176,31 +7212,31 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="R197" s="4">
-        <f t="shared" si="9"/>
+        <f>(D197-I197+1+2*K197)/M197</f>
         <v>7</v>
       </c>
       <c r="S197" s="4">
-        <f t="shared" si="10"/>
+        <f>(C197-H197+1+2*J197)/L197</f>
         <v>7</v>
       </c>
       <c r="T197" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1.302</v>
       </c>
       <c r="U197" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(N197/1000)/10^12</f>
         <v>4.8548243149606298</v>
       </c>
       <c r="V197" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(O197/1000)/10^12</f>
         <v>5.0263262608695651</v>
       </c>
       <c r="W197" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(P197/1000)/10^12</f>
         <v>3.3448247088607594</v>
       </c>
       <c r="X197" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA197" s="2"/>
       <c r="AE197" s="2"/>
@@ -7243,17 +7279,17 @@
         <v>0.77400000000000002</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P198" s="2">
         <v>3.198</v>
       </c>
       <c r="R198" s="4">
-        <f t="shared" si="9"/>
+        <f>(D198-I198+1+2*K198)/M198</f>
         <v>224</v>
       </c>
       <c r="S198" s="4">
-        <f t="shared" si="10"/>
+        <f>(C198-H198+1+2*J198)/L198</f>
         <v>224</v>
       </c>
       <c r="T198" s="2">
@@ -7261,18 +7297,18 @@
         <v>3.972</v>
       </c>
       <c r="U198" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(N198/1000)/10^12</f>
         <v>3.5846667906976744</v>
       </c>
       <c r="V198" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W198" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(P198/1000)/10^12</f>
         <v>0.8675835196998124</v>
       </c>
       <c r="X198" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA198" s="2"/>
       <c r="AE198" s="2"/>
@@ -7321,11 +7357,11 @@
         <v>3.4529999999999998</v>
       </c>
       <c r="R199" s="4">
-        <f t="shared" si="9"/>
+        <f>(D199-I199+1+2*K199)/M199</f>
         <v>112</v>
       </c>
       <c r="S199" s="4">
-        <f t="shared" si="10"/>
+        <f>(C199-H199+1+2*J199)/L199</f>
         <v>112</v>
       </c>
       <c r="T199" s="2">
@@ -7333,19 +7369,19 @@
         <v>7.1939999999999991</v>
       </c>
       <c r="U199" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(N199/1000)/10^12</f>
         <v>15.114917785495402</v>
       </c>
       <c r="V199" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(O199/1000)/10^12</f>
         <v>16.598434674144702</v>
       </c>
       <c r="W199" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(P199/1000)/10^12</f>
         <v>8.5708106064291929</v>
       </c>
       <c r="X199" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA199" s="2"/>
       <c r="AE199" s="2"/>
@@ -7395,31 +7431,31 @@
         <v>3.149</v>
       </c>
       <c r="R200" s="4">
-        <f t="shared" si="9"/>
+        <f>(D200-I200+1+2*K200)/M200</f>
         <v>56</v>
       </c>
       <c r="S200" s="4">
-        <f t="shared" si="10"/>
+        <f>(C200-H200+1+2*J200)/L200</f>
         <v>56</v>
       </c>
       <c r="T200" s="2">
-        <f t="shared" ref="T200:T203" si="18">N200+O200+P200</f>
+        <f t="shared" ref="T200:T203" si="13">N200+O200+P200</f>
         <v>14.955000000000002</v>
       </c>
       <c r="U200" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(N200/1000)/10^12</f>
         <v>5.0850530969072159</v>
       </c>
       <c r="V200" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(O200/1000)/10^12</f>
         <v>4.9440375917139994</v>
       </c>
       <c r="W200" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(P200/1000)/10^12</f>
         <v>9.398224523340744</v>
       </c>
       <c r="X200" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA200" s="2"/>
       <c r="AE200" s="2"/>
@@ -7469,31 +7505,31 @@
         <v>3.5550000000000002</v>
       </c>
       <c r="R201" s="4">
-        <f t="shared" si="9"/>
+        <f>(D201-I201+1+2*K201)/M201</f>
         <v>28</v>
       </c>
       <c r="S201" s="4">
-        <f t="shared" si="10"/>
+        <f>(C201-H201+1+2*J201)/L201</f>
         <v>28</v>
       </c>
       <c r="T201" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>7.3970000000000002</v>
       </c>
       <c r="U201" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(N201/1000)/10^12</f>
         <v>14.672785832424395</v>
       </c>
       <c r="V201" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(O201/1000)/10^12</f>
         <v>16.216443300821918</v>
       </c>
       <c r="W201" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(P201/1000)/10^12</f>
         <v>8.3248970531645572</v>
       </c>
       <c r="X201" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA201" s="2"/>
       <c r="AE201" s="2"/>
@@ -7542,31 +7578,31 @@
         <v>1.883</v>
       </c>
       <c r="R202" s="4">
-        <f t="shared" si="9"/>
+        <f>(D202-I202+1+2*K202)/M202</f>
         <v>14</v>
       </c>
       <c r="S202" s="4">
-        <f t="shared" si="10"/>
+        <f>(C202-H202+1+2*J202)/L202</f>
         <v>14</v>
       </c>
       <c r="T202" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>3.806</v>
       </c>
       <c r="U202" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(N202/1000)/10^12</f>
         <v>15.192509765913758</v>
       </c>
       <c r="V202" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(O202/1000)/10^12</f>
         <v>15.592733943097999</v>
       </c>
       <c r="W202" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(P202/1000)/10^12</f>
         <v>7.8584729219330862</v>
       </c>
       <c r="X202" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA202" s="2"/>
       <c r="AE202" s="2"/>
@@ -7615,31 +7651,31 @@
         <v>1.7230000000000001</v>
       </c>
       <c r="R203" s="4">
-        <f t="shared" si="9"/>
+        <f>(D203-I203+1+2*K203)/M203</f>
         <v>7</v>
       </c>
       <c r="S203" s="4">
-        <f t="shared" si="10"/>
+        <f>(C203-H203+1+2*J203)/L203</f>
         <v>7</v>
       </c>
       <c r="T203" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>2.931</v>
       </c>
       <c r="U203" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(N203/1000)/10^12</f>
         <v>5.8349781198738171</v>
       </c>
       <c r="V203" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(O203/1000)/10^12</f>
         <v>6.4449061463414639</v>
       </c>
       <c r="W203" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(P203/1000)/10^12</f>
         <v>2.1470552106790479</v>
       </c>
       <c r="X203" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA203" s="2"/>
       <c r="AE203" s="2"/>
@@ -7682,17 +7718,17 @@
         <v>0.498</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P204" s="2">
         <v>1.1020000000000001</v>
       </c>
       <c r="R204" s="4">
-        <f t="shared" si="9"/>
+        <f>(D204-I204+1+2*K204)/M204</f>
         <v>112</v>
       </c>
       <c r="S204" s="4">
-        <f t="shared" si="10"/>
+        <f>(C204-H204+1+2*J204)/L204</f>
         <v>112</v>
       </c>
       <c r="T204" s="2">
@@ -7700,18 +7736,18 @@
         <v>1.6</v>
       </c>
       <c r="U204" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(N204/1000)/10^12</f>
         <v>7.5832258313253016</v>
       </c>
       <c r="V204" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W204" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(P204/1000)/10^12</f>
         <v>3.4269024174228671</v>
       </c>
       <c r="X204" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA204" s="2"/>
       <c r="AE204" s="2"/>
@@ -7760,11 +7796,11 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="R205" s="4">
-        <f t="shared" si="9"/>
+        <f>(D205-I205+1+2*K205)/M205</f>
         <v>28</v>
       </c>
       <c r="S205" s="4">
-        <f t="shared" si="10"/>
+        <f>(C205-H205+1+2*J205)/L205</f>
         <v>28</v>
       </c>
       <c r="T205" s="2">
@@ -7772,19 +7808,19 @@
         <v>1.58</v>
       </c>
       <c r="U205" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(N205/1000)/10^12</f>
         <v>6.4548020100502512</v>
       </c>
       <c r="V205" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
         <v>9.9062128534704357</v>
       </c>
       <c r="W205" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(P205/1000)/10^12</f>
         <v>6.4874020202020199</v>
       </c>
       <c r="X205" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA205" s="2"/>
       <c r="AE205" s="2"/>
@@ -7833,31 +7869,31 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="R206" s="4">
-        <f t="shared" si="9"/>
+        <f>(D206-I206+1+2*K206)/M206</f>
         <v>28</v>
       </c>
       <c r="S206" s="4">
-        <f t="shared" si="10"/>
+        <f>(C206-H206+1+2*J206)/L206</f>
         <v>28</v>
       </c>
       <c r="T206" s="2">
-        <f t="shared" ref="T206:T228" si="19">N206+O206+P206</f>
+        <f t="shared" ref="T206:T228" si="14">N206+O206+P206</f>
         <v>0.28800000000000003</v>
       </c>
       <c r="U206" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(N206/1000)/10^12</f>
         <v>5.2251075254237298</v>
       </c>
       <c r="V206" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(O206/1000)/10^12</f>
         <v>3.7595285853658535</v>
       </c>
       <c r="W206" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(P206/1000)/10^12</f>
         <v>2.0971519999999999</v>
       </c>
       <c r="X206" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA206" s="2"/>
       <c r="AE206" s="2"/>
@@ -7906,31 +7942,31 @@
         <v>1.2529999999999999</v>
       </c>
       <c r="R207" s="4">
-        <f t="shared" si="9"/>
+        <f>(D207-I207+1+2*K207)/M207</f>
         <v>14</v>
       </c>
       <c r="S207" s="4">
-        <f t="shared" si="10"/>
+        <f>(C207-H207+1+2*J207)/L207</f>
         <v>14</v>
       </c>
       <c r="T207" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>3.9560000000000004</v>
       </c>
       <c r="U207" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
         <v>2.6448296499656827</v>
       </c>
       <c r="V207" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(O207/1000)/10^12</f>
         <v>3.0927101123595508</v>
       </c>
       <c r="W207" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
         <v>3.0754324022346369</v>
       </c>
       <c r="X207" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA207" s="2"/>
       <c r="AE207" s="2"/>
@@ -7979,31 +8015,31 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="R208" s="4">
-        <f t="shared" si="9"/>
+        <f>(D208-I208+1+2*K208)/M208</f>
         <v>14</v>
       </c>
       <c r="S208" s="4">
-        <f t="shared" si="10"/>
+        <f>(C208-H208+1+2*J208)/L208</f>
         <v>14</v>
       </c>
       <c r="T208" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="U208" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(N208/1000)/10^12</f>
         <v>6.7754141538461532</v>
       </c>
       <c r="V208" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(O208/1000)/10^12</f>
         <v>6.8506965333333341</v>
       </c>
       <c r="W208" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(P208/1000)/10^12</f>
         <v>3.7595285853658535</v>
       </c>
       <c r="X208" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA208" s="2"/>
       <c r="AE208" s="2"/>
@@ -8052,31 +8088,31 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="R209" s="4">
-        <f t="shared" si="9"/>
+        <f>(D209-I209+1+2*K209)/M209</f>
         <v>7</v>
       </c>
       <c r="S209" s="4">
-        <f t="shared" si="10"/>
+        <f>(C209-H209+1+2*J209)/L209</f>
         <v>7</v>
       </c>
       <c r="T209" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.26300000000000001</v>
       </c>
       <c r="U209" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(N209/1000)/10^12</f>
         <v>3.2742299607843139</v>
       </c>
       <c r="V209" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(O209/1000)/10^12</f>
         <v>5.3866363870967744</v>
       </c>
       <c r="W209" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(P209/1000)/10^12</f>
         <v>3.3734490505050503</v>
       </c>
       <c r="X209" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA209" s="2"/>
       <c r="AE209" s="2"/>
@@ -8125,31 +8161,31 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="R210" s="4">
-        <f t="shared" si="9"/>
+        <f>(D210-I210+1+2*K210)/M210</f>
         <v>7</v>
       </c>
       <c r="S210" s="4">
-        <f t="shared" si="10"/>
+        <f>(C210-H210+1+2*J210)/L210</f>
         <v>7</v>
       </c>
       <c r="T210" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2.4850000000000003</v>
       </c>
       <c r="U210" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(N210/1000)/10^12</f>
         <v>7.5218796396396383</v>
       </c>
       <c r="V210" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(O210/1000)/10^12</f>
         <v>3.6427951134380461</v>
       </c>
       <c r="W210" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(P210/1000)/10^12</f>
         <v>5.3247999999999989</v>
       </c>
       <c r="X210" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA210" s="2"/>
       <c r="AE210" s="2"/>
@@ -8198,31 +8234,31 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="R211" s="4">
-        <f t="shared" si="9"/>
+        <f>(D211-I211+1+2*K211)/M211</f>
         <v>56</v>
       </c>
       <c r="S211" s="4">
-        <f t="shared" si="10"/>
+        <f>(C211-H211+1+2*J211)/L211</f>
         <v>56</v>
       </c>
       <c r="T211" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.63700000000000001</v>
       </c>
       <c r="U211" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(N211/1000)/10^12</f>
         <v>11.856974769230769</v>
       </c>
       <c r="V211" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(O211/1000)/10^12</f>
         <v>11.781452636942676</v>
       </c>
       <c r="W211" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(P211/1000)/10^12</f>
         <v>5.7089137777777772</v>
       </c>
       <c r="X211" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="212" spans="2:31">
@@ -8269,31 +8305,31 @@
         <v>0.08</v>
       </c>
       <c r="R212" s="4">
-        <f t="shared" si="9"/>
+        <f>(D212-I212+1+2*K212)/M212</f>
         <v>28</v>
       </c>
       <c r="S212" s="4">
-        <f t="shared" si="10"/>
+        <f>(C212-H212+1+2*J212)/L212</f>
         <v>28</v>
       </c>
       <c r="T212" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.23099999999999998</v>
       </c>
       <c r="U212" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(N212/1000)/10^12</f>
         <v>3.6700159999999999</v>
       </c>
       <c r="V212" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(O212/1000)/10^12</f>
         <v>2.1633778526315788</v>
       </c>
       <c r="W212" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(P212/1000)/10^12</f>
         <v>2.5690111999999998</v>
       </c>
       <c r="X212" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="2:31">
@@ -8340,31 +8376,31 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="R213" s="4">
-        <f t="shared" si="9"/>
+        <f>(D213-I213+1+2*K213)/M213</f>
         <v>28</v>
       </c>
       <c r="S213" s="4">
-        <f t="shared" si="10"/>
+        <f>(C213-H213+1+2*J213)/L213</f>
         <v>28</v>
       </c>
       <c r="T213" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.44800000000000001</v>
       </c>
       <c r="U213" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(N213/1000)/10^12</f>
         <v>13.307108374100716</v>
       </c>
       <c r="V213" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(O213/1000)/10^12</f>
         <v>13.501372729927006</v>
       </c>
       <c r="W213" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(P213/1000)/10^12</f>
         <v>10.754000372093026</v>
       </c>
       <c r="X213" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="214" spans="2:31">
@@ -8412,31 +8448,31 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="R214" s="4">
-        <f t="shared" si="9"/>
+        <f>(D214-I214+1+2*K214)/M214</f>
         <v>14</v>
       </c>
       <c r="S214" s="4">
-        <f t="shared" si="10"/>
+        <f>(C214-H214+1+2*J214)/L214</f>
         <v>14</v>
       </c>
       <c r="T214" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.251</v>
       </c>
       <c r="U214" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(N214/1000)/10^12</f>
         <v>5.0127047804878044</v>
       </c>
       <c r="V214" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(O214/1000)/10^12</f>
         <v>1.5688618015267173</v>
       </c>
       <c r="W214" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(P214/1000)/10^12</f>
         <v>2.6015303291139245</v>
       </c>
       <c r="X214" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215" spans="2:31">
@@ -8483,31 +8519,31 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="R215" s="4">
-        <f t="shared" si="9"/>
+        <f>(D215-I215+1+2*K215)/M215</f>
         <v>14</v>
       </c>
       <c r="S215" s="4">
-        <f t="shared" si="10"/>
+        <f>(C215-H215+1+2*J215)/L215</f>
         <v>14</v>
       </c>
       <c r="T215" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.188</v>
       </c>
       <c r="U215" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(N215/1000)/10^12</f>
         <v>3.369195016393443</v>
       </c>
       <c r="V215" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(O215/1000)/10^12</f>
         <v>4.1104179199999997</v>
       </c>
       <c r="W215" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(P215/1000)/10^12</f>
         <v>2.6691025454545456</v>
       </c>
       <c r="X215" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="216" spans="2:31">
@@ -8554,31 +8590,31 @@
         <v>0.222</v>
       </c>
       <c r="R216" s="4">
-        <f t="shared" si="9"/>
+        <f>(D216-I216+1+2*K216)/M216</f>
         <v>14</v>
       </c>
       <c r="S216" s="4">
-        <f t="shared" si="10"/>
+        <f>(C216-H216+1+2*J216)/L216</f>
         <v>14</v>
       </c>
       <c r="T216" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.505</v>
       </c>
       <c r="U216" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(N216/1000)/10^12</f>
         <v>13.025972281690143</v>
       </c>
       <c r="V216" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(O216/1000)/10^12</f>
         <v>13.118355063829789</v>
       </c>
       <c r="W216" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(P216/1000)/10^12</f>
         <v>8.331928216216216</v>
       </c>
       <c r="X216" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="217" spans="2:31">
@@ -8626,31 +8662,31 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="R217" s="4">
-        <f t="shared" si="9"/>
+        <f>(D217-I217+1+2*K217)/M217</f>
         <v>7</v>
       </c>
       <c r="S217" s="4">
-        <f t="shared" si="10"/>
+        <f>(C217-H217+1+2*J217)/L217</f>
         <v>7</v>
       </c>
       <c r="T217" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.28100000000000003</v>
       </c>
       <c r="U217" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(N217/1000)/10^12</f>
         <v>2.8153547397260272</v>
       </c>
       <c r="V217" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(O217/1000)/10^12</f>
         <v>1.835008</v>
       </c>
       <c r="W217" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(P217/1000)/10^12</f>
         <v>2.1408426666666664</v>
       </c>
       <c r="X217" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="218" spans="2:31">
@@ -8698,31 +8734,31 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="R218" s="4">
-        <f t="shared" si="9"/>
+        <f>(D218-I218+1+2*K218)/M218</f>
         <v>7</v>
       </c>
       <c r="S218" s="4">
-        <f t="shared" si="10"/>
+        <f>(C218-H218+1+2*J218)/L218</f>
         <v>7</v>
       </c>
       <c r="T218" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.21199999999999999</v>
       </c>
       <c r="U218" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(N218/1000)/10^12</f>
         <v>2.9360127999999994</v>
       </c>
       <c r="V218" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(O218/1000)/10^12</f>
         <v>3.6700159999999999</v>
       </c>
       <c r="W218" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(P218/1000)/10^12</f>
         <v>2.3897778604651165</v>
       </c>
       <c r="X218" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="219" spans="2:31">
@@ -8770,31 +8806,31 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="R219" s="4">
-        <f t="shared" si="9"/>
+        <f>(D219-I219+1+2*K219)/M219</f>
         <v>6.5</v>
       </c>
       <c r="S219" s="4">
-        <f t="shared" si="10"/>
+        <f>(C219-H219+1+2*J219)/L219</f>
         <v>6.5</v>
       </c>
       <c r="T219" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.65</v>
       </c>
       <c r="U219" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(N219/1000)/10^12</f>
         <v>3.3435725283018867</v>
       </c>
       <c r="V219" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(O219/1000)/10^12</f>
         <v>3.1364485663716812</v>
       </c>
       <c r="W219" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(P219/1000)/10^12</f>
         <v>3.3435725283018867</v>
       </c>
       <c r="X219" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="220" spans="2:31">
@@ -8841,31 +8877,31 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="R220" s="4">
-        <f t="shared" si="9"/>
+        <f>(D220-I220+1+2*K220)/M220</f>
         <v>56</v>
       </c>
       <c r="S220" s="4">
-        <f t="shared" si="10"/>
+        <f>(C220-H220+1+2*J220)/L220</f>
         <v>56</v>
       </c>
       <c r="T220" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.202</v>
       </c>
       <c r="U220" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(N220/1000)/10^12</f>
         <v>12.331253760000003</v>
       </c>
       <c r="V220" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(O220/1000)/10^12</f>
         <v>12.372495411371238</v>
       </c>
       <c r="W220" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(P220/1000)/10^12</f>
         <v>6.1349521194029855</v>
       </c>
       <c r="X220" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="221" spans="2:31">
@@ -8912,31 +8948,31 @@
         <v>0.127</v>
       </c>
       <c r="R221" s="4">
-        <f t="shared" si="9"/>
+        <f>(D221-I221+1+2*K221)/M221</f>
         <v>28</v>
       </c>
       <c r="S221" s="4">
-        <f t="shared" si="10"/>
+        <f>(C221-H221+1+2*J221)/L221</f>
         <v>28</v>
       </c>
       <c r="T221" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.442</v>
       </c>
       <c r="U221" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(N221/1000)/10^12</f>
         <v>3.8415120747663551</v>
       </c>
       <c r="V221" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(O221/1000)/10^12</f>
         <v>1.9761624615384616</v>
       </c>
       <c r="W221" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(P221/1000)/10^12</f>
         <v>3.236549543307087</v>
       </c>
       <c r="X221" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222" spans="2:31">
@@ -8983,31 +9019,31 @@
         <v>0.29399999999999998</v>
       </c>
       <c r="R222" s="4">
-        <f t="shared" si="9"/>
+        <f>(D222-I222+1+2*K222)/M222</f>
         <v>28</v>
       </c>
       <c r="S222" s="4">
-        <f t="shared" si="10"/>
+        <f>(C222-H222+1+2*J222)/L222</f>
         <v>28</v>
       </c>
       <c r="T222" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.82099999999999995</v>
       </c>
       <c r="U222" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(N222/1000)/10^12</f>
         <v>13.959909916981132</v>
       </c>
       <c r="V222" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(O222/1000)/10^12</f>
         <v>14.119756213740457</v>
       </c>
       <c r="W222" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(P222/1000)/10^12</f>
         <v>12.582912</v>
       </c>
       <c r="X222" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="223" spans="2:31">
@@ -9054,31 +9090,31 @@
         <v>0.106</v>
       </c>
       <c r="R223" s="4">
-        <f t="shared" si="9"/>
+        <f>(D223-I223+1+2*K223)/M223</f>
         <v>14</v>
       </c>
       <c r="S223" s="4">
-        <f t="shared" si="10"/>
+        <f>(C223-H223+1+2*J223)/L223</f>
         <v>14</v>
       </c>
       <c r="T223" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.34199999999999997</v>
       </c>
       <c r="U223" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(N223/1000)/10^12</f>
         <v>5.2697665641025644</v>
       </c>
       <c r="V223" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(O223/1000)/10^12</f>
         <v>2.6015303291139245</v>
       </c>
       <c r="W223" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(P223/1000)/10^12</f>
         <v>3.877752754716981</v>
       </c>
       <c r="X223" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="224" spans="2:31">
@@ -9126,34 +9162,34 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="R224" s="4">
-        <f t="shared" si="9"/>
+        <f>(D224-I224+1+2*K224)/M224</f>
         <v>14</v>
       </c>
       <c r="S224" s="4">
-        <f t="shared" si="10"/>
+        <f>(C224-H224+1+2*J224)/L224</f>
         <v>14</v>
       </c>
       <c r="T224" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.20400000000000001</v>
       </c>
       <c r="U224" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(N224/1000)/10^12</f>
         <v>7.2112595087719296</v>
       </c>
       <c r="V224" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(O224/1000)/10^12</f>
         <v>6.6297063225806445</v>
       </c>
       <c r="W224" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(P224/1000)/10^12</f>
         <v>4.8357857882352944</v>
       </c>
       <c r="X224" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="225" spans="1:24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225" spans="2:24">
       <c r="C225">
         <v>14</v>
       </c>
@@ -9197,34 +9233,34 @@
         <v>0.317</v>
       </c>
       <c r="R225" s="4">
-        <f t="shared" si="9"/>
+        <f>(D225-I225+1+2*K225)/M225</f>
         <v>14</v>
       </c>
       <c r="S225" s="4">
-        <f t="shared" si="10"/>
+        <f>(C225-H225+1+2*J225)/L225</f>
         <v>14</v>
       </c>
       <c r="T225" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="U225" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(N225/1000)/10^12</f>
         <v>14.228369723076922</v>
       </c>
       <c r="V225" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(O225/1000)/10^12</f>
         <v>13.550828307692306</v>
       </c>
       <c r="W225" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(P225/1000)/10^12</f>
         <v>11.669956239747634</v>
       </c>
       <c r="X225" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="226" spans="1:24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="226" spans="2:24">
       <c r="C226" s="1">
         <v>14</v>
       </c>
@@ -9268,34 +9304,34 @@
         <v>0.122</v>
       </c>
       <c r="R226" s="4">
-        <f t="shared" si="9"/>
+        <f>(D226-I226+1+2*K226)/M226</f>
         <v>7</v>
       </c>
       <c r="S226" s="4">
-        <f t="shared" si="10"/>
+        <f>(C226-H226+1+2*J226)/L226</f>
         <v>7</v>
       </c>
       <c r="T226" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.316</v>
       </c>
       <c r="U226" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(N226/1000)/10^12</f>
         <v>6.738390032786886</v>
       </c>
       <c r="V226" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(O226/1000)/10^12</f>
         <v>3.0905397894736839</v>
       </c>
       <c r="W226" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(P226/1000)/10^12</f>
         <v>3.369195016393443</v>
       </c>
       <c r="X226" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="227" spans="1:24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="227" spans="2:24">
       <c r="B227" s="1"/>
       <c r="C227">
         <v>7</v>
@@ -9340,34 +9376,34 @@
         <v>0.11</v>
       </c>
       <c r="R227" s="4">
-        <f t="shared" si="9"/>
+        <f>(D227-I227+1+2*K227)/M227</f>
         <v>7</v>
       </c>
       <c r="S227" s="4">
-        <f t="shared" si="10"/>
+        <f>(C227-H227+1+2*J227)/L227</f>
         <v>7</v>
       </c>
       <c r="T227" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.28499999999999998</v>
       </c>
       <c r="U227" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(N227/1000)/10^12</f>
         <v>4.1519372929292926</v>
       </c>
       <c r="V227" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(O227/1000)/10^12</f>
         <v>5.4084446315789476</v>
       </c>
       <c r="W227" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(P227/1000)/10^12</f>
         <v>3.7367435636363631</v>
       </c>
       <c r="X227" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="228" spans="1:24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="228" spans="2:24">
       <c r="B228" s="1"/>
       <c r="C228">
         <v>7</v>
@@ -9412,34 +9448,34 @@
         <v>0.38100000000000001</v>
       </c>
       <c r="R228" s="4">
-        <f t="shared" si="9"/>
+        <f>(D228-I228+1+2*K228)/M228</f>
         <v>6.5</v>
       </c>
       <c r="S228" s="4">
-        <f t="shared" si="10"/>
+        <f>(C228-H228+1+2*J228)/L228</f>
         <v>6.5</v>
       </c>
       <c r="T228" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.032</v>
       </c>
       <c r="U228" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(N228/1000)/10^12</f>
         <v>6.4439761454545446</v>
       </c>
       <c r="V228" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(O228/1000)/10^12</f>
         <v>3.2892685661252901</v>
       </c>
       <c r="W228" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(P228/1000)/10^12</f>
         <v>3.7209311076115488</v>
       </c>
       <c r="X228" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="229" spans="1:24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229" spans="2:24">
       <c r="B229" s="1"/>
       <c r="C229" s="10">
         <v>700</v>
@@ -9484,11 +9520,11 @@
         <v>1.7430000000000001</v>
       </c>
       <c r="R229" s="4">
-        <f t="shared" si="9"/>
+        <f>(D229-I229+1+2*K229)/M229</f>
         <v>79.5</v>
       </c>
       <c r="S229" s="4">
-        <f t="shared" si="10"/>
+        <f>(C229-H229+1+2*J229)/L229</f>
         <v>349</v>
       </c>
       <c r="T229" s="2">
@@ -9496,22 +9532,22 @@
         <v>2.9809999999999999</v>
       </c>
       <c r="U229" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(N229/1000)/10^12</f>
         <v>3.2433095890410959</v>
       </c>
       <c r="V229" s="2">
-        <f t="shared" ref="U229:W268" si="20">(2*$R229*$S229*$F229*$G229*$E229*$H229*$I229)/(O229/1000)/10^12</f>
+        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(O229/1000)/10^12</f>
         <v>1.775712</v>
       </c>
       <c r="W229" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(P229/1000)/10^12</f>
         <v>0.81501411359724607</v>
       </c>
       <c r="X229" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="230" spans="1:24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="230" spans="2:24">
       <c r="B230" s="1"/>
       <c r="C230">
         <v>350</v>
@@ -9556,34 +9592,34 @@
         <v>5.3029999999999999</v>
       </c>
       <c r="R230" s="4">
-        <f t="shared" si="9"/>
+        <f>(D230-I230+1+2*K230)/M230</f>
         <v>80</v>
       </c>
       <c r="S230" s="4">
-        <f t="shared" si="10"/>
+        <f>(C230-H230+1+2*J230)/L230</f>
         <v>350</v>
       </c>
       <c r="T230" s="2">
-        <f t="shared" ref="T230:T268" si="21">N230+O230+P230</f>
+        <f t="shared" ref="T230:T268" si="15">N230+O230+P230</f>
         <v>11.198</v>
       </c>
       <c r="U230" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(N230/1000)/10^12</f>
         <v>11.211861507128308</v>
       </c>
       <c r="V230" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
         <v>11.200455747711089</v>
       </c>
       <c r="W230" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(P230/1000)/10^12</f>
         <v>6.2285770318687543</v>
       </c>
       <c r="X230" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="231" spans="1:24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="231" spans="2:24">
       <c r="B231" s="1"/>
       <c r="C231">
         <v>350</v>
@@ -9628,34 +9664,34 @@
         <v>5.117</v>
       </c>
       <c r="R231" s="4">
-        <f t="shared" si="9"/>
+        <f>(D231-I231+1+2*K231)/M231</f>
         <v>39</v>
       </c>
       <c r="S231" s="4">
-        <f t="shared" si="10"/>
+        <f>(C231-H231+1+2*J231)/L231</f>
         <v>174</v>
       </c>
       <c r="T231" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>19.382000000000001</v>
       </c>
       <c r="U231" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(N231/1000)/10^12</f>
         <v>9.8434549800796809</v>
       </c>
       <c r="V231" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(O231/1000)/10^12</f>
         <v>4.5627095106186513</v>
       </c>
       <c r="W231" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(P231/1000)/10^12</f>
         <v>8.6911724838772724</v>
       </c>
       <c r="X231" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="232" spans="1:24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="232" spans="2:24">
       <c r="B232" s="1"/>
       <c r="C232">
         <v>175</v>
@@ -9700,34 +9736,34 @@
         <v>2.347</v>
       </c>
       <c r="R232" s="4">
-        <f t="shared" si="9"/>
+        <f>(D232-I232+1+2*K232)/M232</f>
         <v>40</v>
       </c>
       <c r="S232" s="4">
-        <f t="shared" si="10"/>
+        <f>(C232-H232+1+2*J232)/L232</f>
         <v>175</v>
       </c>
       <c r="T232" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.4459999999999997</v>
       </c>
       <c r="U232" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(N232/1000)/10^12</f>
         <v>16.120128843338215</v>
       </c>
       <c r="V232" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(O232/1000)/10^12</f>
         <v>16.112265365853659</v>
       </c>
       <c r="W232" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(P232/1000)/10^12</f>
         <v>14.073346399659139</v>
       </c>
       <c r="X232" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233" spans="2:24">
       <c r="B233" s="1"/>
       <c r="C233">
         <v>175</v>
@@ -9772,34 +9808,34 @@
         <v>4.7789999999999999</v>
       </c>
       <c r="R233" s="4">
-        <f t="shared" si="9"/>
+        <f>(D233-I233+1+2*K233)/M233</f>
         <v>19</v>
       </c>
       <c r="S233" s="4">
-        <f t="shared" si="10"/>
+        <f>(C233-H233+1+2*J233)/L233</f>
         <v>86.5</v>
       </c>
       <c r="T233" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>17.922000000000001</v>
       </c>
       <c r="U233" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(N233/1000)/10^12</f>
         <v>9.4481066666666678</v>
       </c>
       <c r="V233" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(O233/1000)/10^12</f>
         <v>5.0196162647093088</v>
       </c>
       <c r="W233" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(P233/1000)/10^12</f>
         <v>9.015142582130153</v>
       </c>
       <c r="X233" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="234" spans="1:24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="234" spans="2:24">
       <c r="B234" s="1"/>
       <c r="C234">
         <v>84</v>
@@ -9844,34 +9880,34 @@
         <v>1.5620000000000001</v>
       </c>
       <c r="R234" s="4">
-        <f t="shared" si="9"/>
+        <f>(D234-I234+1+2*K234)/M234</f>
         <v>20</v>
       </c>
       <c r="S234" s="4">
-        <f t="shared" si="10"/>
+        <f>(C234-H234+1+2*J234)/L234</f>
         <v>84</v>
       </c>
       <c r="T234" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.6260000000000003</v>
       </c>
       <c r="U234" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(N234/1000)/10^12</f>
         <v>20.431016907216495</v>
       </c>
       <c r="V234" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(O234/1000)/10^12</f>
         <v>20.971520000000002</v>
       </c>
       <c r="W234" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(P234/1000)/10^12</f>
         <v>20.300216542893725</v>
       </c>
       <c r="X234" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="235" spans="2:24">
       <c r="B235" s="1"/>
       <c r="C235">
         <v>84</v>
@@ -9916,34 +9952,34 @@
         <v>4.3849999999999998</v>
       </c>
       <c r="R235" s="4">
-        <f t="shared" si="9"/>
+        <f>(D235-I235+1+2*K235)/M235</f>
         <v>9</v>
       </c>
       <c r="S235" s="4">
-        <f t="shared" si="10"/>
+        <f>(C235-H235+1+2*J235)/L235</f>
         <v>41</v>
       </c>
       <c r="T235" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>15.665999999999999</v>
       </c>
       <c r="U235" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(N235/1000)/10^12</f>
         <v>8.7559299389002057</v>
       </c>
       <c r="V235" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(O235/1000)/10^12</f>
         <v>5.6386555523171085</v>
       </c>
       <c r="W235" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(P235/1000)/10^12</f>
         <v>8.8238208437856329</v>
       </c>
       <c r="X235" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="236" spans="1:24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="236" spans="2:24">
       <c r="B236" s="1"/>
       <c r="C236">
         <v>42</v>
@@ -9988,35 +10024,34 @@
         <v>1.6279999999999999</v>
       </c>
       <c r="R236" s="4">
-        <f t="shared" si="9"/>
+        <f>(D236-I236+1+2*K236)/M236</f>
         <v>10</v>
       </c>
       <c r="S236" s="4">
-        <f t="shared" si="10"/>
+        <f>(C236-H236+1+2*J236)/L236</f>
         <v>42</v>
       </c>
       <c r="T236" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.976</v>
       </c>
       <c r="U236" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(N236/1000)/10^12</f>
         <v>18.685290654095461</v>
       </c>
       <c r="V236" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(O236/1000)/10^12</f>
         <v>19.205898388855239</v>
       </c>
       <c r="W236" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(P236/1000)/10^12</f>
         <v>19.477234791154793</v>
       </c>
       <c r="X236" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="237" spans="1:24">
-      <c r="A237" s="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="237" spans="2:24">
       <c r="B237" s="1"/>
       <c r="C237">
         <v>112</v>
@@ -10061,35 +10096,34 @@
         <v>0.56799999999999995</v>
       </c>
       <c r="R237" s="4">
-        <f t="shared" si="9"/>
+        <f>(D237-I237+1+2*K237)/M237</f>
         <v>112</v>
       </c>
       <c r="S237" s="4">
-        <f t="shared" si="10"/>
+        <f>(C237-H237+1+2*J237)/L237</f>
         <v>112</v>
       </c>
       <c r="T237" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.92299999999999993</v>
       </c>
       <c r="U237" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(N237/1000)/10^12</f>
         <v>4.6709294545454547</v>
       </c>
       <c r="V237" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(O237/1000)/10^12</f>
         <v>4.5926457206703919</v>
       </c>
       <c r="W237" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(P237/1000)/10^12</f>
         <v>1.447330253521127</v>
       </c>
       <c r="X237" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="238" spans="1:24">
-      <c r="A238" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="238" spans="2:24">
       <c r="B238" s="1"/>
       <c r="C238">
         <v>56</v>
@@ -10134,35 +10168,34 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="R238" s="4">
-        <f t="shared" si="9"/>
+        <f>(D238-I238+1+2*K238)/M238</f>
         <v>56</v>
       </c>
       <c r="S238" s="4">
-        <f t="shared" si="10"/>
+        <f>(C238-H238+1+2*J238)/L238</f>
         <v>56</v>
       </c>
       <c r="T238" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.55600000000000005</v>
       </c>
       <c r="U238" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(N238/1000)/10^12</f>
         <v>5.2697665641025644</v>
       </c>
       <c r="V238" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(O238/1000)/10^12</f>
         <v>6.1349521194029855</v>
       </c>
       <c r="W238" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(P238/1000)/10^12</f>
         <v>3.0905397894736839</v>
       </c>
       <c r="X238" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="239" spans="1:24">
-      <c r="A239" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="239" spans="2:24">
       <c r="B239" s="1"/>
       <c r="C239">
         <v>56</v>
@@ -10207,35 +10240,34 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="R239" s="4">
-        <f t="shared" si="9"/>
+        <f>(D239-I239+1+2*K239)/M239</f>
         <v>56</v>
       </c>
       <c r="S239" s="4">
-        <f t="shared" si="10"/>
+        <f>(C239-H239+1+2*J239)/L239</f>
         <v>56</v>
       </c>
       <c r="T239" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.65100000000000002</v>
       </c>
       <c r="U239" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
         <v>6.323719876923076</v>
       </c>
       <c r="V239" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(O239/1000)/10^12</f>
         <v>5.0745900246913571</v>
       </c>
       <c r="W239" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
         <v>2.289926417827298</v>
       </c>
       <c r="X239" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="240" spans="1:24">
-      <c r="A240" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="240" spans="2:24">
       <c r="B240" s="1"/>
       <c r="C240">
         <v>56</v>
@@ -10280,35 +10312,34 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="R240" s="4">
-        <f t="shared" si="9"/>
+        <f>(D240-I240+1+2*K240)/M240</f>
         <v>28</v>
       </c>
       <c r="S240" s="4">
-        <f t="shared" si="10"/>
+        <f>(C240-H240+1+2*J240)/L240</f>
         <v>28</v>
       </c>
       <c r="T240" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.50700000000000001</v>
       </c>
       <c r="U240" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(N240/1000)/10^12</f>
         <v>4.4678455652173916</v>
       </c>
       <c r="V240" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(O240/1000)/10^12</f>
         <v>1.5223770074074074</v>
       </c>
       <c r="W240" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(P240/1000)/10^12</f>
         <v>2.8347709793103446</v>
       </c>
       <c r="X240" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24">
-      <c r="A241" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="241" spans="2:24">
       <c r="B241" s="1"/>
       <c r="C241" s="1">
         <v>28</v>
@@ -10353,35 +10384,34 @@
         <v>0.189</v>
       </c>
       <c r="R241" s="4">
-        <f t="shared" si="9"/>
+        <f>(D241-I241+1+2*K241)/M241</f>
         <v>28</v>
       </c>
       <c r="S241" s="4">
-        <f t="shared" si="10"/>
+        <f>(C241-H241+1+2*J241)/L241</f>
         <v>28</v>
       </c>
       <c r="T241" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="U241" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(N241/1000)/10^12</f>
         <v>6.4225279999999998</v>
       </c>
       <c r="V241" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(O241/1000)/10^12</f>
         <v>7.6118850370370374</v>
       </c>
       <c r="W241" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(P241/1000)/10^12</f>
         <v>4.3496485925925921</v>
       </c>
       <c r="X241" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="242" spans="1:24">
-      <c r="A242" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="242" spans="2:24">
       <c r="B242" s="1"/>
       <c r="C242" s="1">
         <v>28</v>
@@ -10426,35 +10456,34 @@
         <v>0.186</v>
       </c>
       <c r="R242" s="4">
-        <f t="shared" si="9"/>
+        <f>(D242-I242+1+2*K242)/M242</f>
         <v>28</v>
       </c>
       <c r="S242" s="4">
-        <f t="shared" si="10"/>
+        <f>(C242-H242+1+2*J242)/L242</f>
         <v>28</v>
       </c>
       <c r="T242" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.42</v>
       </c>
       <c r="U242" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(N242/1000)/10^12</f>
         <v>7.9046498461538466</v>
       </c>
       <c r="V242" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(O242/1000)/10^12</f>
         <v>6.323719876923076</v>
       </c>
       <c r="W242" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(P242/1000)/10^12</f>
         <v>4.4198042150537633</v>
       </c>
       <c r="X242" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24">
-      <c r="A243" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="243" spans="2:24">
       <c r="B243" s="1"/>
       <c r="C243" s="1">
         <v>28</v>
@@ -10499,35 +10528,34 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="R243" s="4">
-        <f t="shared" si="9"/>
+        <f>(D243-I243+1+2*K243)/M243</f>
         <v>14</v>
       </c>
       <c r="S243" s="4">
-        <f t="shared" si="10"/>
+        <f>(C243-H243+1+2*J243)/L243</f>
         <v>14</v>
       </c>
       <c r="T243" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.47399999999999998</v>
       </c>
       <c r="U243" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(N243/1000)/10^12</f>
         <v>3.877752754716981</v>
       </c>
       <c r="V243" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(O243/1000)/10^12</f>
         <v>1.7343535527426162</v>
       </c>
       <c r="W243" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(P243/1000)/10^12</f>
         <v>3.1377236030534346</v>
       </c>
       <c r="X243" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24">
-      <c r="A244" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="244" spans="2:24">
       <c r="B244" s="1"/>
       <c r="C244" s="1">
         <v>14</v>
@@ -10572,35 +10600,34 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="R244" s="4">
-        <f t="shared" si="9"/>
+        <f>(D244-I244+1+2*K244)/M244</f>
         <v>14</v>
       </c>
       <c r="S244" s="4">
-        <f t="shared" si="10"/>
+        <f>(C244-H244+1+2*J244)/L244</f>
         <v>14</v>
       </c>
       <c r="T244" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.41899999999999998</v>
       </c>
       <c r="U244" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(N244/1000)/10^12</f>
         <v>7.3400319999999999</v>
       </c>
       <c r="V244" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(O244/1000)/10^12</f>
         <v>6.323719876923076</v>
       </c>
       <c r="W244" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(P244/1000)/10^12</f>
         <v>4.6445400225988704</v>
       </c>
       <c r="X244" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="245" spans="1:24">
-      <c r="A245" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245" spans="2:24">
       <c r="B245" s="1"/>
       <c r="C245" s="1">
         <v>28</v>
@@ -10645,35 +10672,34 @@
         <v>0.379</v>
       </c>
       <c r="R245" s="4">
-        <f t="shared" si="9"/>
+        <f>(D245-I245+1+2*K245)/M245</f>
         <v>14</v>
       </c>
       <c r="S245" s="4">
-        <f t="shared" si="10"/>
+        <f>(C245-H245+1+2*J245)/L245</f>
         <v>14</v>
       </c>
       <c r="T245" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.1339999999999999</v>
       </c>
       <c r="U245" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(N245/1000)/10^12</f>
         <v>7.8293674666666666</v>
       </c>
       <c r="V245" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(O245/1000)/10^12</f>
         <v>3.0168204917431192</v>
       </c>
       <c r="W245" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(P245/1000)/10^12</f>
         <v>4.3381719472295517</v>
       </c>
       <c r="X245" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24">
-      <c r="A246" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="246" spans="2:24">
       <c r="B246" s="1"/>
       <c r="C246" s="1">
         <v>14</v>
@@ -10718,35 +10744,34 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="R246" s="4">
-        <f t="shared" si="9"/>
+        <f>(D246-I246+1+2*K246)/M246</f>
         <v>14</v>
       </c>
       <c r="S246" s="4">
-        <f t="shared" si="10"/>
+        <f>(C246-H246+1+2*J246)/L246</f>
         <v>14</v>
       </c>
       <c r="T246" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="U246" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(N246/1000)/10^12</f>
         <v>6.3727409612403108</v>
       </c>
       <c r="V246" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(O246/1000)/10^12</f>
         <v>7.1485529043478264</v>
       </c>
       <c r="W246" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(P246/1000)/10^12</f>
         <v>4.5418982541436463</v>
       </c>
       <c r="X246" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="247" spans="1:24">
-      <c r="A247" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247" spans="2:24">
       <c r="B247" s="1"/>
       <c r="C247" s="1">
         <v>14</v>
@@ -10791,35 +10816,34 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="R247" s="4">
-        <f t="shared" si="9"/>
+        <f>(D247-I247+1+2*K247)/M247</f>
         <v>14</v>
       </c>
       <c r="S247" s="4">
-        <f t="shared" si="10"/>
+        <f>(C247-H247+1+2*J247)/L247</f>
         <v>14</v>
       </c>
       <c r="T247" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.41799999999999998</v>
       </c>
       <c r="U247" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(N247/1000)/10^12</f>
         <v>7.3400319999999999</v>
       </c>
       <c r="V247" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(O247/1000)/10^12</f>
         <v>6.323719876923076</v>
       </c>
       <c r="W247" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(P247/1000)/10^12</f>
         <v>4.6709294545454547</v>
       </c>
       <c r="X247" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24">
-      <c r="A248" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="248" spans="2:24">
       <c r="B248" s="1"/>
       <c r="C248" s="1">
         <v>14</v>
@@ -10864,35 +10888,34 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="R248" s="4">
-        <f t="shared" si="9"/>
+        <f>(D248-I248+1+2*K248)/M248</f>
         <v>7</v>
       </c>
       <c r="S248" s="4">
-        <f t="shared" si="10"/>
+        <f>(C248-H248+1+2*J248)/L248</f>
         <v>7</v>
       </c>
       <c r="T248" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.43100000000000005</v>
       </c>
       <c r="U248" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(N248/1000)/10^12</f>
         <v>3.3970396033057852</v>
       </c>
       <c r="V248" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(O248/1000)/10^12</f>
         <v>2.8347709793103446</v>
       </c>
       <c r="W248" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(P248/1000)/10^12</f>
         <v>2.4911623757575758</v>
       </c>
       <c r="X248" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="249" spans="1:24">
-      <c r="A249" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="249" spans="2:24">
       <c r="B249" s="1"/>
       <c r="C249" s="1">
         <v>7</v>
@@ -10937,35 +10960,34 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="R249" s="4">
-        <f t="shared" si="9"/>
+        <f>(D249-I249+1+2*K249)/M249</f>
         <v>7</v>
       </c>
       <c r="S249" s="4">
-        <f t="shared" si="10"/>
+        <f>(C249-H249+1+2*J249)/L249</f>
         <v>7</v>
       </c>
       <c r="T249" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.19</v>
       </c>
       <c r="U249" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(N249/1000)/10^12</f>
         <v>5.1523344401114208</v>
       </c>
       <c r="V249" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(O249/1000)/10^12</f>
         <v>4.2230321095890409</v>
       </c>
       <c r="W249" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(P249/1000)/10^12</f>
         <v>4.7065854045801521</v>
       </c>
       <c r="X249" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24">
-      <c r="A250" s="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250" spans="2:24">
       <c r="B250" s="1"/>
       <c r="C250" s="1">
         <v>7</v>
@@ -11010,35 +11032,34 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="R250" s="4">
-        <f t="shared" si="9"/>
+        <f>(D250-I250+1+2*K250)/M250</f>
         <v>7</v>
       </c>
       <c r="S250" s="4">
-        <f t="shared" si="10"/>
+        <f>(C250-H250+1+2*J250)/L250</f>
         <v>7</v>
       </c>
       <c r="T250" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.68300000000000005</v>
       </c>
       <c r="U250" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(N250/1000)/10^12</f>
         <v>4.5169427692307691</v>
       </c>
       <c r="V250" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(O250/1000)/10^12</f>
         <v>3.7367435636363631</v>
       </c>
       <c r="W250" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(P250/1000)/10^12</f>
         <v>2.9255643558718858</v>
       </c>
       <c r="X250" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24">
-      <c r="A251" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="251" spans="2:24">
       <c r="B251" s="1"/>
       <c r="C251" s="1">
         <v>14</v>
@@ -11083,35 +11104,34 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="R251" s="4">
-        <f t="shared" si="9"/>
+        <f>(D251-I251+1+2*K251)/M251</f>
         <v>7</v>
       </c>
       <c r="S251" s="4">
-        <f t="shared" si="10"/>
+        <f>(C251-H251+1+2*J251)/L251</f>
         <v>7</v>
       </c>
       <c r="T251" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.2839999999999998</v>
       </c>
       <c r="U251" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(N251/1000)/10^12</f>
         <v>5.2362011719745221</v>
       </c>
       <c r="V251" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(O251/1000)/10^12</f>
         <v>4.3496485925925921</v>
       </c>
       <c r="W251" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(P251/1000)/10^12</f>
         <v>2.7773094054054059</v>
       </c>
       <c r="X251" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24">
-      <c r="A252" s="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="252" spans="2:24">
       <c r="B252" s="1"/>
       <c r="C252" s="1">
         <v>7</v>
@@ -11156,35 +11176,34 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="R252" s="4">
-        <f t="shared" si="9"/>
+        <f>(D252-I252+1+2*K252)/M252</f>
         <v>7</v>
       </c>
       <c r="S252" s="4">
-        <f t="shared" si="10"/>
+        <f>(C252-H252+1+2*J252)/L252</f>
         <v>7</v>
       </c>
       <c r="T252" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.67999999999999994</v>
       </c>
       <c r="U252" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(N252/1000)/10^12</f>
         <v>3.7710256146788996</v>
       </c>
       <c r="V252" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(O252/1000)/10^12</f>
         <v>4.9226561916167659</v>
       </c>
       <c r="W252" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(P252/1000)/10^12</f>
         <v>2.7867240135593221</v>
       </c>
       <c r="X252" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="253" spans="1:24">
-      <c r="A253" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="253" spans="2:24">
       <c r="B253" s="1"/>
       <c r="C253">
         <v>112</v>
@@ -11229,35 +11248,34 @@
         <v>1.127</v>
       </c>
       <c r="R253" s="4">
-        <f t="shared" si="9"/>
+        <f>(D253-I253+1+2*K253)/M253</f>
         <v>112</v>
       </c>
       <c r="S253" s="4">
-        <f t="shared" si="10"/>
+        <f>(C253-H253+1+2*J253)/L253</f>
         <v>112</v>
       </c>
       <c r="T253" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.821</v>
       </c>
       <c r="U253" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(N253/1000)/10^12</f>
         <v>4.7934902857142854</v>
       </c>
       <c r="V253" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(O253/1000)/10^12</f>
         <v>4.6842369458689461</v>
       </c>
       <c r="W253" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(P253/1000)/10^12</f>
         <v>1.458888347826087</v>
       </c>
       <c r="X253" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="254" spans="1:24">
-      <c r="A254" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="254" spans="2:24">
       <c r="B254" s="1"/>
       <c r="C254">
         <v>56</v>
@@ -11302,35 +11320,34 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="R254" s="4">
-        <f t="shared" si="9"/>
+        <f>(D254-I254+1+2*K254)/M254</f>
         <v>56</v>
       </c>
       <c r="S254" s="4">
-        <f t="shared" si="10"/>
+        <f>(C254-H254+1+2*J254)/L254</f>
         <v>56</v>
       </c>
       <c r="T254" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.085</v>
       </c>
       <c r="U254" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(N254/1000)/10^12</f>
         <v>5.5546188108108119</v>
       </c>
       <c r="V254" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(O254/1000)/10^12</f>
         <v>6.3727409612403108</v>
       </c>
       <c r="W254" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(P254/1000)/10^12</f>
         <v>3.0963600150659136</v>
       </c>
       <c r="X254" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="255" spans="1:24">
-      <c r="A255" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="255" spans="2:24">
       <c r="B255" s="1"/>
       <c r="C255">
         <v>56</v>
@@ -11375,35 +11392,34 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="R255" s="4">
-        <f t="shared" si="9"/>
+        <f>(D255-I255+1+2*K255)/M255</f>
         <v>56</v>
       </c>
       <c r="S255" s="4">
-        <f t="shared" si="10"/>
+        <f>(C255-H255+1+2*J255)/L255</f>
         <v>56</v>
       </c>
       <c r="T255" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.252</v>
       </c>
       <c r="U255" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(N255/1000)/10^12</f>
         <v>6.6030809959839365</v>
       </c>
       <c r="V255" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(O255/1000)/10^12</f>
         <v>5.390712026229509</v>
       </c>
       <c r="W255" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(P255/1000)/10^12</f>
         <v>2.3555403553008598</v>
       </c>
       <c r="X255" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24">
-      <c r="A256" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="256" spans="2:24">
       <c r="B256" s="1"/>
       <c r="C256">
         <v>56</v>
@@ -11448,35 +11464,34 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="R256" s="4">
-        <f t="shared" si="9"/>
+        <f>(D256-I256+1+2*K256)/M256</f>
         <v>28</v>
       </c>
       <c r="S256" s="4">
-        <f t="shared" si="10"/>
+        <f>(C256-H256+1+2*J256)/L256</f>
         <v>28</v>
       </c>
       <c r="T256" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.88200000000000001</v>
       </c>
       <c r="U256" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(N256/1000)/10^12</f>
         <v>6.2754472061068691</v>
       </c>
       <c r="V256" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(O256/1000)/10^12</f>
         <v>1.6880566406570843</v>
       </c>
       <c r="W256" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(P256/1000)/10^12</f>
         <v>3.1139529696969692</v>
       </c>
       <c r="X256" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="257" spans="1:24">
-      <c r="A257" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="257" spans="2:24">
       <c r="B257" s="1"/>
       <c r="C257" s="1">
         <v>28</v>
@@ -11521,35 +11536,34 @@
         <v>0.315</v>
       </c>
       <c r="R257" s="4">
-        <f t="shared" ref="R257:R268" si="22">(D257-H257+1+2*J257)/L257</f>
+        <f>(D257-I257+1+2*K257)/M257</f>
         <v>28</v>
       </c>
       <c r="S257" s="4">
-        <f t="shared" ref="S257:S268" si="23">(C257-I257+1+2*K257)/M257</f>
+        <f>(C257-H257+1+2*J257)/L257</f>
         <v>28</v>
       </c>
       <c r="T257" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.751</v>
       </c>
       <c r="U257" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(N257/1000)/10^12</f>
         <v>7.1797692925764194</v>
       </c>
       <c r="V257" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(O257/1000)/10^12</f>
         <v>7.9428365603864739</v>
       </c>
       <c r="W257" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(P257/1000)/10^12</f>
         <v>5.2195783111111114</v>
       </c>
       <c r="X257" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="258" spans="1:24">
-      <c r="A258" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="258" spans="2:24">
       <c r="B258" s="1"/>
       <c r="C258" s="1">
         <v>28</v>
@@ -11594,35 +11608,34 @@
         <v>0.31</v>
       </c>
       <c r="R258" s="4">
-        <f t="shared" si="22"/>
+        <f>(D258-I258+1+2*K258)/M258</f>
         <v>28</v>
       </c>
       <c r="S258" s="4">
-        <f t="shared" si="23"/>
+        <f>(C258-H258+1+2*J258)/L258</f>
         <v>28</v>
       </c>
       <c r="T258" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.747</v>
       </c>
       <c r="U258" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(N258/1000)/10^12</f>
         <v>8.059642980392157</v>
       </c>
       <c r="V258" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(O258/1000)/10^12</f>
         <v>7.0565114506437761</v>
       </c>
       <c r="W258" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(P258/1000)/10^12</f>
         <v>5.303765058064517</v>
       </c>
       <c r="X258" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="259" spans="1:24">
-      <c r="A259" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="259" spans="2:24">
       <c r="B259" s="1"/>
       <c r="C259" s="1">
         <v>28</v>
@@ -11667,35 +11680,34 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="R259" s="4">
-        <f t="shared" si="22"/>
+        <f>(D259-I259+1+2*K259)/M259</f>
         <v>14</v>
       </c>
       <c r="S259" s="4">
-        <f t="shared" si="23"/>
+        <f>(C259-H259+1+2*J259)/L259</f>
         <v>14</v>
       </c>
       <c r="T259" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.70300000000000007</v>
       </c>
       <c r="U259" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(N259/1000)/10^12</f>
         <v>7.2112595087719296</v>
       </c>
       <c r="V259" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(O259/1000)/10^12</f>
         <v>2.1242469870801033</v>
       </c>
       <c r="W259" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(P259/1000)/10^12</f>
         <v>4.0697207128712867</v>
       </c>
       <c r="X259" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="260" spans="1:24">
-      <c r="A260" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="260" spans="2:24">
       <c r="B260" s="1"/>
       <c r="C260" s="1">
         <v>14</v>
@@ -11740,35 +11752,34 @@
         <v>0.28699999999999998</v>
       </c>
       <c r="R260" s="4">
-        <f t="shared" si="22"/>
+        <f>(D260-I260+1+2*K260)/M260</f>
         <v>14</v>
       </c>
       <c r="S260" s="4">
-        <f t="shared" si="23"/>
+        <f>(C260-H260+1+2*J260)/L260</f>
         <v>14</v>
       </c>
       <c r="T260" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.70300000000000007</v>
       </c>
       <c r="U260" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(N260/1000)/10^12</f>
         <v>7.5420512293577993</v>
       </c>
       <c r="V260" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(O260/1000)/10^12</f>
         <v>8.3038745858585852</v>
       </c>
       <c r="W260" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(P260/1000)/10^12</f>
         <v>5.728805463414635</v>
       </c>
       <c r="X260" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24">
-      <c r="A261" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="261" spans="2:24">
       <c r="B261" s="1"/>
       <c r="C261" s="1">
         <v>28</v>
@@ -11813,35 +11824,34 @@
         <v>0.64900000000000002</v>
       </c>
       <c r="R261" s="4">
-        <f t="shared" si="22"/>
+        <f>(D261-I261+1+2*K261)/M261</f>
         <v>14</v>
       </c>
       <c r="S261" s="4">
-        <f t="shared" si="23"/>
+        <f>(C261-H261+1+2*J261)/L261</f>
         <v>14</v>
       </c>
       <c r="T261" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.9239999999999999</v>
       </c>
       <c r="U261" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(N261/1000)/10^12</f>
         <v>7.7010171803278693</v>
       </c>
       <c r="V261" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(O261/1000)/10^12</f>
         <v>3.877752754716981</v>
       </c>
       <c r="W261" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(P261/1000)/10^12</f>
         <v>5.0667709337442215</v>
       </c>
       <c r="X261" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="262" spans="1:24">
-      <c r="A262" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262" spans="2:24">
       <c r="B262" s="1"/>
       <c r="C262" s="1">
         <v>14</v>
@@ -11886,35 +11896,34 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="R262" s="4">
-        <f t="shared" si="22"/>
+        <f>(D262-I262+1+2*K262)/M262</f>
         <v>14</v>
       </c>
       <c r="S262" s="4">
-        <f t="shared" si="23"/>
+        <f>(C262-H262+1+2*J262)/L262</f>
         <v>14</v>
       </c>
       <c r="T262" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.72399999999999998</v>
       </c>
       <c r="U262" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(N262/1000)/10^12</f>
         <v>8.3886079999999996</v>
       </c>
       <c r="V262" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(O262/1000)/10^12</f>
         <v>7.3729469417040363</v>
       </c>
       <c r="W262" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(P262/1000)/10^12</f>
         <v>5.390712026229509</v>
       </c>
       <c r="X262" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="263" spans="1:24">
-      <c r="A263" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="263" spans="2:24">
       <c r="B263" s="1"/>
       <c r="C263" s="1">
         <v>14</v>
@@ -11959,35 +11968,34 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="R263" s="4">
-        <f t="shared" si="22"/>
+        <f>(D263-I263+1+2*K263)/M263</f>
         <v>14</v>
       </c>
       <c r="S263" s="4">
-        <f t="shared" si="23"/>
+        <f>(C263-H263+1+2*J263)/L263</f>
         <v>14</v>
       </c>
       <c r="T263" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="U263" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(N263/1000)/10^12</f>
         <v>7.5420512293577993</v>
       </c>
       <c r="V263" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(O263/1000)/10^12</f>
         <v>8.3038745858585852</v>
       </c>
       <c r="W263" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(P263/1000)/10^12</f>
         <v>5.7089137777777781</v>
       </c>
       <c r="X263" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="264" spans="1:24">
-      <c r="A264" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="264" spans="2:24">
       <c r="B264" s="1"/>
       <c r="C264" s="1">
         <v>14</v>
@@ -12032,35 +12040,34 @@
         <v>0.246</v>
       </c>
       <c r="R264" s="4">
-        <f t="shared" si="22"/>
+        <f>(D264-I264+1+2*K264)/M264</f>
         <v>7</v>
       </c>
       <c r="S264" s="4">
-        <f t="shared" si="23"/>
+        <f>(C264-H264+1+2*J264)/L264</f>
         <v>7</v>
       </c>
       <c r="T264" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.67399999999999993</v>
       </c>
       <c r="U264" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(N264/1000)/10^12</f>
         <v>6.0895080296296298</v>
       </c>
       <c r="V264" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(O264/1000)/10^12</f>
         <v>2.805746020477816</v>
       </c>
       <c r="W264" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(P264/1000)/10^12</f>
         <v>3.3418031869918696</v>
       </c>
       <c r="X264" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="265" spans="1:24">
-      <c r="A265" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="265" spans="2:24">
       <c r="B265" s="1"/>
       <c r="C265" s="1">
         <v>7</v>
@@ -12105,35 +12112,34 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="R265" s="4">
-        <f t="shared" si="22"/>
+        <f>(D265-I265+1+2*K265)/M265</f>
         <v>7</v>
       </c>
       <c r="S265" s="4">
-        <f t="shared" si="23"/>
+        <f>(C265-H265+1+2*J265)/L265</f>
         <v>7</v>
       </c>
       <c r="T265" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.4040000000000001</v>
       </c>
       <c r="U265" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(N265/1000)/10^12</f>
         <v>7.3987522559999999</v>
       </c>
       <c r="V265" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(O265/1000)/10^12</f>
         <v>8.1304969846153856</v>
       </c>
       <c r="W265" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(P265/1000)/10^12</f>
         <v>8.2391450512249449</v>
       </c>
       <c r="X265" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="266" spans="1:24">
-      <c r="A266" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="266" spans="2:24">
       <c r="B266" s="1"/>
       <c r="C266" s="1">
         <v>7</v>
@@ -12178,35 +12184,34 @@
         <v>0.375</v>
       </c>
       <c r="R266" s="4">
-        <f t="shared" si="22"/>
+        <f>(D266-I266+1+2*K266)/M266</f>
         <v>7</v>
       </c>
       <c r="S266" s="4">
-        <f t="shared" si="23"/>
+        <f>(C266-H266+1+2*J266)/L266</f>
         <v>7</v>
       </c>
       <c r="T266" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.82399999999999995</v>
       </c>
       <c r="U266" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(N266/1000)/10^12</f>
         <v>7.8668285550239236</v>
       </c>
       <c r="V266" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(O266/1000)/10^12</f>
         <v>6.8506965333333341</v>
       </c>
       <c r="W266" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(P266/1000)/10^12</f>
         <v>4.3844457813333326</v>
       </c>
       <c r="X266" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="267" spans="1:24">
-      <c r="A267" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267" spans="2:24">
       <c r="B267" s="1"/>
       <c r="C267" s="1">
         <v>14</v>
@@ -12251,35 +12256,34 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="R267" s="4">
-        <f t="shared" si="22"/>
+        <f>(D267-I267+1+2*K267)/M267</f>
         <v>7</v>
       </c>
       <c r="S267" s="4">
-        <f t="shared" si="23"/>
+        <f>(C267-H267+1+2*J267)/L267</f>
         <v>7</v>
       </c>
       <c r="T267" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.081</v>
       </c>
       <c r="U267" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(N267/1000)/10^12</f>
         <v>8.1193440395061725</v>
       </c>
       <c r="V267" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(O267/1000)/10^12</f>
         <v>3.9007524744958482</v>
       </c>
       <c r="W267" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(P267/1000)/10^12</f>
         <v>3.9475802352941178</v>
       </c>
       <c r="X267" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="268" spans="1:24">
-      <c r="A268" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="268" spans="2:24">
       <c r="B268" s="1"/>
       <c r="C268" s="1">
         <v>7</v>
@@ -12324,36 +12328,36 @@
         <v>0.40400000000000003</v>
       </c>
       <c r="R268" s="4">
-        <f t="shared" si="22"/>
+        <f>(D268-I268+1+2*K268)/M268</f>
         <v>7</v>
       </c>
       <c r="S268" s="4">
-        <f t="shared" si="23"/>
+        <f>(C268-H268+1+2*J268)/L268</f>
         <v>7</v>
       </c>
       <c r="T268" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.85099999999999998</v>
       </c>
       <c r="U268" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(N268/1000)/10^12</f>
         <v>6.9964560340425539</v>
       </c>
       <c r="V268" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(O268/1000)/10^12</f>
         <v>7.755505509433962</v>
       </c>
       <c r="W268" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(P268/1000)/10^12</f>
         <v>4.0697207128712867</v>
       </c>
       <c r="X268" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="271" spans="1:24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="271" spans="2:24">
       <c r="D271" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12361,28 +12365,28 @@
     </row>
     <row r="278" spans="1:12">
       <c r="A278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" t="s">
         <v>13</v>
       </c>
-      <c r="C278" t="s">
-        <v>15</v>
-      </c>
       <c r="D278" t="s">
         <v>3</v>
       </c>
       <c r="E278" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G278" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H278" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I278" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J278" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12427,11 +12431,11 @@
         <v>9.3390000000000004</v>
       </c>
       <c r="I281" s="2">
-        <f t="shared" ref="I281:J291" si="24">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
+        <f t="shared" ref="I281:J291" si="16">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
         <v>1.1328994515539303</v>
       </c>
       <c r="J281" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.0616914016489989</v>
       </c>
     </row>
@@ -12452,11 +12456,11 @@
         <v>11.461</v>
       </c>
       <c r="I282" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.7234722753346079</v>
       </c>
       <c r="J282" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.7302392461390803</v>
       </c>
     </row>
@@ -12481,11 +12485,11 @@
         <v>10.028</v>
       </c>
       <c r="I283" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>3.3028434377081948</v>
       </c>
       <c r="J283" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>3.9549804547267646</v>
       </c>
     </row>
@@ -12506,11 +12510,11 @@
         <v>6.7670000000000003</v>
       </c>
       <c r="I284" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.99121748375664498</v>
       </c>
       <c r="J284" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.99194987439042404</v>
       </c>
     </row>
@@ -12531,11 +12535,11 @@
         <v>9.9939999999999998</v>
       </c>
       <c r="I285" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.3267170273742466</v>
       </c>
       <c r="J285" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.3433109465679409</v>
       </c>
     </row>
@@ -12556,11 +12560,11 @@
         <v>15.396000000000001</v>
       </c>
       <c r="I286" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.6874119658119655</v>
       </c>
       <c r="J286" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.743965913224214</v>
       </c>
     </row>
@@ -12585,11 +12589,11 @@
         <v>11.316000000000001</v>
       </c>
       <c r="I287" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>3.787037968970381</v>
       </c>
       <c r="J287" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>4.7455106398020499</v>
       </c>
     </row>
@@ -12610,11 +12614,11 @@
         <v>10.288</v>
       </c>
       <c r="I288" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.99288156773643832</v>
       </c>
       <c r="J288" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.0194214618973561</v>
       </c>
     </row>
@@ -12635,11 +12639,11 @@
         <v>12.74</v>
       </c>
       <c r="I289" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.6252608089260807</v>
       </c>
       <c r="J289" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.6464376766091051</v>
       </c>
     </row>
@@ -12660,11 +12664,11 @@
         <v>18.085000000000001</v>
       </c>
       <c r="I290" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.2692287553415915</v>
       </c>
       <c r="J290" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.3196700027647221</v>
       </c>
     </row>
@@ -12685,38 +12689,38 @@
         <v>14.29</v>
       </c>
       <c r="I291" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>4.9403794382617914</v>
       </c>
       <c r="J291" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>5.8714110566829953</v>
       </c>
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" t="s">
+        <v>13</v>
+      </c>
+      <c r="D295" t="s">
+        <v>3</v>
+      </c>
+      <c r="E295" t="s">
         <v>14</v>
       </c>
-      <c r="C295" t="s">
-        <v>15</v>
-      </c>
-      <c r="D295" t="s">
-        <v>3</v>
-      </c>
-      <c r="E295" t="s">
-        <v>16</v>
-      </c>
       <c r="G295" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H295" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I295" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J295" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -12736,11 +12740,11 @@
         <v>1.9359999999999999</v>
       </c>
       <c r="I296" s="2">
-        <f t="shared" ref="I296:J312" si="25">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
+        <f t="shared" ref="I296:J312" si="17">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
         <v>0.53807620269403467</v>
       </c>
       <c r="J296" s="2">
-        <f t="shared" ref="J296:J311" si="26">(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
+        <f t="shared" ref="J296:J311" si="18">(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
         <v>0.43329586776859502</v>
       </c>
     </row>
@@ -12761,11 +12765,11 @@
         <v>3.9689999999999999</v>
       </c>
       <c r="I297" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.60764998189061936</v>
       </c>
       <c r="J297" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0.42270637440161257</v>
       </c>
     </row>
@@ -12786,11 +12790,11 @@
         <v>3.992</v>
       </c>
       <c r="I298" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.4296732850447378</v>
       </c>
       <c r="J298" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0.84054188376753503</v>
       </c>
     </row>
@@ -12811,11 +12815,11 @@
         <v>4.9889999999999999</v>
       </c>
       <c r="I299" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2.5134405992509361</v>
       </c>
       <c r="J299" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>1.3451365804770496</v>
       </c>
     </row>
@@ -12836,11 +12840,11 @@
         <v>2.855</v>
       </c>
       <c r="I300" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.72362372223420324</v>
       </c>
       <c r="J300" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>1.1752865849387042</v>
       </c>
     </row>
@@ -12861,11 +12865,11 @@
         <v>5.173</v>
       </c>
       <c r="I301" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.4710404208680403</v>
       </c>
       <c r="J301" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>1.2972910110187512</v>
       </c>
     </row>
@@ -12886,11 +12890,11 @@
         <v>8.1389999999999993</v>
       </c>
       <c r="I302" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3.0790944712089927</v>
       </c>
       <c r="J302" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>1.6490690256788305</v>
       </c>
     </row>
@@ -12911,11 +12915,11 @@
         <v>11.946999999999999</v>
       </c>
       <c r="I303" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>5.1901673627223515</v>
       </c>
       <c r="J303" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>2.2468858793002426</v>
       </c>
     </row>
@@ -12936,11 +12940,11 @@
         <v>9.8409999999999993</v>
       </c>
       <c r="I304" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.64971307967857483</v>
       </c>
       <c r="J304" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>1.3638626968803984</v>
       </c>
     </row>
@@ -12961,11 +12965,11 @@
         <v>11.788</v>
       </c>
       <c r="I305" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2.0510044009779955</v>
       </c>
       <c r="J305" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>2.2771925347811335</v>
       </c>
     </row>
@@ -12986,11 +12990,11 @@
         <v>19.222999999999999</v>
       </c>
       <c r="I306" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>5.2701571807205267</v>
       </c>
       <c r="J306" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>2.7928570566508868</v>
       </c>
     </row>
@@ -13011,11 +13015,11 @@
         <v>19.62</v>
       </c>
       <c r="I307" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>6.6576253968253969</v>
       </c>
       <c r="J307" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>5.472690234454638</v>
       </c>
     </row>
@@ -13036,11 +13040,11 @@
         <v>57.247999999999998</v>
       </c>
       <c r="I308" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.66325395268392129</v>
       </c>
       <c r="J308" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0.93779854667411966</v>
       </c>
     </row>
@@ -13061,11 +13065,11 @@
         <v>36.305</v>
       </c>
       <c r="I309" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2.6935800717457292</v>
       </c>
       <c r="J309" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>2.957559080016527</v>
       </c>
     </row>
@@ -13086,11 +13090,11 @@
         <v>46.113</v>
       </c>
       <c r="I310" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>6.666305482088533</v>
       </c>
       <c r="J310" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>4.6570026847093011</v>
       </c>
     </row>
@@ -13111,11 +13115,11 @@
         <v>59.124000000000002</v>
       </c>
       <c r="I311" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>7.825821391348712</v>
       </c>
       <c r="J311" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>7.2643381638590077</v>
       </c>
     </row>
@@ -13136,11 +13140,11 @@
         <v>7.2690000000000001</v>
       </c>
       <c r="I312" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.63689448287497885</v>
       </c>
       <c r="J312" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.0386225340486999</v>
       </c>
     </row>
@@ -13161,11 +13165,11 @@
         <v>9.3620000000000001</v>
       </c>
       <c r="I313" s="2">
-        <f t="shared" ref="I313:J317" si="27">(8*$E313*$D313*$C313*$C313)/(G313/1000)/10^12</f>
+        <f t="shared" ref="I313:J317" si="19">(8*$E313*$D313*$C313*$C313)/(G313/1000)/10^12</f>
         <v>0.6840707833099261</v>
       </c>
       <c r="J313" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1.6128492202520828</v>
       </c>
     </row>
@@ -13186,11 +13190,11 @@
         <v>31.28</v>
       </c>
       <c r="I314" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.6085331951282713</v>
       </c>
       <c r="J314" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.96544081841432217</v>
       </c>
     </row>
@@ -13211,11 +13215,11 @@
         <v>3.6819999999999999</v>
       </c>
       <c r="I315" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.64133088685015294</v>
       </c>
       <c r="J315" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.34174122759369907</v>
       </c>
     </row>
@@ -13236,11 +13240,11 @@
         <v>15.285</v>
       </c>
       <c r="I316" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.37566538289296914</v>
       </c>
       <c r="J316" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.16464392541707557</v>
       </c>
     </row>
@@ -13261,11 +13265,11 @@
         <v>9.0909999999999993</v>
       </c>
       <c r="I317" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.77314359447004599</v>
       </c>
       <c r="J317" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.55364259157408424</v>
       </c>
     </row>
@@ -13279,28 +13283,28 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C320" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
       </c>
       <c r="E320" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I320" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J320" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="321" spans="3:10">
@@ -13345,11 +13349,11 @@
         <v>638.21500000000003</v>
       </c>
       <c r="I322" s="2">
-        <f t="shared" ref="I322:I339" si="28">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <f t="shared" ref="I322:I339" si="20">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
         <v>3.8250096772572726</v>
       </c>
       <c r="J322" s="2">
-        <f t="shared" ref="J322:J339" si="29">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <f t="shared" ref="J322:J339" si="21">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
         <v>1.7892078124143118</v>
       </c>
     </row>
@@ -13370,11 +13374,11 @@
         <v>319.88</v>
       </c>
       <c r="I323" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>3.7884996748636421</v>
       </c>
       <c r="J323" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1.7848869325997248</v>
       </c>
     </row>
@@ -13395,11 +13399,11 @@
         <v>160.09399999999999</v>
       </c>
       <c r="I324" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>3.7433249164990339</v>
       </c>
       <c r="J324" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1.7784148676652469</v>
       </c>
     </row>
@@ -13420,11 +13424,11 @@
         <v>927.20399999999995</v>
       </c>
       <c r="I325" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>3.0474401200852705</v>
       </c>
       <c r="J325" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1.3027980379722264</v>
       </c>
     </row>
@@ -13445,11 +13449,11 @@
         <v>464.83199999999999</v>
       </c>
       <c r="I326" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>3.0357607298132741</v>
       </c>
       <c r="J326" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1.2993506815365552</v>
       </c>
     </row>
@@ -13470,11 +13474,11 @@
         <v>233.09200000000001</v>
       </c>
       <c r="I327" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.9929622200198214</v>
       </c>
       <c r="J327" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1.2955823794896435</v>
       </c>
     </row>
@@ -13495,11 +13499,11 @@
         <v>116.374</v>
       </c>
       <c r="I328" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.9215693242021534</v>
       </c>
       <c r="J328" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1.2940372490075103</v>
       </c>
     </row>
@@ -13520,11 +13524,11 @@
         <v>694.33199999999999</v>
       </c>
       <c r="I329" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.2903701726177839</v>
       </c>
       <c r="J329" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0.97860569295380306</v>
       </c>
     </row>
@@ -13545,11 +13549,11 @@
         <v>348.52300000000002</v>
       </c>
       <c r="I330" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.2655887326949244</v>
       </c>
       <c r="J330" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0.97479541952754911</v>
       </c>
     </row>
@@ -13570,11 +13574,11 @@
         <v>175.45500000000001</v>
       </c>
       <c r="I331" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.2099408320974159</v>
       </c>
       <c r="J331" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0.96816455501410625</v>
       </c>
     </row>
@@ -13595,11 +13599,11 @@
         <v>88.668000000000006</v>
       </c>
       <c r="I332" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.1410955585774589</v>
       </c>
       <c r="J332" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0.95534086236297189</v>
       </c>
     </row>
@@ -13620,11 +13624,11 @@
         <v>1154.9090000000001</v>
       </c>
       <c r="I333" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>3.6116211029064238</v>
       </c>
       <c r="J333" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1.6342731765013518</v>
       </c>
     </row>
@@ -13645,11 +13649,11 @@
         <v>579.39599999999996</v>
       </c>
       <c r="I334" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>3.5821265353840546</v>
       </c>
       <c r="J334" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1.6287968850319989</v>
       </c>
     </row>
@@ -13670,11 +13674,11 @@
         <v>290.43200000000002</v>
       </c>
       <c r="I335" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>3.5497084909989547</v>
       </c>
       <c r="J335" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1.6246804759806082</v>
       </c>
     </row>
@@ -13695,11 +13699,11 @@
         <v>145.24199999999999</v>
       </c>
       <c r="I336" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>3.5050416254543282</v>
       </c>
       <c r="J336" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1.6200579336555545</v>
       </c>
     </row>
@@ -13720,11 +13724,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="I337" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0.43389351724137931</v>
       </c>
       <c r="J337" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0.28597527272727269</v>
       </c>
     </row>
@@ -13745,11 +13749,11 @@
         <v>469.43200000000002</v>
       </c>
       <c r="I338" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1.6805785835921068</v>
       </c>
       <c r="J338" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0.64330912251401695</v>
       </c>
     </row>
@@ -13770,11 +13774,11 @@
         <v>175.30799999999999</v>
       </c>
       <c r="I339" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.8738498315601153</v>
       </c>
       <c r="J339" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>3.4452493668286674</v>
       </c>
     </row>
@@ -13804,31 +13808,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="8">
         <v>8</v>
@@ -13836,7 +13840,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8">
         <v>5</v>
@@ -13844,15 +13848,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="9">
         <v>367.48</v>
@@ -13860,26 +13864,26 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/results/train/DeepBench_NV_TitanX_Pascal.xlsx
+++ b/results/train/DeepBench_NV_TitanX_Pascal.xlsx
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:AE339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1280,6 +1280,7 @@
     <col min="12" max="12" width="19.83203125" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
     <col min="21" max="21" width="22.33203125" customWidth="1"/>
     <col min="22" max="22" width="24.6640625" customWidth="1"/>
@@ -5611,27 +5612,27 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="R175" s="4">
-        <f>(D175-I175+1+2*K175)/M175</f>
-        <v>78.5</v>
+        <f>1+ROUNDDOWN((($C175-$H175+2*$J175)/$L175),0)</f>
+        <v>341</v>
       </c>
       <c r="S175" s="4">
-        <f>(C175-H175+1+2*J175)/L175</f>
-        <v>340.5</v>
+        <f>1+ROUNDDOWN((($D175-$I175+2*$K175)/$M175),0)</f>
+        <v>79</v>
       </c>
       <c r="T175" s="2">
         <f>N175+P175</f>
         <v>0.41200000000000003</v>
       </c>
       <c r="U175" s="2">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
-        <v>5.1838545454545448</v>
+        <f t="shared" ref="U175:U206" si="9">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
+        <v>5.2245333333333326</v>
       </c>
       <c r="V175" s="2" t="s">
         <v>57</v>
       </c>
       <c r="W175" s="2">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
-        <v>2.4438171428571427</v>
+        <f t="shared" ref="W175:W206" si="10">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
+        <v>2.4629942857142857</v>
       </c>
       <c r="X175" s="1" t="s">
         <v>33</v>
@@ -5683,27 +5684,27 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="R176" s="4">
-        <f>(D176-I176+1+2*K176)/M176</f>
-        <v>78.5</v>
+        <f t="shared" ref="R176:R239" si="11">1+ROUNDDOWN((($C176-$H176+2*$J176)/$L176),0)</f>
+        <v>341</v>
       </c>
       <c r="S176" s="4">
-        <f>(C176-H176+1+2*J176)/L176</f>
-        <v>340.5</v>
+        <f t="shared" ref="S176:S239" si="12">1+ROUNDDOWN((($D176-$I176+2*$K176)/$M176),0)</f>
+        <v>79</v>
       </c>
       <c r="T176" s="2">
         <f>N176+P176</f>
         <v>0.746</v>
       </c>
       <c r="U176" s="2">
-        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(N176/1000)/10^12</f>
-        <v>5.9244051948051943</v>
+        <f t="shared" si="9"/>
+        <v>5.9708952380952383</v>
       </c>
       <c r="V176" s="2" t="s">
         <v>57</v>
       </c>
       <c r="W176" s="2">
-        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(P176/1000)/10^12</f>
-        <v>2.6573545631067961</v>
+        <f t="shared" si="10"/>
+        <v>2.6782073786407765</v>
       </c>
       <c r="X176" s="1" t="s">
         <v>33</v>
@@ -5755,27 +5756,27 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="R177" s="4">
-        <f>(D177-I177+1+2*K177)/M177</f>
-        <v>78.5</v>
+        <f t="shared" si="11"/>
+        <v>341</v>
       </c>
       <c r="S177" s="4">
-        <f>(C177-H177+1+2*J177)/L177</f>
-        <v>340.5</v>
+        <f t="shared" si="12"/>
+        <v>79</v>
       </c>
       <c r="T177" s="2">
         <f>N177+P177</f>
         <v>1.397</v>
       </c>
       <c r="U177" s="2">
-        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(N177/1000)/10^12</f>
-        <v>6.6757931707317066</v>
+        <f t="shared" si="9"/>
+        <v>6.7281795121951218</v>
       </c>
       <c r="V177" s="2" t="s">
         <v>57</v>
       </c>
       <c r="W177" s="2">
-        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(P177/1000)/10^12</f>
-        <v>2.7731258358662614</v>
+        <f t="shared" si="10"/>
+        <v>2.7948871327254308</v>
       </c>
       <c r="X177" s="1" t="s">
         <v>33</v>
@@ -5827,27 +5828,27 @@
         <v>2.1349999999999998</v>
       </c>
       <c r="R178" s="4">
-        <f>(D178-I178+1+2*K178)/M178</f>
-        <v>78.5</v>
+        <f t="shared" si="11"/>
+        <v>341</v>
       </c>
       <c r="S178" s="4">
-        <f>(C178-H178+1+2*J178)/L178</f>
-        <v>340.5</v>
+        <f t="shared" si="12"/>
+        <v>79</v>
       </c>
       <c r="T178" s="2">
         <f>N178+P178</f>
         <v>2.96</v>
       </c>
       <c r="U178" s="2">
-        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(N178/1000)/10^12</f>
-        <v>6.6353338181818184</v>
+        <f t="shared" si="9"/>
+        <v>6.6874026666666673</v>
       </c>
       <c r="V178" s="2" t="s">
         <v>57</v>
       </c>
       <c r="W178" s="2">
-        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(P178/1000)/10^12</f>
-        <v>2.5640048711943799</v>
+        <f t="shared" si="10"/>
+        <v>2.5841251522248245</v>
       </c>
       <c r="X178" s="1" t="s">
         <v>33</v>
@@ -5899,28 +5900,28 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="R179" s="4">
-        <f>(D179-I179+1+2*K179)/M179</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="S179" s="4">
-        <f>(C179-H179+1+2*J179)/L179</f>
-        <v>166</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="T179" s="2">
         <f>N179+O179+P179</f>
         <v>2.3519999999999999</v>
       </c>
       <c r="U179" s="2">
-        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(N179/1000)/10^12</f>
-        <v>6.7453968253968251</v>
+        <f t="shared" si="9"/>
+        <v>6.8353354497354495</v>
       </c>
       <c r="V179" s="2">
         <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(O179/1000)/10^12</f>
-        <v>1.6741694024950757</v>
+        <v>1.69649166119501</v>
       </c>
       <c r="W179" s="2">
-        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(P179/1000)/10^12</f>
-        <v>5.6535698447893568</v>
+        <f t="shared" si="10"/>
+        <v>5.7289507760532148</v>
       </c>
       <c r="X179" s="1" t="s">
         <v>33</v>
@@ -5972,28 +5973,28 @@
         <v>0.89400000000000002</v>
       </c>
       <c r="R180" s="4">
-        <f>(D180-I180+1+2*K180)/M180</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="S180" s="4">
-        <f>(C180-H180+1+2*J180)/L180</f>
-        <v>166</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="T180" s="2">
-        <f t="shared" ref="T180:T182" si="9">N180+O180+P180</f>
+        <f t="shared" ref="T180:T182" si="13">N180+O180+P180</f>
         <v>4.4370000000000003</v>
       </c>
       <c r="U180" s="2">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(N180/1000)/10^12</f>
-        <v>7.8696296296296291</v>
+        <f t="shared" si="9"/>
+        <v>7.9745580246913574</v>
       </c>
       <c r="V180" s="2">
         <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(O180/1000)/10^12</f>
-        <v>1.7614922279792746</v>
+        <v>1.7849787910189983</v>
       </c>
       <c r="W180" s="2">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(P180/1000)/10^12</f>
-        <v>5.7041610738255031</v>
+        <f t="shared" si="10"/>
+        <v>5.7802165548098428</v>
       </c>
       <c r="X180" s="1" t="s">
         <v>33</v>
@@ -6045,28 +6046,28 @@
         <v>1.726</v>
       </c>
       <c r="R181" s="4">
-        <f>(D181-I181+1+2*K181)/M181</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="S181" s="4">
-        <f>(C181-H181+1+2*J181)/L181</f>
-        <v>166</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="T181" s="2">
+        <f t="shared" si="13"/>
+        <v>8.73</v>
+      </c>
+      <c r="U181" s="2">
         <f t="shared" si="9"/>
-        <v>8.73</v>
-      </c>
-      <c r="U181" s="2">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(N181/1000)/10^12</f>
-        <v>7.7441457858769933</v>
+        <v>7.8474010630220192</v>
       </c>
       <c r="V181" s="2">
         <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(O181/1000)/10^12</f>
-        <v>1.7933954633374363</v>
+        <v>1.817307402848602</v>
       </c>
       <c r="W181" s="2">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(P181/1000)/10^12</f>
-        <v>5.9090614136732338</v>
+        <f t="shared" si="10"/>
+        <v>5.9878488991888759</v>
       </c>
       <c r="X181" s="1" t="s">
         <v>33</v>
@@ -6118,28 +6119,28 @@
         <v>3.4060000000000001</v>
       </c>
       <c r="R182" s="4">
-        <f>(D182-I182+1+2*K182)/M182</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="S182" s="4">
-        <f>(C182-H182+1+2*J182)/L182</f>
-        <v>166</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="T182" s="2">
+        <f t="shared" si="13"/>
+        <v>17.392999999999997</v>
+      </c>
+      <c r="U182" s="2">
         <f t="shared" si="9"/>
-        <v>17.392999999999997</v>
-      </c>
-      <c r="U182" s="2">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(N182/1000)/10^12</f>
-        <v>7.4472727272727282</v>
+        <v>7.5465696969696978</v>
       </c>
       <c r="V182" s="2">
         <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(O182/1000)/10^12</f>
-        <v>1.81348506401138</v>
+        <v>1.837664864864865</v>
       </c>
       <c r="W182" s="2">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(P182/1000)/10^12</f>
-        <v>5.9888667058132707</v>
+        <f t="shared" si="10"/>
+        <v>6.0687182618907807</v>
       </c>
       <c r="X182" s="1" t="s">
         <v>33</v>
@@ -6191,26 +6192,26 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="R183" s="4">
-        <f>(D183-I183+1+2*K183)/M183</f>
+        <f t="shared" si="11"/>
+        <v>480</v>
+      </c>
+      <c r="S183" s="4">
+        <f t="shared" si="12"/>
         <v>48</v>
-      </c>
-      <c r="S183" s="4">
-        <f>(C183-H183+1+2*J183)/L183</f>
-        <v>480</v>
       </c>
       <c r="T183" s="2">
         <f>N183+P183</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="U183" s="2">
-        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(N183/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>0.89217075630252107</v>
       </c>
       <c r="V183" s="2" t="s">
         <v>57</v>
       </c>
       <c r="W183" s="2">
-        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(P183/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.26149832512315269</v>
       </c>
       <c r="X183" s="1" t="s">
@@ -6263,19 +6264,19 @@
         <v>0.495</v>
       </c>
       <c r="R184" s="4">
-        <f>(D184-I184+1+2*K184)/M184</f>
+        <f t="shared" si="11"/>
+        <v>240</v>
+      </c>
+      <c r="S184" s="4">
+        <f t="shared" si="12"/>
         <v>24</v>
-      </c>
-      <c r="S184" s="4">
-        <f>(C184-H184+1+2*J184)/L184</f>
-        <v>240</v>
       </c>
       <c r="T184" s="2">
         <f>N184+O184+P184</f>
         <v>0.80200000000000005</v>
       </c>
       <c r="U184" s="2">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(N184/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>6.0667611428571426</v>
       </c>
       <c r="V184" s="2">
@@ -6283,7 +6284,7 @@
         <v>5.0859075449101789</v>
       </c>
       <c r="W184" s="2">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(P184/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.7158516363636365</v>
       </c>
       <c r="X184" s="1" t="s">
@@ -6336,19 +6337,19 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="R185" s="4">
-        <f>(D185-I185+1+2*K185)/M185</f>
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="S185" s="4">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="S185" s="4">
-        <f>(C185-H185+1+2*J185)/L185</f>
-        <v>120</v>
-      </c>
       <c r="T185" s="2">
-        <f t="shared" ref="T185:T186" si="10">N185+O185+P185</f>
+        <f t="shared" ref="T185:T186" si="14">N185+O185+P185</f>
         <v>0.53100000000000003</v>
       </c>
       <c r="U185" s="2">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(N185/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>7.4504084210526305</v>
       </c>
       <c r="V185" s="2">
@@ -6356,7 +6357,7 @@
         <v>9.9923124705882351</v>
       </c>
       <c r="W185" s="2">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(P185/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.5582727710843374</v>
       </c>
       <c r="X185" s="1" t="s">
@@ -6409,19 +6410,19 @@
         <v>0.183</v>
       </c>
       <c r="R186" s="4">
-        <f>(D186-I186+1+2*K186)/M186</f>
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="S186" s="4">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="S186" s="4">
-        <f>(C186-H186+1+2*J186)/L186</f>
-        <v>60</v>
-      </c>
       <c r="T186" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.33599999999999997</v>
       </c>
       <c r="U186" s="2">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(N186/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>10.357884878048781</v>
       </c>
       <c r="V186" s="2">
@@ -6429,7 +6430,7 @@
         <v>11.962627605633804</v>
       </c>
       <c r="W186" s="2">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(P186/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.6412380327868847</v>
       </c>
       <c r="X186" s="1" t="s">
@@ -6482,11 +6483,11 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="R187" s="4">
-        <f>(D187-I187+1+2*K187)/M187</f>
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="S187" s="4">
-        <f>(C187-H187+1+2*J187)/L187</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="T187" s="2">
@@ -6494,14 +6495,14 @@
         <v>0.13899999999999998</v>
       </c>
       <c r="U187" s="2">
-        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(N187/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.1789612972972972</v>
       </c>
       <c r="V187" s="2" t="s">
         <v>57</v>
       </c>
       <c r="W187" s="2">
-        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(P187/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.79040752941176473</v>
       </c>
       <c r="X187" s="1" t="s">
@@ -6554,11 +6555,11 @@
         <v>0.311</v>
       </c>
       <c r="R188" s="4">
-        <f>(D188-I188+1+2*K188)/M188</f>
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="S188" s="4">
-        <f>(C188-H188+1+2*J188)/L188</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="T188" s="2">
@@ -6566,7 +6567,7 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="U188" s="2">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(N188/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>10.749542399999999</v>
       </c>
       <c r="V188" s="2">
@@ -6574,7 +6575,7 @@
         <v>10.551698061349693</v>
       </c>
       <c r="W188" s="2">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(P188/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>5.5303112025723467</v>
       </c>
       <c r="X188" s="1" t="s">
@@ -6627,19 +6628,19 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="R189" s="4">
-        <f>(D189-I189+1+2*K189)/M189</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="S189" s="4">
-        <f>(C189-H189+1+2*J189)/L189</f>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="T189" s="2">
-        <f t="shared" ref="T189:T191" si="11">N189+O189+P189</f>
+        <f t="shared" ref="T189:T191" si="15">N189+O189+P189</f>
         <v>0.497</v>
       </c>
       <c r="U189" s="2">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(N189/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>13.029748363636363</v>
       </c>
       <c r="V189" s="2">
@@ -6647,7 +6648,7 @@
         <v>13.029748363636363</v>
       </c>
       <c r="W189" s="2">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(P189/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>7.3816600171673805</v>
       </c>
       <c r="X189" s="1" t="s">
@@ -6700,19 +6701,19 @@
         <v>0.153</v>
       </c>
       <c r="R190" s="4">
-        <f>(D190-I190+1+2*K190)/M190</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S190" s="4">
-        <f>(C190-H190+1+2*J190)/L190</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T190" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.30299999999999999</v>
       </c>
       <c r="U190" s="2">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(N190/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>12.010961454545455</v>
       </c>
       <c r="V190" s="2">
@@ -6720,7 +6721,7 @@
         <v>12.669096328767123</v>
       </c>
       <c r="W190" s="2">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(P190/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>6.0447322352941173</v>
       </c>
       <c r="X190" s="1" t="s">
@@ -6773,19 +6774,19 @@
         <v>0.28299999999999997</v>
       </c>
       <c r="R191" s="4">
-        <f>(D191-I191+1+2*K191)/M191</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S191" s="4">
-        <f>(C191-H191+1+2*J191)/L191</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T191" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.66700000000000004</v>
       </c>
       <c r="U191" s="2">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(N191/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>4.9456900106951878</v>
       </c>
       <c r="V191" s="2">
@@ -6793,7 +6794,7 @@
         <v>4.6946397563451772</v>
       </c>
       <c r="W191" s="2">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(P191/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.2680001130742049</v>
       </c>
       <c r="X191" s="1" t="s">
@@ -6846,11 +6847,11 @@
         <v>1.611</v>
       </c>
       <c r="R192" s="4">
-        <f>(D192-I192+1+2*K192)/M192</f>
+        <f t="shared" si="11"/>
         <v>224</v>
       </c>
       <c r="S192" s="4">
-        <f>(C192-H192+1+2*J192)/L192</f>
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
       <c r="T192" s="2">
@@ -6858,14 +6859,14 @@
         <v>2.0089999999999999</v>
       </c>
       <c r="U192" s="2">
-        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(N192/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>3.4855930854271353</v>
       </c>
       <c r="V192" s="2" t="s">
         <v>57</v>
       </c>
       <c r="W192" s="2">
-        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(P192/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.86112107262569837</v>
       </c>
       <c r="X192" s="1" t="s">
@@ -6918,11 +6919,11 @@
         <v>1.847</v>
       </c>
       <c r="R193" s="4">
-        <f>(D193-I193+1+2*K193)/M193</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="S193" s="4">
-        <f>(C193-H193+1+2*J193)/L193</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="T193" s="2">
@@ -6930,7 +6931,7 @@
         <v>3.7130000000000001</v>
       </c>
       <c r="U193" s="2">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(N193/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>15.145859275332651</v>
       </c>
       <c r="V193" s="2">
@@ -6938,7 +6939,7 @@
         <v>16.645111937007872</v>
       </c>
       <c r="W193" s="2">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(P193/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>8.0116429409853822</v>
       </c>
       <c r="X193" s="1" t="s">
@@ -6992,19 +6993,19 @@
         <v>1.6439999999999999</v>
       </c>
       <c r="R194" s="4">
-        <f>(D194-I194+1+2*K194)/M194</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S194" s="4">
-        <f>(C194-H194+1+2*J194)/L194</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T194" s="2">
-        <f t="shared" ref="T194:T197" si="12">N194+O194+P194</f>
+        <f t="shared" ref="T194:T197" si="16">N194+O194+P194</f>
         <v>6.19</v>
       </c>
       <c r="U194" s="2">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(N194/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>4.0607860900109767</v>
       </c>
       <c r="V194" s="2">
@@ -7012,7 +7013,7 @@
         <v>16.405215645232815</v>
       </c>
       <c r="W194" s="2">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(P194/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>9.0009151532846712</v>
       </c>
       <c r="X194" s="1" t="s">
@@ -7066,19 +7067,19 @@
         <v>1.8819999999999999</v>
       </c>
       <c r="R195" s="4">
-        <f>(D195-I195+1+2*K195)/M195</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S195" s="4">
-        <f>(C195-H195+1+2*J195)/L195</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T195" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.7640000000000002</v>
       </c>
       <c r="U195" s="2">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(N195/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>15.022847220304568</v>
       </c>
       <c r="V195" s="2">
@@ -7086,7 +7087,7 @@
         <v>16.496660548494983</v>
       </c>
       <c r="W195" s="2">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(P195/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>7.8626485185972372</v>
       </c>
       <c r="X195" s="1" t="s">
@@ -7139,19 +7140,19 @@
         <v>1.232</v>
       </c>
       <c r="R196" s="4">
-        <f>(D196-I196+1+2*K196)/M196</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S196" s="4">
-        <f>(C196-H196+1+2*J196)/L196</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T196" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.2389999999999999</v>
       </c>
       <c r="U196" s="2">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(N196/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>14.283305513513513</v>
       </c>
       <c r="V196" s="2">
@@ -7159,7 +7160,7 @@
         <v>15.130372711656443</v>
       </c>
       <c r="W196" s="2">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(P196/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>6.0054807272727277</v>
       </c>
       <c r="X196" s="1" t="s">
@@ -7212,19 +7213,19 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="R197" s="4">
-        <f>(D197-I197+1+2*K197)/M197</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S197" s="4">
-        <f>(C197-H197+1+2*J197)/L197</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T197" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.302</v>
       </c>
       <c r="U197" s="2">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(N197/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>4.8548243149606298</v>
       </c>
       <c r="V197" s="2">
@@ -7232,7 +7233,7 @@
         <v>5.0263262608695651</v>
       </c>
       <c r="W197" s="2">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(P197/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.3448247088607594</v>
       </c>
       <c r="X197" s="1" t="s">
@@ -7285,11 +7286,11 @@
         <v>3.198</v>
       </c>
       <c r="R198" s="4">
-        <f>(D198-I198+1+2*K198)/M198</f>
+        <f t="shared" si="11"/>
         <v>224</v>
       </c>
       <c r="S198" s="4">
-        <f>(C198-H198+1+2*J198)/L198</f>
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
       <c r="T198" s="2">
@@ -7297,14 +7298,14 @@
         <v>3.972</v>
       </c>
       <c r="U198" s="2">
-        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(N198/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>3.5846667906976744</v>
       </c>
       <c r="V198" s="2" t="s">
         <v>57</v>
       </c>
       <c r="W198" s="2">
-        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(P198/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.8675835196998124</v>
       </c>
       <c r="X198" s="1" t="s">
@@ -7357,11 +7358,11 @@
         <v>3.4529999999999998</v>
       </c>
       <c r="R199" s="4">
-        <f>(D199-I199+1+2*K199)/M199</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="S199" s="4">
-        <f>(C199-H199+1+2*J199)/L199</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="T199" s="2">
@@ -7369,7 +7370,7 @@
         <v>7.1939999999999991</v>
       </c>
       <c r="U199" s="2">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(N199/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>15.114917785495402</v>
       </c>
       <c r="V199" s="2">
@@ -7377,7 +7378,7 @@
         <v>16.598434674144702</v>
       </c>
       <c r="W199" s="2">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(P199/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>8.5708106064291929</v>
       </c>
       <c r="X199" s="1" t="s">
@@ -7431,19 +7432,19 @@
         <v>3.149</v>
       </c>
       <c r="R200" s="4">
-        <f>(D200-I200+1+2*K200)/M200</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S200" s="4">
-        <f>(C200-H200+1+2*J200)/L200</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T200" s="2">
-        <f t="shared" ref="T200:T203" si="13">N200+O200+P200</f>
+        <f t="shared" ref="T200:T203" si="17">N200+O200+P200</f>
         <v>14.955000000000002</v>
       </c>
       <c r="U200" s="2">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(N200/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>5.0850530969072159</v>
       </c>
       <c r="V200" s="2">
@@ -7451,7 +7452,7 @@
         <v>4.9440375917139994</v>
       </c>
       <c r="W200" s="2">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(P200/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>9.398224523340744</v>
       </c>
       <c r="X200" s="1" t="s">
@@ -7505,19 +7506,19 @@
         <v>3.5550000000000002</v>
       </c>
       <c r="R201" s="4">
-        <f>(D201-I201+1+2*K201)/M201</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S201" s="4">
-        <f>(C201-H201+1+2*J201)/L201</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T201" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.3970000000000002</v>
       </c>
       <c r="U201" s="2">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(N201/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>14.672785832424395</v>
       </c>
       <c r="V201" s="2">
@@ -7525,7 +7526,7 @@
         <v>16.216443300821918</v>
       </c>
       <c r="W201" s="2">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(P201/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>8.3248970531645572</v>
       </c>
       <c r="X201" s="1" t="s">
@@ -7578,19 +7579,19 @@
         <v>1.883</v>
       </c>
       <c r="R202" s="4">
-        <f>(D202-I202+1+2*K202)/M202</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S202" s="4">
-        <f>(C202-H202+1+2*J202)/L202</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T202" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3.806</v>
       </c>
       <c r="U202" s="2">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(N202/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>15.192509765913758</v>
       </c>
       <c r="V202" s="2">
@@ -7598,7 +7599,7 @@
         <v>15.592733943097999</v>
       </c>
       <c r="W202" s="2">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(P202/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>7.8584729219330862</v>
       </c>
       <c r="X202" s="1" t="s">
@@ -7651,19 +7652,19 @@
         <v>1.7230000000000001</v>
       </c>
       <c r="R203" s="4">
-        <f>(D203-I203+1+2*K203)/M203</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S203" s="4">
-        <f>(C203-H203+1+2*J203)/L203</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T203" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2.931</v>
       </c>
       <c r="U203" s="2">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(N203/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>5.8349781198738171</v>
       </c>
       <c r="V203" s="2">
@@ -7671,7 +7672,7 @@
         <v>6.4449061463414639</v>
       </c>
       <c r="W203" s="2">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(P203/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.1470552106790479</v>
       </c>
       <c r="X203" s="1" t="s">
@@ -7724,11 +7725,11 @@
         <v>1.1020000000000001</v>
       </c>
       <c r="R204" s="4">
-        <f>(D204-I204+1+2*K204)/M204</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="S204" s="4">
-        <f>(C204-H204+1+2*J204)/L204</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="T204" s="2">
@@ -7736,14 +7737,14 @@
         <v>1.6</v>
       </c>
       <c r="U204" s="2">
-        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(N204/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>7.5832258313253016</v>
       </c>
       <c r="V204" s="2" t="s">
         <v>57</v>
       </c>
       <c r="W204" s="2">
-        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(P204/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.4269024174228671</v>
       </c>
       <c r="X204" s="1" t="s">
@@ -7796,11 +7797,11 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="R205" s="4">
-        <f>(D205-I205+1+2*K205)/M205</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S205" s="4">
-        <f>(C205-H205+1+2*J205)/L205</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T205" s="2">
@@ -7808,15 +7809,15 @@
         <v>1.58</v>
       </c>
       <c r="U205" s="2">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(N205/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>6.4548020100502512</v>
       </c>
       <c r="V205" s="2">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
+        <f t="shared" ref="V205:V236" si="18">(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
         <v>9.9062128534704357</v>
       </c>
       <c r="W205" s="2">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(P205/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>6.4874020202020199</v>
       </c>
       <c r="X205" s="1" t="s">
@@ -7869,27 +7870,27 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="R206" s="4">
-        <f>(D206-I206+1+2*K206)/M206</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S206" s="4">
-        <f>(C206-H206+1+2*J206)/L206</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T206" s="2">
-        <f t="shared" ref="T206:T228" si="14">N206+O206+P206</f>
+        <f t="shared" ref="T206:T228" si="19">N206+O206+P206</f>
         <v>0.28800000000000003</v>
       </c>
       <c r="U206" s="2">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(N206/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>5.2251075254237298</v>
       </c>
       <c r="V206" s="2">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(O206/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.7595285853658535</v>
       </c>
       <c r="W206" s="2">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(P206/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.0971519999999999</v>
       </c>
       <c r="X206" s="1" t="s">
@@ -7942,27 +7943,27 @@
         <v>1.2529999999999999</v>
       </c>
       <c r="R207" s="4">
-        <f>(D207-I207+1+2*K207)/M207</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S207" s="4">
-        <f>(C207-H207+1+2*J207)/L207</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T207" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.9560000000000004</v>
       </c>
       <c r="U207" s="2">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
+        <f t="shared" ref="U207:U238" si="20">(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
         <v>2.6448296499656827</v>
       </c>
       <c r="V207" s="2">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(O207/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.0927101123595508</v>
       </c>
       <c r="W207" s="2">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
+        <f t="shared" ref="W207:W238" si="21">(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
         <v>3.0754324022346369</v>
       </c>
       <c r="X207" s="1" t="s">
@@ -8015,27 +8016,27 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="R208" s="4">
-        <f>(D208-I208+1+2*K208)/M208</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S208" s="4">
-        <f>(C208-H208+1+2*J208)/L208</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T208" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="U208" s="2">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(N208/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.7754141538461532</v>
       </c>
       <c r="V208" s="2">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(O208/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>6.8506965333333341</v>
       </c>
       <c r="W208" s="2">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(P208/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.7595285853658535</v>
       </c>
       <c r="X208" s="1" t="s">
@@ -8088,27 +8089,27 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="R209" s="4">
-        <f>(D209-I209+1+2*K209)/M209</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S209" s="4">
-        <f>(C209-H209+1+2*J209)/L209</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T209" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.26300000000000001</v>
       </c>
       <c r="U209" s="2">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(N209/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>3.2742299607843139</v>
       </c>
       <c r="V209" s="2">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(O209/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>5.3866363870967744</v>
       </c>
       <c r="W209" s="2">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(P209/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.3734490505050503</v>
       </c>
       <c r="X209" s="1" t="s">
@@ -8161,27 +8162,27 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="R210" s="4">
-        <f>(D210-I210+1+2*K210)/M210</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S210" s="4">
-        <f>(C210-H210+1+2*J210)/L210</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T210" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.4850000000000003</v>
       </c>
       <c r="U210" s="2">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(N210/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.5218796396396383</v>
       </c>
       <c r="V210" s="2">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(O210/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.6427951134380461</v>
       </c>
       <c r="W210" s="2">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(P210/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>5.3247999999999989</v>
       </c>
       <c r="X210" s="1" t="s">
@@ -8234,27 +8235,27 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="R211" s="4">
-        <f>(D211-I211+1+2*K211)/M211</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S211" s="4">
-        <f>(C211-H211+1+2*J211)/L211</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T211" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.63700000000000001</v>
       </c>
       <c r="U211" s="2">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(N211/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>11.856974769230769</v>
       </c>
       <c r="V211" s="2">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(O211/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>11.781452636942676</v>
       </c>
       <c r="W211" s="2">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(P211/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>5.7089137777777772</v>
       </c>
       <c r="X211" t="s">
@@ -8305,27 +8306,27 @@
         <v>0.08</v>
       </c>
       <c r="R212" s="4">
-        <f>(D212-I212+1+2*K212)/M212</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S212" s="4">
-        <f>(C212-H212+1+2*J212)/L212</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T212" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.23099999999999998</v>
       </c>
       <c r="U212" s="2">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(N212/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>3.6700159999999999</v>
       </c>
       <c r="V212" s="2">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(O212/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.1633778526315788</v>
       </c>
       <c r="W212" s="2">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(P212/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>2.5690111999999998</v>
       </c>
       <c r="X212" t="s">
@@ -8376,27 +8377,27 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="R213" s="4">
-        <f>(D213-I213+1+2*K213)/M213</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S213" s="4">
-        <f>(C213-H213+1+2*J213)/L213</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T213" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.44800000000000001</v>
       </c>
       <c r="U213" s="2">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(N213/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>13.307108374100716</v>
       </c>
       <c r="V213" s="2">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(O213/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>13.501372729927006</v>
       </c>
       <c r="W213" s="2">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(P213/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>10.754000372093026</v>
       </c>
       <c r="X213" t="s">
@@ -8448,27 +8449,27 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="R214" s="4">
-        <f>(D214-I214+1+2*K214)/M214</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S214" s="4">
-        <f>(C214-H214+1+2*J214)/L214</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T214" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.251</v>
       </c>
       <c r="U214" s="2">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(N214/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>5.0127047804878044</v>
       </c>
       <c r="V214" s="2">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(O214/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.5688618015267173</v>
       </c>
       <c r="W214" s="2">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(P214/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>2.6015303291139245</v>
       </c>
       <c r="X214" t="s">
@@ -8519,27 +8520,27 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="R215" s="4">
-        <f>(D215-I215+1+2*K215)/M215</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S215" s="4">
-        <f>(C215-H215+1+2*J215)/L215</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T215" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.188</v>
       </c>
       <c r="U215" s="2">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(N215/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>3.369195016393443</v>
       </c>
       <c r="V215" s="2">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(O215/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>4.1104179199999997</v>
       </c>
       <c r="W215" s="2">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(P215/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>2.6691025454545456</v>
       </c>
       <c r="X215" t="s">
@@ -8590,27 +8591,27 @@
         <v>0.222</v>
       </c>
       <c r="R216" s="4">
-        <f>(D216-I216+1+2*K216)/M216</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S216" s="4">
-        <f>(C216-H216+1+2*J216)/L216</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T216" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.505</v>
       </c>
       <c r="U216" s="2">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(N216/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>13.025972281690143</v>
       </c>
       <c r="V216" s="2">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(O216/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>13.118355063829789</v>
       </c>
       <c r="W216" s="2">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(P216/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>8.331928216216216</v>
       </c>
       <c r="X216" t="s">
@@ -8662,27 +8663,27 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="R217" s="4">
-        <f>(D217-I217+1+2*K217)/M217</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S217" s="4">
-        <f>(C217-H217+1+2*J217)/L217</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T217" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.28100000000000003</v>
       </c>
       <c r="U217" s="2">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(N217/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.8153547397260272</v>
       </c>
       <c r="V217" s="2">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(O217/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.835008</v>
       </c>
       <c r="W217" s="2">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(P217/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>2.1408426666666664</v>
       </c>
       <c r="X217" t="s">
@@ -8734,27 +8735,27 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="R218" s="4">
-        <f>(D218-I218+1+2*K218)/M218</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S218" s="4">
-        <f>(C218-H218+1+2*J218)/L218</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T218" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.21199999999999999</v>
       </c>
       <c r="U218" s="2">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(N218/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.9360127999999994</v>
       </c>
       <c r="V218" s="2">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(O218/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.6700159999999999</v>
       </c>
       <c r="W218" s="2">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(P218/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>2.3897778604651165</v>
       </c>
       <c r="X218" t="s">
@@ -8806,28 +8807,28 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="R219" s="4">
-        <f>(D219-I219+1+2*K219)/M219</f>
-        <v>6.5</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="S219" s="4">
-        <f>(C219-H219+1+2*J219)/L219</f>
-        <v>6.5</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="T219" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.65</v>
       </c>
       <c r="U219" s="2">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(N219/1000)/10^12</f>
-        <v>3.3435725283018867</v>
+        <f t="shared" si="20"/>
+        <v>3.877752754716981</v>
       </c>
       <c r="V219" s="2">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(O219/1000)/10^12</f>
-        <v>3.1364485663716812</v>
+        <f t="shared" si="18"/>
+        <v>3.6375379823008847</v>
       </c>
       <c r="W219" s="2">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(P219/1000)/10^12</f>
-        <v>3.3435725283018867</v>
+        <f t="shared" si="21"/>
+        <v>3.877752754716981</v>
       </c>
       <c r="X219" t="s">
         <v>33</v>
@@ -8877,27 +8878,27 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="R220" s="4">
-        <f>(D220-I220+1+2*K220)/M220</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S220" s="4">
-        <f>(C220-H220+1+2*J220)/L220</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T220" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.202</v>
       </c>
       <c r="U220" s="2">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(N220/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>12.331253760000003</v>
       </c>
       <c r="V220" s="2">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(O220/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>12.372495411371238</v>
       </c>
       <c r="W220" s="2">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(P220/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>6.1349521194029855</v>
       </c>
       <c r="X220" t="s">
@@ -8948,27 +8949,27 @@
         <v>0.127</v>
       </c>
       <c r="R221" s="4">
-        <f>(D221-I221+1+2*K221)/M221</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S221" s="4">
-        <f>(C221-H221+1+2*J221)/L221</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T221" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.442</v>
       </c>
       <c r="U221" s="2">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(N221/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>3.8415120747663551</v>
       </c>
       <c r="V221" s="2">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(O221/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.9761624615384616</v>
       </c>
       <c r="W221" s="2">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(P221/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.236549543307087</v>
       </c>
       <c r="X221" t="s">
@@ -9019,27 +9020,27 @@
         <v>0.29399999999999998</v>
       </c>
       <c r="R222" s="4">
-        <f>(D222-I222+1+2*K222)/M222</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S222" s="4">
-        <f>(C222-H222+1+2*J222)/L222</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T222" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.82099999999999995</v>
       </c>
       <c r="U222" s="2">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(N222/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>13.959909916981132</v>
       </c>
       <c r="V222" s="2">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(O222/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>14.119756213740457</v>
       </c>
       <c r="W222" s="2">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(P222/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>12.582912</v>
       </c>
       <c r="X222" t="s">
@@ -9090,27 +9091,27 @@
         <v>0.106</v>
       </c>
       <c r="R223" s="4">
-        <f>(D223-I223+1+2*K223)/M223</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S223" s="4">
-        <f>(C223-H223+1+2*J223)/L223</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T223" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.34199999999999997</v>
       </c>
       <c r="U223" s="2">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(N223/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>5.2697665641025644</v>
       </c>
       <c r="V223" s="2">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(O223/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.6015303291139245</v>
       </c>
       <c r="W223" s="2">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(P223/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.877752754716981</v>
       </c>
       <c r="X223" t="s">
@@ -9162,27 +9163,27 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="R224" s="4">
-        <f>(D224-I224+1+2*K224)/M224</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S224" s="4">
-        <f>(C224-H224+1+2*J224)/L224</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T224" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.20400000000000001</v>
       </c>
       <c r="U224" s="2">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(N224/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.2112595087719296</v>
       </c>
       <c r="V224" s="2">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(O224/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>6.6297063225806445</v>
       </c>
       <c r="W224" s="2">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(P224/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.8357857882352944</v>
       </c>
       <c r="X224" t="s">
@@ -9233,27 +9234,27 @@
         <v>0.317</v>
       </c>
       <c r="R225" s="4">
-        <f>(D225-I225+1+2*K225)/M225</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S225" s="4">
-        <f>(C225-H225+1+2*J225)/L225</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T225" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="U225" s="2">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(N225/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>14.228369723076922</v>
       </c>
       <c r="V225" s="2">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(O225/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>13.550828307692306</v>
       </c>
       <c r="W225" s="2">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(P225/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>11.669956239747634</v>
       </c>
       <c r="X225" t="s">
@@ -9304,27 +9305,27 @@
         <v>0.122</v>
       </c>
       <c r="R226" s="4">
-        <f>(D226-I226+1+2*K226)/M226</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S226" s="4">
-        <f>(C226-H226+1+2*J226)/L226</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T226" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.316</v>
       </c>
       <c r="U226" s="2">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(N226/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.738390032786886</v>
       </c>
       <c r="V226" s="2">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(O226/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.0905397894736839</v>
       </c>
       <c r="W226" s="2">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(P226/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.369195016393443</v>
       </c>
       <c r="X226" t="s">
@@ -9376,27 +9377,27 @@
         <v>0.11</v>
       </c>
       <c r="R227" s="4">
-        <f>(D227-I227+1+2*K227)/M227</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S227" s="4">
-        <f>(C227-H227+1+2*J227)/L227</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T227" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.28499999999999998</v>
       </c>
       <c r="U227" s="2">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(N227/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>4.1519372929292926</v>
       </c>
       <c r="V227" s="2">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(O227/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>5.4084446315789476</v>
       </c>
       <c r="W227" s="2">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(P227/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.7367435636363631</v>
       </c>
       <c r="X227" t="s">
@@ -9448,28 +9449,28 @@
         <v>0.38100000000000001</v>
       </c>
       <c r="R228" s="4">
-        <f>(D228-I228+1+2*K228)/M228</f>
-        <v>6.5</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="S228" s="4">
-        <f>(C228-H228+1+2*J228)/L228</f>
-        <v>6.5</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="T228" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.032</v>
       </c>
       <c r="U228" s="2">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(N228/1000)/10^12</f>
-        <v>6.4439761454545446</v>
+        <f t="shared" si="20"/>
+        <v>7.4734871272727261</v>
       </c>
       <c r="V228" s="2">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(O228/1000)/10^12</f>
-        <v>3.2892685661252901</v>
+        <f t="shared" si="18"/>
+        <v>3.8147730116009275</v>
       </c>
       <c r="W228" s="2">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(P228/1000)/10^12</f>
-        <v>3.7209311076115488</v>
+        <f t="shared" si="21"/>
+        <v>4.3153993910761157</v>
       </c>
       <c r="X228" t="s">
         <v>33</v>
@@ -9520,28 +9521,28 @@
         <v>1.7430000000000001</v>
       </c>
       <c r="R229" s="4">
-        <f>(D229-I229+1+2*K229)/M229</f>
-        <v>79.5</v>
+        <f t="shared" si="11"/>
+        <v>349</v>
       </c>
       <c r="S229" s="4">
-        <f>(C229-H229+1+2*J229)/L229</f>
-        <v>349</v>
+        <f t="shared" si="12"/>
+        <v>80</v>
       </c>
       <c r="T229" s="2">
         <f>N229+O229+P229</f>
         <v>2.9809999999999999</v>
       </c>
       <c r="U229" s="2">
-        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(N229/1000)/10^12</f>
-        <v>3.2433095890410959</v>
+        <f t="shared" si="20"/>
+        <v>3.2637077625570776</v>
       </c>
       <c r="V229" s="2">
-        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(O229/1000)/10^12</f>
-        <v>1.775712</v>
+        <f t="shared" si="18"/>
+        <v>1.78688</v>
       </c>
       <c r="W229" s="2">
-        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(P229/1000)/10^12</f>
-        <v>0.81501411359724607</v>
+        <f t="shared" si="21"/>
+        <v>0.82013998852553061</v>
       </c>
       <c r="X229" t="s">
         <v>33</v>
@@ -9592,27 +9593,27 @@
         <v>5.3029999999999999</v>
       </c>
       <c r="R230" s="4">
-        <f>(D230-I230+1+2*K230)/M230</f>
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="S230" s="4">
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
-      <c r="S230" s="4">
-        <f>(C230-H230+1+2*J230)/L230</f>
-        <v>350</v>
-      </c>
       <c r="T230" s="2">
-        <f t="shared" ref="T230:T268" si="15">N230+O230+P230</f>
+        <f t="shared" ref="T230:T268" si="22">N230+O230+P230</f>
         <v>11.198</v>
       </c>
       <c r="U230" s="2">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(N230/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>11.211861507128308</v>
       </c>
       <c r="V230" s="2">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>11.200455747711089</v>
       </c>
       <c r="W230" s="2">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(P230/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>6.2285770318687543</v>
       </c>
       <c r="X230" t="s">
@@ -9664,27 +9665,27 @@
         <v>5.117</v>
       </c>
       <c r="R231" s="4">
-        <f>(D231-I231+1+2*K231)/M231</f>
+        <f t="shared" si="11"/>
+        <v>174</v>
+      </c>
+      <c r="S231" s="4">
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
-      <c r="S231" s="4">
-        <f>(C231-H231+1+2*J231)/L231</f>
-        <v>174</v>
-      </c>
       <c r="T231" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>19.382000000000001</v>
       </c>
       <c r="U231" s="2">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(N231/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>9.8434549800796809</v>
       </c>
       <c r="V231" s="2">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(O231/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>4.5627095106186513</v>
       </c>
       <c r="W231" s="2">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(P231/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>8.6911724838772724</v>
       </c>
       <c r="X231" t="s">
@@ -9736,27 +9737,27 @@
         <v>2.347</v>
       </c>
       <c r="R232" s="4">
-        <f>(D232-I232+1+2*K232)/M232</f>
+        <f t="shared" si="11"/>
+        <v>175</v>
+      </c>
+      <c r="S232" s="4">
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="S232" s="4">
-        <f>(C232-H232+1+2*J232)/L232</f>
-        <v>175</v>
-      </c>
       <c r="T232" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>6.4459999999999997</v>
       </c>
       <c r="U232" s="2">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(N232/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>16.120128843338215</v>
       </c>
       <c r="V232" s="2">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(O232/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>16.112265365853659</v>
       </c>
       <c r="W232" s="2">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(P232/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>14.073346399659139</v>
       </c>
       <c r="X232" t="s">
@@ -9808,28 +9809,28 @@
         <v>4.7789999999999999</v>
       </c>
       <c r="R233" s="4">
-        <f>(D233-I233+1+2*K233)/M233</f>
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="S233" s="4">
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="S233" s="4">
-        <f>(C233-H233+1+2*J233)/L233</f>
-        <v>86.5</v>
-      </c>
       <c r="T233" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>17.922000000000001</v>
       </c>
       <c r="U233" s="2">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(N233/1000)/10^12</f>
-        <v>9.4481066666666678</v>
+        <f t="shared" si="20"/>
+        <v>9.5027200000000001</v>
       </c>
       <c r="V233" s="2">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(O233/1000)/10^12</f>
-        <v>5.0196162647093088</v>
+        <f t="shared" si="18"/>
+        <v>5.0486313876267044</v>
       </c>
       <c r="W233" s="2">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(P233/1000)/10^12</f>
-        <v>9.015142582130153</v>
+        <f t="shared" si="21"/>
+        <v>9.0672532328939095</v>
       </c>
       <c r="X233" t="s">
         <v>33</v>
@@ -9880,27 +9881,27 @@
         <v>1.5620000000000001</v>
       </c>
       <c r="R234" s="4">
-        <f>(D234-I234+1+2*K234)/M234</f>
+        <f t="shared" si="11"/>
+        <v>84</v>
+      </c>
+      <c r="S234" s="4">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="S234" s="4">
-        <f>(C234-H234+1+2*J234)/L234</f>
-        <v>84</v>
-      </c>
       <c r="T234" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>4.6260000000000003</v>
       </c>
       <c r="U234" s="2">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(N234/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>20.431016907216495</v>
       </c>
       <c r="V234" s="2">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(O234/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>20.971520000000002</v>
       </c>
       <c r="W234" s="2">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(P234/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>20.300216542893725</v>
       </c>
       <c r="X234" t="s">
@@ -9952,27 +9953,27 @@
         <v>4.3849999999999998</v>
       </c>
       <c r="R235" s="4">
-        <f>(D235-I235+1+2*K235)/M235</f>
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="S235" s="4">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="S235" s="4">
-        <f>(C235-H235+1+2*J235)/L235</f>
-        <v>41</v>
-      </c>
       <c r="T235" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>15.665999999999999</v>
       </c>
       <c r="U235" s="2">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(N235/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>8.7559299389002057</v>
       </c>
       <c r="V235" s="2">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(O235/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>5.6386555523171085</v>
       </c>
       <c r="W235" s="2">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(P235/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>8.8238208437856329</v>
       </c>
       <c r="X235" t="s">
@@ -10024,27 +10025,27 @@
         <v>1.6279999999999999</v>
       </c>
       <c r="R236" s="4">
-        <f>(D236-I236+1+2*K236)/M236</f>
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="S236" s="4">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="S236" s="4">
-        <f>(C236-H236+1+2*J236)/L236</f>
-        <v>42</v>
-      </c>
       <c r="T236" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>4.976</v>
       </c>
       <c r="U236" s="2">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(N236/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>18.685290654095461</v>
       </c>
       <c r="V236" s="2">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(O236/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>19.205898388855239</v>
       </c>
       <c r="W236" s="2">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(P236/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>19.477234791154793</v>
       </c>
       <c r="X236" t="s">
@@ -10096,27 +10097,27 @@
         <v>0.56799999999999995</v>
       </c>
       <c r="R237" s="4">
-        <f>(D237-I237+1+2*K237)/M237</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="S237" s="4">
-        <f>(C237-H237+1+2*J237)/L237</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="T237" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.92299999999999993</v>
       </c>
       <c r="U237" s="2">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(N237/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>4.6709294545454547</v>
       </c>
       <c r="V237" s="2">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(O237/1000)/10^12</f>
+        <f t="shared" ref="V237:V268" si="23">(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(O237/1000)/10^12</f>
         <v>4.5926457206703919</v>
       </c>
       <c r="W237" s="2">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(P237/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.447330253521127</v>
       </c>
       <c r="X237" t="s">
@@ -10168,27 +10169,27 @@
         <v>0.26600000000000001</v>
       </c>
       <c r="R238" s="4">
-        <f>(D238-I238+1+2*K238)/M238</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S238" s="4">
-        <f>(C238-H238+1+2*J238)/L238</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T238" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.55600000000000005</v>
       </c>
       <c r="U238" s="2">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(N238/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>5.2697665641025644</v>
       </c>
       <c r="V238" s="2">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(O238/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>6.1349521194029855</v>
       </c>
       <c r="W238" s="2">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(P238/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.0905397894736839</v>
       </c>
       <c r="X238" t="s">
@@ -10240,27 +10241,27 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="R239" s="4">
-        <f>(D239-I239+1+2*K239)/M239</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S239" s="4">
-        <f>(C239-H239+1+2*J239)/L239</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T239" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.65100000000000002</v>
       </c>
       <c r="U239" s="2">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
+        <f t="shared" ref="U239:U268" si="24">(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
         <v>6.323719876923076</v>
       </c>
       <c r="V239" s="2">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(O239/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>5.0745900246913571</v>
       </c>
       <c r="W239" s="2">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
+        <f t="shared" ref="W239:W268" si="25">(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
         <v>2.289926417827298</v>
       </c>
       <c r="X239" t="s">
@@ -10312,27 +10313,27 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="R240" s="4">
-        <f>(D240-I240+1+2*K240)/M240</f>
+        <f t="shared" ref="R240:R268" si="26">1+ROUNDDOWN((($C240-$H240+2*$J240)/$L240),0)</f>
         <v>28</v>
       </c>
       <c r="S240" s="4">
-        <f>(C240-H240+1+2*J240)/L240</f>
+        <f t="shared" ref="S240:S268" si="27">1+ROUNDDOWN((($D240-$I240+2*$K240)/$M240),0)</f>
         <v>28</v>
       </c>
       <c r="T240" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.50700000000000001</v>
       </c>
       <c r="U240" s="2">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(N240/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>4.4678455652173916</v>
       </c>
       <c r="V240" s="2">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(O240/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>1.5223770074074074</v>
       </c>
       <c r="W240" s="2">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(P240/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.8347709793103446</v>
       </c>
       <c r="X240" t="s">
@@ -10384,27 +10385,27 @@
         <v>0.189</v>
       </c>
       <c r="R241" s="4">
-        <f>(D241-I241+1+2*K241)/M241</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="S241" s="4">
-        <f>(C241-H241+1+2*J241)/L241</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="T241" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="U241" s="2">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(N241/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>6.4225279999999998</v>
       </c>
       <c r="V241" s="2">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(O241/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>7.6118850370370374</v>
       </c>
       <c r="W241" s="2">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(P241/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>4.3496485925925921</v>
       </c>
       <c r="X241" t="s">
@@ -10456,27 +10457,27 @@
         <v>0.186</v>
       </c>
       <c r="R242" s="4">
-        <f>(D242-I242+1+2*K242)/M242</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="S242" s="4">
-        <f>(C242-H242+1+2*J242)/L242</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="T242" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.42</v>
       </c>
       <c r="U242" s="2">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(N242/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>7.9046498461538466</v>
       </c>
       <c r="V242" s="2">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(O242/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>6.323719876923076</v>
       </c>
       <c r="W242" s="2">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(P242/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>4.4198042150537633</v>
       </c>
       <c r="X242" t="s">
@@ -10528,27 +10529,27 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="R243" s="4">
-        <f>(D243-I243+1+2*K243)/M243</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S243" s="4">
-        <f>(C243-H243+1+2*J243)/L243</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T243" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.47399999999999998</v>
       </c>
       <c r="U243" s="2">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(N243/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.877752754716981</v>
       </c>
       <c r="V243" s="2">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(O243/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>1.7343535527426162</v>
       </c>
       <c r="W243" s="2">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(P243/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>3.1377236030534346</v>
       </c>
       <c r="X243" t="s">
@@ -10600,27 +10601,27 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="R244" s="4">
-        <f>(D244-I244+1+2*K244)/M244</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S244" s="4">
-        <f>(C244-H244+1+2*J244)/L244</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T244" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.41899999999999998</v>
       </c>
       <c r="U244" s="2">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(N244/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>7.3400319999999999</v>
       </c>
       <c r="V244" s="2">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(O244/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>6.323719876923076</v>
       </c>
       <c r="W244" s="2">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(P244/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>4.6445400225988704</v>
       </c>
       <c r="X244" t="s">
@@ -10672,27 +10673,27 @@
         <v>0.379</v>
       </c>
       <c r="R245" s="4">
-        <f>(D245-I245+1+2*K245)/M245</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S245" s="4">
-        <f>(C245-H245+1+2*J245)/L245</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T245" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.1339999999999999</v>
       </c>
       <c r="U245" s="2">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(N245/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>7.8293674666666666</v>
       </c>
       <c r="V245" s="2">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(O245/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.0168204917431192</v>
       </c>
       <c r="W245" s="2">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(P245/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>4.3381719472295517</v>
       </c>
       <c r="X245" t="s">
@@ -10744,27 +10745,27 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="R246" s="4">
-        <f>(D246-I246+1+2*K246)/M246</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S246" s="4">
-        <f>(C246-H246+1+2*J246)/L246</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T246" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="U246" s="2">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(N246/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>6.3727409612403108</v>
       </c>
       <c r="V246" s="2">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(O246/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>7.1485529043478264</v>
       </c>
       <c r="W246" s="2">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(P246/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>4.5418982541436463</v>
       </c>
       <c r="X246" t="s">
@@ -10816,27 +10817,27 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="R247" s="4">
-        <f>(D247-I247+1+2*K247)/M247</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S247" s="4">
-        <f>(C247-H247+1+2*J247)/L247</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T247" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.41799999999999998</v>
       </c>
       <c r="U247" s="2">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(N247/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>7.3400319999999999</v>
       </c>
       <c r="V247" s="2">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(O247/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>6.323719876923076</v>
       </c>
       <c r="W247" s="2">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(P247/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>4.6709294545454547</v>
       </c>
       <c r="X247" t="s">
@@ -10888,27 +10889,27 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="R248" s="4">
-        <f>(D248-I248+1+2*K248)/M248</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S248" s="4">
-        <f>(C248-H248+1+2*J248)/L248</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T248" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.43100000000000005</v>
       </c>
       <c r="U248" s="2">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(N248/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.3970396033057852</v>
       </c>
       <c r="V248" s="2">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(O248/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.8347709793103446</v>
       </c>
       <c r="W248" s="2">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(P248/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.4911623757575758</v>
       </c>
       <c r="X248" t="s">
@@ -10960,27 +10961,27 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="R249" s="4">
-        <f>(D249-I249+1+2*K249)/M249</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S249" s="4">
-        <f>(C249-H249+1+2*J249)/L249</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T249" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.19</v>
       </c>
       <c r="U249" s="2">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(N249/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>5.1523344401114208</v>
       </c>
       <c r="V249" s="2">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(O249/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>4.2230321095890409</v>
       </c>
       <c r="W249" s="2">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(P249/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>4.7065854045801521</v>
       </c>
       <c r="X249" t="s">
@@ -11032,27 +11033,27 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="R250" s="4">
-        <f>(D250-I250+1+2*K250)/M250</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S250" s="4">
-        <f>(C250-H250+1+2*J250)/L250</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T250" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.68300000000000005</v>
       </c>
       <c r="U250" s="2">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(N250/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>4.5169427692307691</v>
       </c>
       <c r="V250" s="2">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(O250/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.7367435636363631</v>
       </c>
       <c r="W250" s="2">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(P250/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.9255643558718858</v>
       </c>
       <c r="X250" t="s">
@@ -11104,27 +11105,27 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="R251" s="4">
-        <f>(D251-I251+1+2*K251)/M251</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S251" s="4">
-        <f>(C251-H251+1+2*J251)/L251</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T251" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.2839999999999998</v>
       </c>
       <c r="U251" s="2">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(N251/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>5.2362011719745221</v>
       </c>
       <c r="V251" s="2">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(O251/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>4.3496485925925921</v>
       </c>
       <c r="W251" s="2">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(P251/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.7773094054054059</v>
       </c>
       <c r="X251" t="s">
@@ -11176,27 +11177,27 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="R252" s="4">
-        <f>(D252-I252+1+2*K252)/M252</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S252" s="4">
-        <f>(C252-H252+1+2*J252)/L252</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T252" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.67999999999999994</v>
       </c>
       <c r="U252" s="2">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(N252/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.7710256146788996</v>
       </c>
       <c r="V252" s="2">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(O252/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>4.9226561916167659</v>
       </c>
       <c r="W252" s="2">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(P252/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.7867240135593221</v>
       </c>
       <c r="X252" t="s">
@@ -11248,27 +11249,27 @@
         <v>1.127</v>
       </c>
       <c r="R253" s="4">
-        <f>(D253-I253+1+2*K253)/M253</f>
+        <f t="shared" si="26"/>
         <v>112</v>
       </c>
       <c r="S253" s="4">
-        <f>(C253-H253+1+2*J253)/L253</f>
+        <f t="shared" si="27"/>
         <v>112</v>
       </c>
       <c r="T253" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.821</v>
       </c>
       <c r="U253" s="2">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(N253/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>4.7934902857142854</v>
       </c>
       <c r="V253" s="2">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(O253/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>4.6842369458689461</v>
       </c>
       <c r="W253" s="2">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(P253/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>1.458888347826087</v>
       </c>
       <c r="X253" t="s">
@@ -11320,27 +11321,27 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="R254" s="4">
-        <f>(D254-I254+1+2*K254)/M254</f>
+        <f t="shared" si="26"/>
         <v>56</v>
       </c>
       <c r="S254" s="4">
-        <f>(C254-H254+1+2*J254)/L254</f>
+        <f t="shared" si="27"/>
         <v>56</v>
       </c>
       <c r="T254" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.085</v>
       </c>
       <c r="U254" s="2">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(N254/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>5.5546188108108119</v>
       </c>
       <c r="V254" s="2">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(O254/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>6.3727409612403108</v>
       </c>
       <c r="W254" s="2">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(P254/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>3.0963600150659136</v>
       </c>
       <c r="X254" t="s">
@@ -11392,27 +11393,27 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="R255" s="4">
-        <f>(D255-I255+1+2*K255)/M255</f>
+        <f t="shared" si="26"/>
         <v>56</v>
       </c>
       <c r="S255" s="4">
-        <f>(C255-H255+1+2*J255)/L255</f>
+        <f t="shared" si="27"/>
         <v>56</v>
       </c>
       <c r="T255" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.252</v>
       </c>
       <c r="U255" s="2">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(N255/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>6.6030809959839365</v>
       </c>
       <c r="V255" s="2">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(O255/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>5.390712026229509</v>
       </c>
       <c r="W255" s="2">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(P255/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.3555403553008598</v>
       </c>
       <c r="X255" t="s">
@@ -11464,27 +11465,27 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="R256" s="4">
-        <f>(D256-I256+1+2*K256)/M256</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="S256" s="4">
-        <f>(C256-H256+1+2*J256)/L256</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="T256" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.88200000000000001</v>
       </c>
       <c r="U256" s="2">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(N256/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>6.2754472061068691</v>
       </c>
       <c r="V256" s="2">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(O256/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>1.6880566406570843</v>
       </c>
       <c r="W256" s="2">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(P256/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>3.1139529696969692</v>
       </c>
       <c r="X256" t="s">
@@ -11536,27 +11537,27 @@
         <v>0.315</v>
       </c>
       <c r="R257" s="4">
-        <f>(D257-I257+1+2*K257)/M257</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="S257" s="4">
-        <f>(C257-H257+1+2*J257)/L257</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="T257" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.751</v>
       </c>
       <c r="U257" s="2">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(N257/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>7.1797692925764194</v>
       </c>
       <c r="V257" s="2">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(O257/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>7.9428365603864739</v>
       </c>
       <c r="W257" s="2">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(P257/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>5.2195783111111114</v>
       </c>
       <c r="X257" t="s">
@@ -11608,27 +11609,27 @@
         <v>0.31</v>
       </c>
       <c r="R258" s="4">
-        <f>(D258-I258+1+2*K258)/M258</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="S258" s="4">
-        <f>(C258-H258+1+2*J258)/L258</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="T258" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.747</v>
       </c>
       <c r="U258" s="2">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(N258/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>8.059642980392157</v>
       </c>
       <c r="V258" s="2">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(O258/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>7.0565114506437761</v>
       </c>
       <c r="W258" s="2">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(P258/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>5.303765058064517</v>
       </c>
       <c r="X258" t="s">
@@ -11680,27 +11681,27 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="R259" s="4">
-        <f>(D259-I259+1+2*K259)/M259</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S259" s="4">
-        <f>(C259-H259+1+2*J259)/L259</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T259" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.70300000000000007</v>
       </c>
       <c r="U259" s="2">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(N259/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>7.2112595087719296</v>
       </c>
       <c r="V259" s="2">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(O259/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.1242469870801033</v>
       </c>
       <c r="W259" s="2">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(P259/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>4.0697207128712867</v>
       </c>
       <c r="X259" t="s">
@@ -11752,27 +11753,27 @@
         <v>0.28699999999999998</v>
       </c>
       <c r="R260" s="4">
-        <f>(D260-I260+1+2*K260)/M260</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S260" s="4">
-        <f>(C260-H260+1+2*J260)/L260</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T260" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.70300000000000007</v>
       </c>
       <c r="U260" s="2">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(N260/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>7.5420512293577993</v>
       </c>
       <c r="V260" s="2">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(O260/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>8.3038745858585852</v>
       </c>
       <c r="W260" s="2">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(P260/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>5.728805463414635</v>
       </c>
       <c r="X260" t="s">
@@ -11824,27 +11825,27 @@
         <v>0.64900000000000002</v>
       </c>
       <c r="R261" s="4">
-        <f>(D261-I261+1+2*K261)/M261</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S261" s="4">
-        <f>(C261-H261+1+2*J261)/L261</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T261" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.9239999999999999</v>
       </c>
       <c r="U261" s="2">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(N261/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>7.7010171803278693</v>
       </c>
       <c r="V261" s="2">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(O261/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.877752754716981</v>
       </c>
       <c r="W261" s="2">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(P261/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>5.0667709337442215</v>
       </c>
       <c r="X261" t="s">
@@ -11896,27 +11897,27 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="R262" s="4">
-        <f>(D262-I262+1+2*K262)/M262</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S262" s="4">
-        <f>(C262-H262+1+2*J262)/L262</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T262" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.72399999999999998</v>
       </c>
       <c r="U262" s="2">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(N262/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>8.3886079999999996</v>
       </c>
       <c r="V262" s="2">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(O262/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>7.3729469417040363</v>
       </c>
       <c r="W262" s="2">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(P262/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>5.390712026229509</v>
       </c>
       <c r="X262" t="s">
@@ -11968,27 +11969,27 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="R263" s="4">
-        <f>(D263-I263+1+2*K263)/M263</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S263" s="4">
-        <f>(C263-H263+1+2*J263)/L263</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T263" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="U263" s="2">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(N263/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>7.5420512293577993</v>
       </c>
       <c r="V263" s="2">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(O263/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>8.3038745858585852</v>
       </c>
       <c r="W263" s="2">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(P263/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>5.7089137777777781</v>
       </c>
       <c r="X263" t="s">
@@ -12040,27 +12041,27 @@
         <v>0.246</v>
       </c>
       <c r="R264" s="4">
-        <f>(D264-I264+1+2*K264)/M264</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S264" s="4">
-        <f>(C264-H264+1+2*J264)/L264</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T264" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.67399999999999993</v>
       </c>
       <c r="U264" s="2">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(N264/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>6.0895080296296298</v>
       </c>
       <c r="V264" s="2">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(O264/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.805746020477816</v>
       </c>
       <c r="W264" s="2">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(P264/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>3.3418031869918696</v>
       </c>
       <c r="X264" t="s">
@@ -12112,27 +12113,27 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="R265" s="4">
-        <f>(D265-I265+1+2*K265)/M265</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S265" s="4">
-        <f>(C265-H265+1+2*J265)/L265</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T265" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.4040000000000001</v>
       </c>
       <c r="U265" s="2">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(N265/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>7.3987522559999999</v>
       </c>
       <c r="V265" s="2">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(O265/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>8.1304969846153856</v>
       </c>
       <c r="W265" s="2">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(P265/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>8.2391450512249449</v>
       </c>
       <c r="X265" t="s">
@@ -12184,27 +12185,27 @@
         <v>0.375</v>
       </c>
       <c r="R266" s="4">
-        <f>(D266-I266+1+2*K266)/M266</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S266" s="4">
-        <f>(C266-H266+1+2*J266)/L266</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T266" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.82399999999999995</v>
       </c>
       <c r="U266" s="2">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(N266/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>7.8668285550239236</v>
       </c>
       <c r="V266" s="2">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(O266/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>6.8506965333333341</v>
       </c>
       <c r="W266" s="2">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(P266/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>4.3844457813333326</v>
       </c>
       <c r="X266" t="s">
@@ -12256,27 +12257,27 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="R267" s="4">
-        <f>(D267-I267+1+2*K267)/M267</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S267" s="4">
-        <f>(C267-H267+1+2*J267)/L267</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T267" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.081</v>
       </c>
       <c r="U267" s="2">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(N267/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>8.1193440395061725</v>
       </c>
       <c r="V267" s="2">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(O267/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.9007524744958482</v>
       </c>
       <c r="W267" s="2">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(P267/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>3.9475802352941178</v>
       </c>
       <c r="X267" t="s">
@@ -12328,27 +12329,27 @@
         <v>0.40400000000000003</v>
       </c>
       <c r="R268" s="4">
-        <f>(D268-I268+1+2*K268)/M268</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S268" s="4">
-        <f>(C268-H268+1+2*J268)/L268</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T268" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.85099999999999998</v>
       </c>
       <c r="U268" s="2">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(N268/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>6.9964560340425539</v>
       </c>
       <c r="V268" s="2">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(O268/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>7.755505509433962</v>
       </c>
       <c r="W268" s="2">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(P268/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>4.0697207128712867</v>
       </c>
       <c r="X268" t="s">
@@ -12431,11 +12432,11 @@
         <v>9.3390000000000004</v>
       </c>
       <c r="I281" s="2">
-        <f t="shared" ref="I281:J291" si="16">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
+        <f t="shared" ref="I281:J291" si="28">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
         <v>1.1328994515539303</v>
       </c>
       <c r="J281" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.0616914016489989</v>
       </c>
     </row>
@@ -12456,11 +12457,11 @@
         <v>11.461</v>
       </c>
       <c r="I282" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.7234722753346079</v>
       </c>
       <c r="J282" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.7302392461390803</v>
       </c>
     </row>
@@ -12485,11 +12486,11 @@
         <v>10.028</v>
       </c>
       <c r="I283" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.3028434377081948</v>
       </c>
       <c r="J283" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.9549804547267646</v>
       </c>
     </row>
@@ -12510,11 +12511,11 @@
         <v>6.7670000000000003</v>
       </c>
       <c r="I284" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.99121748375664498</v>
       </c>
       <c r="J284" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.99194987439042404</v>
       </c>
     </row>
@@ -12535,11 +12536,11 @@
         <v>9.9939999999999998</v>
       </c>
       <c r="I285" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.3267170273742466</v>
       </c>
       <c r="J285" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.3433109465679409</v>
       </c>
     </row>
@@ -12560,11 +12561,11 @@
         <v>15.396000000000001</v>
       </c>
       <c r="I286" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.6874119658119655</v>
       </c>
       <c r="J286" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.743965913224214</v>
       </c>
     </row>
@@ -12589,11 +12590,11 @@
         <v>11.316000000000001</v>
       </c>
       <c r="I287" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.787037968970381</v>
       </c>
       <c r="J287" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>4.7455106398020499</v>
       </c>
     </row>
@@ -12614,11 +12615,11 @@
         <v>10.288</v>
       </c>
       <c r="I288" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.99288156773643832</v>
       </c>
       <c r="J288" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.0194214618973561</v>
       </c>
     </row>
@@ -12639,11 +12640,11 @@
         <v>12.74</v>
       </c>
       <c r="I289" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.6252608089260807</v>
       </c>
       <c r="J289" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.6464376766091051</v>
       </c>
     </row>
@@ -12664,11 +12665,11 @@
         <v>18.085000000000001</v>
       </c>
       <c r="I290" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.2692287553415915</v>
       </c>
       <c r="J290" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.3196700027647221</v>
       </c>
     </row>
@@ -12689,11 +12690,11 @@
         <v>14.29</v>
       </c>
       <c r="I291" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>4.9403794382617914</v>
       </c>
       <c r="J291" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>5.8714110566829953</v>
       </c>
     </row>
@@ -12740,11 +12741,11 @@
         <v>1.9359999999999999</v>
       </c>
       <c r="I296" s="2">
-        <f t="shared" ref="I296:J312" si="17">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
+        <f t="shared" ref="I296:J312" si="29">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
         <v>0.53807620269403467</v>
       </c>
       <c r="J296" s="2">
-        <f t="shared" ref="J296:J311" si="18">(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
+        <f t="shared" ref="J296:J311" si="30">(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
         <v>0.43329586776859502</v>
       </c>
     </row>
@@ -12765,11 +12766,11 @@
         <v>3.9689999999999999</v>
       </c>
       <c r="I297" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.60764998189061936</v>
       </c>
       <c r="J297" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.42270637440161257</v>
       </c>
     </row>
@@ -12790,11 +12791,11 @@
         <v>3.992</v>
       </c>
       <c r="I298" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.4296732850447378</v>
       </c>
       <c r="J298" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.84054188376753503</v>
       </c>
     </row>
@@ -12815,11 +12816,11 @@
         <v>4.9889999999999999</v>
       </c>
       <c r="I299" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.5134405992509361</v>
       </c>
       <c r="J299" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.3451365804770496</v>
       </c>
     </row>
@@ -12840,11 +12841,11 @@
         <v>2.855</v>
       </c>
       <c r="I300" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.72362372223420324</v>
       </c>
       <c r="J300" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.1752865849387042</v>
       </c>
     </row>
@@ -12865,11 +12866,11 @@
         <v>5.173</v>
       </c>
       <c r="I301" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.4710404208680403</v>
       </c>
       <c r="J301" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.2972910110187512</v>
       </c>
     </row>
@@ -12890,11 +12891,11 @@
         <v>8.1389999999999993</v>
       </c>
       <c r="I302" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.0790944712089927</v>
       </c>
       <c r="J302" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.6490690256788305</v>
       </c>
     </row>
@@ -12915,11 +12916,11 @@
         <v>11.946999999999999</v>
       </c>
       <c r="I303" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>5.1901673627223515</v>
       </c>
       <c r="J303" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.2468858793002426</v>
       </c>
     </row>
@@ -12940,11 +12941,11 @@
         <v>9.8409999999999993</v>
       </c>
       <c r="I304" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.64971307967857483</v>
       </c>
       <c r="J304" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.3638626968803984</v>
       </c>
     </row>
@@ -12965,11 +12966,11 @@
         <v>11.788</v>
       </c>
       <c r="I305" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.0510044009779955</v>
       </c>
       <c r="J305" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.2771925347811335</v>
       </c>
     </row>
@@ -12990,11 +12991,11 @@
         <v>19.222999999999999</v>
       </c>
       <c r="I306" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>5.2701571807205267</v>
       </c>
       <c r="J306" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.7928570566508868</v>
       </c>
     </row>
@@ -13015,11 +13016,11 @@
         <v>19.62</v>
       </c>
       <c r="I307" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>6.6576253968253969</v>
       </c>
       <c r="J307" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>5.472690234454638</v>
       </c>
     </row>
@@ -13040,11 +13041,11 @@
         <v>57.247999999999998</v>
       </c>
       <c r="I308" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.66325395268392129</v>
       </c>
       <c r="J308" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.93779854667411966</v>
       </c>
     </row>
@@ -13065,11 +13066,11 @@
         <v>36.305</v>
       </c>
       <c r="I309" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.6935800717457292</v>
       </c>
       <c r="J309" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.957559080016527</v>
       </c>
     </row>
@@ -13090,11 +13091,11 @@
         <v>46.113</v>
       </c>
       <c r="I310" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>6.666305482088533</v>
       </c>
       <c r="J310" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.6570026847093011</v>
       </c>
     </row>
@@ -13115,11 +13116,11 @@
         <v>59.124000000000002</v>
       </c>
       <c r="I311" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>7.825821391348712</v>
       </c>
       <c r="J311" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>7.2643381638590077</v>
       </c>
     </row>
@@ -13140,11 +13141,11 @@
         <v>7.2690000000000001</v>
       </c>
       <c r="I312" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.63689448287497885</v>
       </c>
       <c r="J312" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.0386225340486999</v>
       </c>
     </row>
@@ -13165,11 +13166,11 @@
         <v>9.3620000000000001</v>
       </c>
       <c r="I313" s="2">
-        <f t="shared" ref="I313:J317" si="19">(8*$E313*$D313*$C313*$C313)/(G313/1000)/10^12</f>
+        <f t="shared" ref="I313:J317" si="31">(8*$E313*$D313*$C313*$C313)/(G313/1000)/10^12</f>
         <v>0.6840707833099261</v>
       </c>
       <c r="J313" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.6128492202520828</v>
       </c>
     </row>
@@ -13190,11 +13191,11 @@
         <v>31.28</v>
       </c>
       <c r="I314" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.6085331951282713</v>
       </c>
       <c r="J314" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.96544081841432217</v>
       </c>
     </row>
@@ -13215,11 +13216,11 @@
         <v>3.6819999999999999</v>
       </c>
       <c r="I315" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.64133088685015294</v>
       </c>
       <c r="J315" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.34174122759369907</v>
       </c>
     </row>
@@ -13240,11 +13241,11 @@
         <v>15.285</v>
       </c>
       <c r="I316" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.37566538289296914</v>
       </c>
       <c r="J316" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.16464392541707557</v>
       </c>
     </row>
@@ -13265,11 +13266,11 @@
         <v>9.0909999999999993</v>
       </c>
       <c r="I317" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.77314359447004599</v>
       </c>
       <c r="J317" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.55364259157408424</v>
       </c>
     </row>
@@ -13349,11 +13350,11 @@
         <v>638.21500000000003</v>
       </c>
       <c r="I322" s="2">
-        <f t="shared" ref="I322:I339" si="20">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <f t="shared" ref="I322:I339" si="32">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
         <v>3.8250096772572726</v>
       </c>
       <c r="J322" s="2">
-        <f t="shared" ref="J322:J339" si="21">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <f t="shared" ref="J322:J339" si="33">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
         <v>1.7892078124143118</v>
       </c>
     </row>
@@ -13374,11 +13375,11 @@
         <v>319.88</v>
       </c>
       <c r="I323" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.7884996748636421</v>
       </c>
       <c r="J323" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.7848869325997248</v>
       </c>
     </row>
@@ -13399,11 +13400,11 @@
         <v>160.09399999999999</v>
       </c>
       <c r="I324" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.7433249164990339</v>
       </c>
       <c r="J324" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.7784148676652469</v>
       </c>
     </row>
@@ -13424,11 +13425,11 @@
         <v>927.20399999999995</v>
       </c>
       <c r="I325" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.0474401200852705</v>
       </c>
       <c r="J325" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.3027980379722264</v>
       </c>
     </row>
@@ -13449,11 +13450,11 @@
         <v>464.83199999999999</v>
       </c>
       <c r="I326" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.0357607298132741</v>
       </c>
       <c r="J326" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.2993506815365552</v>
       </c>
     </row>
@@ -13474,11 +13475,11 @@
         <v>233.09200000000001</v>
       </c>
       <c r="I327" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.9929622200198214</v>
       </c>
       <c r="J327" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.2955823794896435</v>
       </c>
     </row>
@@ -13499,11 +13500,11 @@
         <v>116.374</v>
       </c>
       <c r="I328" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.9215693242021534</v>
       </c>
       <c r="J328" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.2940372490075103</v>
       </c>
     </row>
@@ -13524,11 +13525,11 @@
         <v>694.33199999999999</v>
       </c>
       <c r="I329" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.2903701726177839</v>
       </c>
       <c r="J329" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.97860569295380306</v>
       </c>
     </row>
@@ -13549,11 +13550,11 @@
         <v>348.52300000000002</v>
       </c>
       <c r="I330" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.2655887326949244</v>
       </c>
       <c r="J330" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.97479541952754911</v>
       </c>
     </row>
@@ -13574,11 +13575,11 @@
         <v>175.45500000000001</v>
       </c>
       <c r="I331" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.2099408320974159</v>
       </c>
       <c r="J331" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.96816455501410625</v>
       </c>
     </row>
@@ -13599,11 +13600,11 @@
         <v>88.668000000000006</v>
       </c>
       <c r="I332" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.1410955585774589</v>
       </c>
       <c r="J332" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.95534086236297189</v>
       </c>
     </row>
@@ -13624,11 +13625,11 @@
         <v>1154.9090000000001</v>
       </c>
       <c r="I333" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.6116211029064238</v>
       </c>
       <c r="J333" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.6342731765013518</v>
       </c>
     </row>
@@ -13649,11 +13650,11 @@
         <v>579.39599999999996</v>
       </c>
       <c r="I334" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.5821265353840546</v>
       </c>
       <c r="J334" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.6287968850319989</v>
       </c>
     </row>
@@ -13674,11 +13675,11 @@
         <v>290.43200000000002</v>
       </c>
       <c r="I335" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.5497084909989547</v>
       </c>
       <c r="J335" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.6246804759806082</v>
       </c>
     </row>
@@ -13699,11 +13700,11 @@
         <v>145.24199999999999</v>
       </c>
       <c r="I336" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.5050416254543282</v>
       </c>
       <c r="J336" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.6200579336555545</v>
       </c>
     </row>
@@ -13724,11 +13725,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="I337" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0.43389351724137931</v>
       </c>
       <c r="J337" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.28597527272727269</v>
       </c>
     </row>
@@ -13749,11 +13750,11 @@
         <v>469.43200000000002</v>
       </c>
       <c r="I338" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.6805785835921068</v>
       </c>
       <c r="J338" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.64330912251401695</v>
       </c>
     </row>
@@ -13774,11 +13775,11 @@
         <v>175.30799999999999</v>
       </c>
       <c r="I339" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.8738498315601153</v>
       </c>
       <c r="J339" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.4452493668286674</v>
       </c>
     </row>

--- a/results/train/DeepBench_NV_TitanX_Pascal.xlsx
+++ b/results/train/DeepBench_NV_TitanX_Pascal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33340" windowHeight="19220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="3" r:id="rId1"/>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:AE339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3664,11 +3664,11 @@
         <v>3</v>
       </c>
       <c r="I98" s="2">
-        <v>73.055000000000007</v>
+        <v>56.402000000000001</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="3"/>
-        <v>8.2674666484155761</v>
+        <v>10.708481543207688</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3790,11 +3790,11 @@
         <v>3</v>
       </c>
       <c r="I103" s="2">
-        <v>146.62799999999999</v>
+        <v>112.22799999999999</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="3"/>
-        <v>8.2382597593911129</v>
+        <v>10.763441850518587</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3916,11 +3916,11 @@
         <v>3</v>
       </c>
       <c r="I108" s="2">
-        <v>226.27099999999999</v>
+        <v>92.747</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="3"/>
-        <v>2.6692761158080356</v>
+        <v>6.5121219662091496</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4042,11 +4042,11 @@
         <v>3</v>
       </c>
       <c r="I113" s="2">
-        <v>456.44299999999998</v>
+        <v>186.39400000000001</v>
       </c>
       <c r="J113" s="2">
         <f t="shared" si="3"/>
-        <v>2.6464630895862133</v>
+        <v>6.4806783050956573</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4146,11 +4146,11 @@
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="2">
-        <v>0.66800000000000004</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="J117" s="2">
         <f t="shared" si="3"/>
-        <v>0.60277422754491017</v>
+        <v>0.76115913799621926</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4224,11 +4224,11 @@
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="2">
-        <v>0.31</v>
+        <v>0.245</v>
       </c>
       <c r="J120" s="2">
         <f t="shared" si="3"/>
-        <v>2.5977624774193551</v>
+        <v>3.2869647673469391</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4302,11 +4302,11 @@
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="2">
-        <v>0.40500000000000003</v>
+        <v>0.318</v>
       </c>
       <c r="J123" s="2">
         <f t="shared" si="3"/>
-        <v>0.99420539259259255</v>
+        <v>1.2662049811320755</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4380,11 +4380,11 @@
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="J126" s="2">
         <f t="shared" si="3"/>
-        <v>1.4380470857142857</v>
+        <v>2.8658589608540916</v>
       </c>
     </row>
     <row r="127" spans="1:10">

--- a/results/train/DeepBench_NV_TitanX_Pascal.xlsx
+++ b/results/train/DeepBench_NV_TitanX_Pascal.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patwarymostofa/Documents/mostofa/deepbench-internal/DeepBench-internal/results/train/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33340" windowHeight="19220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33340" windowHeight="19220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="3" r:id="rId1"/>
     <sheet name="Specs" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="80">
   <si>
     <t>Dense Matrix Multiplication</t>
   </si>
@@ -228,6 +236,39 @@
   <si>
     <t>S (Filter width)</t>
   </si>
+  <si>
+    <t>All-Reduce</t>
+  </si>
+  <si>
+    <t>Size # floats</t>
+  </si>
+  <si>
+    <t># chips / accelerator cards</t>
+  </si>
+  <si>
+    <t>Mean All Reduce Time (msec)</t>
+  </si>
+  <si>
+    <t>Gigabytes/sec</t>
+  </si>
+  <si>
+    <t>Selected Algorithm</t>
+  </si>
+  <si>
+    <t>Std Dev All Reduce Time (msec)</t>
+  </si>
+  <si>
+    <t>NCCL 2.0 MPI</t>
+  </si>
+  <si>
+    <t>OSU Allreduce</t>
+  </si>
+  <si>
+    <t>NCCL 2.0 Single</t>
+  </si>
+  <si>
+    <t>Baidu RingAllReduce</t>
+  </si>
 </sst>
 </file>
 
@@ -279,6 +320,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -937,6 +979,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1262,13 +1309,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE339"/>
+  <dimension ref="A1:AE378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="H380" sqref="H380"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
@@ -1286,7 +1333,7 @@
     <col min="22" max="22" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>65</v>
       </c>
@@ -1294,7 +1341,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>1760</v>
       </c>
@@ -1346,7 +1393,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>1760</v>
       </c>
@@ -1372,7 +1419,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>1760</v>
       </c>
@@ -1398,7 +1445,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>1760</v>
       </c>
@@ -1424,7 +1471,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>1760</v>
       </c>
@@ -1450,7 +1497,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>2048</v>
       </c>
@@ -1476,7 +1523,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>2048</v>
       </c>
@@ -1502,7 +1549,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>2048</v>
       </c>
@@ -1528,7 +1575,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>2048</v>
       </c>
@@ -1554,7 +1601,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>2048</v>
       </c>
@@ -1580,7 +1627,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>2560</v>
       </c>
@@ -1606,7 +1653,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>2560</v>
       </c>
@@ -1632,7 +1679,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>2560</v>
       </c>
@@ -1658,7 +1705,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>2560</v>
       </c>
@@ -1684,7 +1731,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>2560</v>
       </c>
@@ -1710,7 +1757,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>4096</v>
       </c>
@@ -1736,7 +1783,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>4096</v>
       </c>
@@ -1762,7 +1809,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>4096</v>
       </c>
@@ -1788,7 +1835,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>4096</v>
       </c>
@@ -1814,7 +1861,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>4096</v>
       </c>
@@ -1840,7 +1887,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>1760</v>
       </c>
@@ -1866,7 +1913,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>1760</v>
       </c>
@@ -1892,7 +1939,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>1760</v>
       </c>
@@ -1918,7 +1965,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>1760</v>
       </c>
@@ -1944,7 +1991,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>1760</v>
       </c>
@@ -1970,7 +2017,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>2048</v>
       </c>
@@ -1996,7 +2043,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>2048</v>
       </c>
@@ -2022,7 +2069,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="3:12">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>2048</v>
       </c>
@@ -2048,7 +2095,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="3:12">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>2048</v>
       </c>
@@ -2074,7 +2121,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>2048</v>
       </c>
@@ -2100,7 +2147,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>2560</v>
       </c>
@@ -2126,7 +2173,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>2560</v>
       </c>
@@ -2152,7 +2199,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>2560</v>
       </c>
@@ -2178,7 +2225,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>2560</v>
       </c>
@@ -2204,7 +2251,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>2560</v>
       </c>
@@ -2230,7 +2277,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>4096</v>
       </c>
@@ -2256,7 +2303,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>4096</v>
       </c>
@@ -2282,7 +2329,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>4096</v>
       </c>
@@ -2308,7 +2355,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>4096</v>
       </c>
@@ -2334,7 +2381,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>4096</v>
       </c>
@@ -2360,7 +2407,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>1760</v>
       </c>
@@ -2389,7 +2436,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>2048</v>
       </c>
@@ -2415,7 +2462,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="3:12">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>2560</v>
       </c>
@@ -2441,7 +2488,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
         <v>4096</v>
       </c>
@@ -2467,19 +2514,19 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>5124</v>
       </c>
@@ -2505,7 +2552,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>35</v>
       </c>
@@ -2531,7 +2578,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>5124</v>
       </c>
@@ -2557,7 +2604,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>35</v>
       </c>
@@ -2583,7 +2630,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="3:12">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>5124</v>
       </c>
@@ -2609,7 +2656,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>35</v>
       </c>
@@ -2635,7 +2682,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="3:12">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>5124</v>
       </c>
@@ -2661,7 +2708,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>35</v>
       </c>
@@ -2687,7 +2734,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="3:12">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>5124</v>
       </c>
@@ -2713,7 +2760,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>35</v>
       </c>
@@ -2739,7 +2786,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="3:12">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>5124</v>
       </c>
@@ -2765,7 +2812,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="3:12">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>35</v>
       </c>
@@ -2791,7 +2838,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="3:12">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>5124</v>
       </c>
@@ -2817,7 +2864,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="3:12">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>35</v>
       </c>
@@ -2843,7 +2890,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="3:12">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>5124</v>
       </c>
@@ -2869,7 +2916,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="3:12">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>35</v>
       </c>
@@ -2895,13 +2942,13 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="3:12">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>7680</v>
       </c>
@@ -2927,7 +2974,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="3:12">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>7680</v>
       </c>
@@ -2953,7 +3000,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="3:12">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>7680</v>
       </c>
@@ -2979,7 +3026,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="3:12">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>7680</v>
       </c>
@@ -3005,7 +3052,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="3:12">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>7680</v>
       </c>
@@ -3031,7 +3078,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="3:12">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>7680</v>
       </c>
@@ -3057,7 +3104,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="3:12">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C73">
         <v>7680</v>
       </c>
@@ -3083,7 +3130,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="3:12">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C74">
         <v>7680</v>
       </c>
@@ -3109,7 +3156,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="3:12">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C75">
         <f>3*1024</f>
         <v>3072</v>
@@ -3136,7 +3183,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="3:12">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C76">
         <f t="shared" ref="C76:C82" si="2">3*1024</f>
         <v>3072</v>
@@ -3163,7 +3210,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="3:12">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C77">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -3190,7 +3237,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="3:12">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C78">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -3217,7 +3264,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="3:12">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C79">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -3244,7 +3291,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="3:12">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C80">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -3271,7 +3318,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -3298,7 +3345,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="3:12">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -3325,13 +3372,13 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="3:12">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="3:12">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>3072</v>
       </c>
@@ -3357,7 +3404,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="3:12">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>7680</v>
       </c>
@@ -3383,7 +3430,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="87" spans="3:12">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87">
         <v>512</v>
       </c>
@@ -3407,7 +3454,7 @@
         <v>0.58926773126168897</v>
       </c>
     </row>
-    <row r="88" spans="3:12">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>1024</v>
       </c>
@@ -3431,7 +3478,7 @@
         <v>1.0551262235960845</v>
       </c>
     </row>
-    <row r="89" spans="3:12">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89">
         <v>512</v>
       </c>
@@ -3455,7 +3502,7 @@
         <v>1.2029368575624084</v>
       </c>
     </row>
-    <row r="90" spans="3:12">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90">
         <v>1024</v>
       </c>
@@ -3479,7 +3526,7 @@
         <v>1.9241338813857898</v>
       </c>
     </row>
-    <row r="91" spans="3:12">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91">
         <v>512</v>
       </c>
@@ -3503,7 +3550,7 @@
         <v>0.80550639134709923</v>
       </c>
     </row>
-    <row r="92" spans="3:12">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>1024</v>
       </c>
@@ -3527,7 +3574,7 @@
         <v>1.2194105388508485</v>
       </c>
     </row>
-    <row r="93" spans="3:12">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>512</v>
       </c>
@@ -3551,7 +3598,7 @@
         <v>1.0922666666666667</v>
       </c>
     </row>
-    <row r="94" spans="3:12">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>1024</v>
       </c>
@@ -3575,7 +3622,7 @@
         <v>1.1012973045640921</v>
       </c>
     </row>
-    <row r="95" spans="3:12">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95">
         <v>1024</v>
       </c>
@@ -3599,7 +3646,7 @@
         <v>7.4898285714285704</v>
       </c>
     </row>
-    <row r="96" spans="3:12">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>1024</v>
       </c>
@@ -3623,7 +3670,7 @@
         <v>7.1262446601941747</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C97">
         <v>7680</v>
       </c>
@@ -3647,7 +3694,7 @@
         <v>10.285198626777834</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>6144</v>
       </c>
@@ -3671,7 +3718,7 @@
         <v>10.708481543207688</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="C99" s="1">
         <v>4608</v>
@@ -3697,7 +3744,7 @@
         <v>10.222929738512924</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="C100" s="1">
         <v>8448</v>
@@ -3723,7 +3770,7 @@
         <v>10.29340842835895</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="C101" s="1">
         <v>3072</v>
@@ -3749,7 +3796,7 @@
         <v>10.172119644300729</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C102">
         <v>7680</v>
       </c>
@@ -3773,7 +3820,7 @@
         <v>10.303389997052175</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C103">
         <v>6144</v>
       </c>
@@ -3797,7 +3844,7 @@
         <v>10.763441850518587</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="C104" s="1">
         <v>4608</v>
@@ -3823,7 +3870,7 @@
         <v>10.195625232579076</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="C105" s="1">
         <v>8448</v>
@@ -3849,7 +3896,7 @@
         <v>10.191343412526997</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="C106" s="1">
         <v>3072</v>
@@ -3875,7 +3922,7 @@
         <v>10.045902930707561</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C107">
         <v>7680</v>
       </c>
@@ -3899,7 +3946,7 @@
         <v>3.2879653824445514</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C108">
         <v>6144</v>
       </c>
@@ -3923,7 +3970,7 @@
         <v>6.5121219662091496</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="C109" s="1">
         <v>4608</v>
@@ -3949,7 +3996,7 @@
         <v>3.6766657720445002</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="C110" s="1">
         <v>8448</v>
@@ -3975,7 +4022,7 @@
         <v>3.2747701837703902</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="C111" s="1">
         <v>3072</v>
@@ -4001,7 +4048,7 @@
         <v>9.2255724323333528</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C112">
         <v>7680</v>
       </c>
@@ -4025,7 +4072,7 @@
         <v>3.2840237118801254</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C113">
         <v>6144</v>
       </c>
@@ -4049,7 +4096,7 @@
         <v>6.4806783050956573</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="C114" s="1">
         <v>4608</v>
@@ -4075,7 +4122,7 @@
         <v>3.6666662061820063</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="C115" s="1">
         <v>8448</v>
@@ -4101,7 +4148,7 @@
         <v>3.2698189815132985</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="C116" s="1">
         <v>3072</v>
@@ -4127,7 +4174,7 @@
         <v>9.3785679503105595</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="C117" s="1">
         <v>6144</v>
@@ -4153,7 +4200,7 @@
         <v>0.76115913799621926</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="C118" s="1">
         <v>4608</v>
@@ -4179,7 +4226,7 @@
         <v>0.98048664935064933</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="C119" s="1">
         <v>8448</v>
@@ -4205,7 +4252,7 @@
         <v>0.7263990229007633</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="C120" s="1">
         <v>6144</v>
@@ -4231,7 +4278,7 @@
         <v>3.2869647673469391</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="C121" s="1">
         <v>4608</v>
@@ -4257,7 +4304,7 @@
         <v>2.3716483350785342</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="C122" s="1">
         <v>8448</v>
@@ -4283,7 +4330,7 @@
         <v>4.1038607870619943</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="C123" s="1">
         <v>6144</v>
@@ -4309,7 +4356,7 @@
         <v>1.2662049811320755</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="C124" s="1">
         <v>4608</v>
@@ -4335,7 +4382,7 @@
         <v>1.2513393149171272</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="C125" s="1">
         <v>8448</v>
@@ -4361,7 +4408,7 @@
         <v>1.2687769600000001</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="C126" s="1">
         <v>6144</v>
@@ -4387,7 +4434,7 @@
         <v>2.8658589608540916</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="C127" s="1">
         <v>4608</v>
@@ -4413,7 +4460,7 @@
         <v>1.7422493538461536</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="C128" s="1">
         <v>8448</v>
@@ -4439,7 +4486,7 @@
         <v>1.90316544</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C129" s="1">
         <v>512</v>
       </c>
@@ -4465,7 +4512,7 @@
         <v>9.7886868458274403</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C130" s="1">
         <v>512</v>
       </c>
@@ -4491,7 +4538,7 @@
         <v>9.7428664343786284</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1">
         <v>512</v>
@@ -4518,7 +4565,7 @@
         <v>9.8181273408239687</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
       <c r="C132" s="1">
         <v>512</v>
@@ -4545,7 +4592,7 @@
         <v>9.6413538461538462</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C133" s="1">
         <v>1024</v>
       </c>
@@ -4571,7 +4618,7 @@
         <v>10.217926472759487</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C134" s="1">
         <v>1024</v>
       </c>
@@ -4597,7 +4644,7 @@
         <v>10.299089011663598</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
       <c r="C135" s="1">
         <v>1024</v>
@@ -4624,7 +4671,7 @@
         <v>10.272603477834924</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="1">
         <v>1024</v>
@@ -4651,7 +4698,7 @@
         <v>9.9777842642961385</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
       <c r="C137" s="1">
         <v>512</v>
@@ -4677,7 +4724,7 @@
         <v>0.76260072727272732</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
       <c r="C138" s="1">
         <v>1024</v>
@@ -4703,7 +4750,7 @@
         <v>1.5252014545454546</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C139" s="1">
         <v>512</v>
       </c>
@@ -4729,7 +4776,7 @@
         <v>9.3610193426213986</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C140" s="1">
         <v>512</v>
       </c>
@@ -4755,7 +4802,7 @@
         <v>9.5924619782732989</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
       <c r="C141" s="1">
         <v>512</v>
@@ -4782,7 +4829,7 @@
         <v>9.3317353900919606</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
       <c r="C142" s="1">
         <v>512</v>
@@ -4809,7 +4856,7 @@
         <v>9.2934453781512598</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C143" s="1">
         <v>1024</v>
       </c>
@@ -4835,7 +4882,7 @@
         <v>9.8053295551147635</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C144" s="1">
         <v>1024</v>
       </c>
@@ -4861,7 +4908,7 @@
         <v>9.8602503673229513</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
       <c r="C145" s="1">
         <v>1024</v>
@@ -4888,7 +4935,7 @@
         <v>9.7776921283705018</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="1"/>
       <c r="C146" s="1">
         <v>1024</v>
@@ -4915,7 +4962,7 @@
         <v>9.5132903225806444</v>
       </c>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="1"/>
       <c r="C147" s="1">
         <v>512</v>
@@ -4941,7 +4988,7 @@
         <v>0.18236104347826088</v>
       </c>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="1"/>
       <c r="C148" s="1">
         <v>1024</v>
@@ -4967,7 +5014,7 @@
         <v>0.36472208695652175</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C149" s="1">
         <v>512</v>
       </c>
@@ -4993,7 +5040,7 @@
         <v>10.042228252194732</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C150" s="1">
         <v>512</v>
       </c>
@@ -5019,7 +5066,7 @@
         <v>10.007286609006862</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="1"/>
       <c r="C151" s="1">
         <v>512</v>
@@ -5046,7 +5093,7 @@
         <v>10.087311207311208</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="1"/>
       <c r="C152" s="1">
         <v>512</v>
@@ -5073,7 +5120,7 @@
         <v>9.8989811767803069</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C153" s="1">
         <v>1024</v>
       </c>
@@ -5099,7 +5146,7 @@
         <v>10.185968429186445</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C154" s="1">
         <v>1024</v>
       </c>
@@ -5125,7 +5172,7 @@
         <v>10.207188805516124</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
       <c r="C155" s="1">
         <v>1024</v>
@@ -5152,7 +5199,7 @@
         <v>10.169653277297341</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
       <c r="C156" s="1">
         <v>1024</v>
@@ -5179,7 +5226,7 @@
         <v>9.9652236135957075</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="1"/>
       <c r="C157" s="1">
         <v>512</v>
@@ -5205,7 +5252,7 @@
         <v>0.33554432000000001</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="1"/>
       <c r="C158" s="1">
         <v>1024</v>
@@ -5231,7 +5278,7 @@
         <v>0.68478432653061216</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C159" s="1">
         <v>512</v>
       </c>
@@ -5257,7 +5304,7 @@
         <v>9.2465783953503902</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C160" s="1">
         <v>512</v>
       </c>
@@ -5283,7 +5330,7 @@
         <v>10.029221480522068</v>
       </c>
     </row>
-    <row r="161" spans="1:31">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B161" s="1"/>
       <c r="C161" s="1">
         <v>512</v>
@@ -5310,7 +5357,7 @@
         <v>9.2324543253356808</v>
       </c>
     </row>
-    <row r="162" spans="1:31">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B162" s="1"/>
       <c r="C162" s="1">
         <v>512</v>
@@ -5337,7 +5384,7 @@
         <v>9.445184626978147</v>
       </c>
     </row>
-    <row r="163" spans="1:31">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C163" s="1">
         <v>1024</v>
       </c>
@@ -5363,7 +5410,7 @@
         <v>9.792495808129047</v>
       </c>
     </row>
-    <row r="164" spans="1:31">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C164" s="1">
         <v>1024</v>
       </c>
@@ -5389,7 +5436,7 @@
         <v>9.8946572959158594</v>
       </c>
     </row>
-    <row r="165" spans="1:31">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B165" s="1"/>
       <c r="C165" s="1">
         <v>1024</v>
@@ -5416,7 +5463,7 @@
         <v>9.7523053671769038</v>
       </c>
     </row>
-    <row r="166" spans="1:31">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B166" s="1"/>
       <c r="C166" s="1">
         <v>1024</v>
@@ -5443,7 +5490,7 @@
         <v>9.5555984752223626</v>
       </c>
     </row>
-    <row r="167" spans="1:31">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B167" s="1"/>
       <c r="C167" s="1">
         <v>512</v>
@@ -5469,7 +5516,7 @@
         <v>0.35696204255319153</v>
       </c>
     </row>
-    <row r="168" spans="1:31">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B168" s="1"/>
       <c r="C168" s="1">
         <v>1024</v>
@@ -5495,15 +5542,15 @@
         <v>0.7294441739130435</v>
       </c>
     </row>
-    <row r="171" spans="1:31">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="J171" s="3"/>
     </row>
-    <row r="173" spans="1:31">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:31">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>7</v>
       </c>
@@ -5568,7 +5615,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:31">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C175">
         <v>700</v>
       </c>
@@ -5640,7 +5687,7 @@
       <c r="AA175" s="2"/>
       <c r="AE175" s="2"/>
     </row>
-    <row r="176" spans="1:31">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C176">
         <v>700</v>
       </c>
@@ -5712,7 +5759,7 @@
       <c r="AA176" s="2"/>
       <c r="AE176" s="2"/>
     </row>
-    <row r="177" spans="3:31">
+    <row r="177" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C177">
         <v>700</v>
       </c>
@@ -5784,7 +5831,7 @@
       <c r="AA177" s="2"/>
       <c r="AE177" s="2"/>
     </row>
-    <row r="178" spans="3:31">
+    <row r="178" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C178">
         <v>700</v>
       </c>
@@ -5856,7 +5903,7 @@
       <c r="AA178" s="2"/>
       <c r="AE178" s="2"/>
     </row>
-    <row r="179" spans="3:31">
+    <row r="179" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C179">
         <v>341</v>
       </c>
@@ -5929,7 +5976,7 @@
       <c r="AA179" s="2"/>
       <c r="AE179" s="2"/>
     </row>
-    <row r="180" spans="3:31">
+    <row r="180" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C180">
         <v>341</v>
       </c>
@@ -6002,7 +6049,7 @@
       <c r="AA180" s="2"/>
       <c r="AE180" s="2"/>
     </row>
-    <row r="181" spans="3:31">
+    <row r="181" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C181">
         <v>341</v>
       </c>
@@ -6075,7 +6122,7 @@
       <c r="AA181" s="2"/>
       <c r="AE181" s="2"/>
     </row>
-    <row r="182" spans="3:31">
+    <row r="182" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C182">
         <v>341</v>
       </c>
@@ -6148,7 +6195,7 @@
       <c r="AA182" s="2"/>
       <c r="AE182" s="2"/>
     </row>
-    <row r="183" spans="3:31">
+    <row r="183" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C183">
         <v>480</v>
       </c>
@@ -6220,7 +6267,7 @@
       <c r="AA183" s="2"/>
       <c r="AE183" s="2"/>
     </row>
-    <row r="184" spans="3:31">
+    <row r="184" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C184">
         <v>240</v>
       </c>
@@ -6293,7 +6340,7 @@
       <c r="AA184" s="2"/>
       <c r="AE184" s="2"/>
     </row>
-    <row r="185" spans="3:31">
+    <row r="185" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C185">
         <v>120</v>
       </c>
@@ -6366,7 +6413,7 @@
       <c r="AA185" s="2"/>
       <c r="AE185" s="2"/>
     </row>
-    <row r="186" spans="3:31">
+    <row r="186" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C186">
         <v>60</v>
       </c>
@@ -6439,7 +6486,7 @@
       <c r="AA186" s="2"/>
       <c r="AE186" s="2"/>
     </row>
-    <row r="187" spans="3:31">
+    <row r="187" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C187">
         <v>108</v>
       </c>
@@ -6511,7 +6558,7 @@
       <c r="AA187" s="2"/>
       <c r="AE187" s="2"/>
     </row>
-    <row r="188" spans="3:31">
+    <row r="188" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C188">
         <v>54</v>
       </c>
@@ -6584,7 +6631,7 @@
       <c r="AA188" s="2"/>
       <c r="AE188" s="2"/>
     </row>
-    <row r="189" spans="3:31">
+    <row r="189" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C189">
         <v>27</v>
       </c>
@@ -6657,7 +6704,7 @@
       <c r="AA189" s="2"/>
       <c r="AE189" s="2"/>
     </row>
-    <row r="190" spans="3:31">
+    <row r="190" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C190">
         <v>14</v>
       </c>
@@ -6730,7 +6777,7 @@
       <c r="AA190" s="2"/>
       <c r="AE190" s="2"/>
     </row>
-    <row r="191" spans="3:31">
+    <row r="191" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C191">
         <v>7</v>
       </c>
@@ -6803,7 +6850,7 @@
       <c r="AA191" s="2"/>
       <c r="AE191" s="2"/>
     </row>
-    <row r="192" spans="3:31">
+    <row r="192" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C192">
         <v>224</v>
       </c>
@@ -6875,7 +6922,7 @@
       <c r="AA192" s="2"/>
       <c r="AE192" s="2"/>
     </row>
-    <row r="193" spans="3:31">
+    <row r="193" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C193">
         <v>112</v>
       </c>
@@ -6948,7 +6995,7 @@
       <c r="AA193" s="2"/>
       <c r="AE193" s="2"/>
     </row>
-    <row r="194" spans="3:31">
+    <row r="194" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C194">
         <f>112/2</f>
         <v>56</v>
@@ -7022,7 +7069,7 @@
       <c r="AA194" s="2"/>
       <c r="AE194" s="2"/>
     </row>
-    <row r="195" spans="3:31">
+    <row r="195" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C195">
         <f>56/2</f>
         <v>28</v>
@@ -7096,7 +7143,7 @@
       <c r="AA195" s="2"/>
       <c r="AE195" s="2"/>
     </row>
-    <row r="196" spans="3:31">
+    <row r="196" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C196">
         <v>14</v>
       </c>
@@ -7169,7 +7216,7 @@
       <c r="AA196" s="2"/>
       <c r="AE196" s="2"/>
     </row>
-    <row r="197" spans="3:31">
+    <row r="197" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C197">
         <v>7</v>
       </c>
@@ -7242,7 +7289,7 @@
       <c r="AA197" s="2"/>
       <c r="AE197" s="2"/>
     </row>
-    <row r="198" spans="3:31">
+    <row r="198" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C198">
         <v>224</v>
       </c>
@@ -7314,7 +7361,7 @@
       <c r="AA198" s="2"/>
       <c r="AE198" s="2"/>
     </row>
-    <row r="199" spans="3:31">
+    <row r="199" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C199">
         <v>112</v>
       </c>
@@ -7387,7 +7434,7 @@
       <c r="AA199" s="2"/>
       <c r="AE199" s="2"/>
     </row>
-    <row r="200" spans="3:31">
+    <row r="200" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C200">
         <f>112/2</f>
         <v>56</v>
@@ -7461,7 +7508,7 @@
       <c r="AA200" s="2"/>
       <c r="AE200" s="2"/>
     </row>
-    <row r="201" spans="3:31">
+    <row r="201" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C201">
         <f>56/2</f>
         <v>28</v>
@@ -7535,7 +7582,7 @@
       <c r="AA201" s="2"/>
       <c r="AE201" s="2"/>
     </row>
-    <row r="202" spans="3:31">
+    <row r="202" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C202">
         <v>14</v>
       </c>
@@ -7608,7 +7655,7 @@
       <c r="AA202" s="2"/>
       <c r="AE202" s="2"/>
     </row>
-    <row r="203" spans="3:31">
+    <row r="203" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C203">
         <v>7</v>
       </c>
@@ -7681,7 +7728,7 @@
       <c r="AA203" s="2"/>
       <c r="AE203" s="2"/>
     </row>
-    <row r="204" spans="3:31">
+    <row r="204" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C204">
         <v>224</v>
       </c>
@@ -7753,7 +7800,7 @@
       <c r="AA204" s="2"/>
       <c r="AE204" s="2"/>
     </row>
-    <row r="205" spans="3:31">
+    <row r="205" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C205">
         <v>28</v>
       </c>
@@ -7826,7 +7873,7 @@
       <c r="AA205" s="2"/>
       <c r="AE205" s="2"/>
     </row>
-    <row r="206" spans="3:31">
+    <row r="206" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C206">
         <v>28</v>
       </c>
@@ -7899,7 +7946,7 @@
       <c r="AA206" s="2"/>
       <c r="AE206" s="2"/>
     </row>
-    <row r="207" spans="3:31">
+    <row r="207" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C207">
         <v>14</v>
       </c>
@@ -7972,7 +8019,7 @@
       <c r="AA207" s="2"/>
       <c r="AE207" s="2"/>
     </row>
-    <row r="208" spans="3:31">
+    <row r="208" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C208">
         <v>14</v>
       </c>
@@ -8045,7 +8092,7 @@
       <c r="AA208" s="2"/>
       <c r="AE208" s="2"/>
     </row>
-    <row r="209" spans="2:31">
+    <row r="209" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C209">
         <v>7</v>
       </c>
@@ -8118,7 +8165,7 @@
       <c r="AA209" s="2"/>
       <c r="AE209" s="2"/>
     </row>
-    <row r="210" spans="2:31">
+    <row r="210" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C210">
         <v>7</v>
       </c>
@@ -8191,7 +8238,7 @@
       <c r="AA210" s="2"/>
       <c r="AE210" s="2"/>
     </row>
-    <row r="211" spans="2:31">
+    <row r="211" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C211">
         <v>56</v>
       </c>
@@ -8262,7 +8309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="2:31">
+    <row r="212" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C212">
         <v>56</v>
       </c>
@@ -8333,7 +8380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="2:31">
+    <row r="213" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C213">
         <v>28</v>
       </c>
@@ -8404,7 +8451,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="214" spans="2:31">
+    <row r="214" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B214" s="1"/>
       <c r="C214" s="1">
         <v>28</v>
@@ -8476,7 +8523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="2:31">
+    <row r="215" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C215">
         <v>14</v>
       </c>
@@ -8547,7 +8594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="216" spans="2:31">
+    <row r="216" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C216">
         <v>14</v>
       </c>
@@ -8618,7 +8665,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="2:31">
+    <row r="217" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B217" s="1"/>
       <c r="C217" s="1">
         <v>14</v>
@@ -8690,7 +8737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="218" spans="2:31">
+    <row r="218" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B218" s="1"/>
       <c r="C218">
         <v>7</v>
@@ -8762,7 +8809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="219" spans="2:31">
+    <row r="219" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B219" s="1"/>
       <c r="C219">
         <v>7</v>
@@ -8834,7 +8881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="2:31">
+    <row r="220" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C220">
         <v>56</v>
       </c>
@@ -8905,7 +8952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="2:31">
+    <row r="221" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C221">
         <v>56</v>
       </c>
@@ -8976,7 +9023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="2:31">
+    <row r="222" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C222">
         <v>28</v>
       </c>
@@ -9047,7 +9094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="2:31">
+    <row r="223" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C223" s="1">
         <v>28</v>
       </c>
@@ -9118,7 +9165,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="224" spans="2:31">
+    <row r="224" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B224" s="1"/>
       <c r="C224">
         <v>14</v>
@@ -9190,7 +9237,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="225" spans="2:24">
+    <row r="225" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C225">
         <v>14</v>
       </c>
@@ -9261,7 +9308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="2:24">
+    <row r="226" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C226" s="1">
         <v>14</v>
       </c>
@@ -9332,7 +9379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="227" spans="2:24">
+    <row r="227" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B227" s="1"/>
       <c r="C227">
         <v>7</v>
@@ -9404,7 +9451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="228" spans="2:24">
+    <row r="228" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B228" s="1"/>
       <c r="C228">
         <v>7</v>
@@ -9476,7 +9523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="229" spans="2:24">
+    <row r="229" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B229" s="1"/>
       <c r="C229" s="10">
         <v>700</v>
@@ -9548,7 +9595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="230" spans="2:24">
+    <row r="230" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B230" s="1"/>
       <c r="C230">
         <v>350</v>
@@ -9620,7 +9667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="231" spans="2:24">
+    <row r="231" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B231" s="1"/>
       <c r="C231">
         <v>350</v>
@@ -9692,7 +9739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="232" spans="2:24">
+    <row r="232" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B232" s="1"/>
       <c r="C232">
         <v>175</v>
@@ -9764,7 +9811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="2:24">
+    <row r="233" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B233" s="1"/>
       <c r="C233">
         <v>175</v>
@@ -9836,7 +9883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="234" spans="2:24">
+    <row r="234" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B234" s="1"/>
       <c r="C234">
         <v>84</v>
@@ -9908,7 +9955,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="235" spans="2:24">
+    <row r="235" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B235" s="1"/>
       <c r="C235">
         <v>84</v>
@@ -9980,7 +10027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="236" spans="2:24">
+    <row r="236" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B236" s="1"/>
       <c r="C236">
         <v>42</v>
@@ -10052,7 +10099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="237" spans="2:24">
+    <row r="237" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B237" s="1"/>
       <c r="C237">
         <v>112</v>
@@ -10124,7 +10171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="238" spans="2:24">
+    <row r="238" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B238" s="1"/>
       <c r="C238">
         <v>56</v>
@@ -10196,7 +10243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="239" spans="2:24">
+    <row r="239" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B239" s="1"/>
       <c r="C239">
         <v>56</v>
@@ -10268,7 +10315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="240" spans="2:24">
+    <row r="240" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B240" s="1"/>
       <c r="C240">
         <v>56</v>
@@ -10340,7 +10387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="241" spans="2:24">
+    <row r="241" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B241" s="1"/>
       <c r="C241" s="1">
         <v>28</v>
@@ -10412,7 +10459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="242" spans="2:24">
+    <row r="242" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B242" s="1"/>
       <c r="C242" s="1">
         <v>28</v>
@@ -10484,7 +10531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="243" spans="2:24">
+    <row r="243" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B243" s="1"/>
       <c r="C243" s="1">
         <v>28</v>
@@ -10556,7 +10603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="244" spans="2:24">
+    <row r="244" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B244" s="1"/>
       <c r="C244" s="1">
         <v>14</v>
@@ -10628,7 +10675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="245" spans="2:24">
+    <row r="245" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B245" s="1"/>
       <c r="C245" s="1">
         <v>28</v>
@@ -10700,7 +10747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="246" spans="2:24">
+    <row r="246" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B246" s="1"/>
       <c r="C246" s="1">
         <v>14</v>
@@ -10772,7 +10819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="247" spans="2:24">
+    <row r="247" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B247" s="1"/>
       <c r="C247" s="1">
         <v>14</v>
@@ -10844,7 +10891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="248" spans="2:24">
+    <row r="248" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B248" s="1"/>
       <c r="C248" s="1">
         <v>14</v>
@@ -10916,7 +10963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="249" spans="2:24">
+    <row r="249" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
       <c r="C249" s="1">
         <v>7</v>
@@ -10988,7 +11035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="250" spans="2:24">
+    <row r="250" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B250" s="1"/>
       <c r="C250" s="1">
         <v>7</v>
@@ -11060,7 +11107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="251" spans="2:24">
+    <row r="251" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
       <c r="C251" s="1">
         <v>14</v>
@@ -11132,7 +11179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="252" spans="2:24">
+    <row r="252" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
       <c r="C252" s="1">
         <v>7</v>
@@ -11204,7 +11251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="253" spans="2:24">
+    <row r="253" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
       <c r="C253">
         <v>112</v>
@@ -11276,7 +11323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="254" spans="2:24">
+    <row r="254" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
       <c r="C254">
         <v>56</v>
@@ -11348,7 +11395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="255" spans="2:24">
+    <row r="255" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
       <c r="C255">
         <v>56</v>
@@ -11420,7 +11467,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="2:24">
+    <row r="256" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
       <c r="C256">
         <v>56</v>
@@ -11492,7 +11539,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="257" spans="2:24">
+    <row r="257" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
       <c r="C257" s="1">
         <v>28</v>
@@ -11564,7 +11611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="258" spans="2:24">
+    <row r="258" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B258" s="1"/>
       <c r="C258" s="1">
         <v>28</v>
@@ -11636,7 +11683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="259" spans="2:24">
+    <row r="259" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B259" s="1"/>
       <c r="C259" s="1">
         <v>28</v>
@@ -11708,7 +11755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="260" spans="2:24">
+    <row r="260" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B260" s="1"/>
       <c r="C260" s="1">
         <v>14</v>
@@ -11780,7 +11827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="261" spans="2:24">
+    <row r="261" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B261" s="1"/>
       <c r="C261" s="1">
         <v>28</v>
@@ -11852,7 +11899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="2:24">
+    <row r="262" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B262" s="1"/>
       <c r="C262" s="1">
         <v>14</v>
@@ -11924,7 +11971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="2:24">
+    <row r="263" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B263" s="1"/>
       <c r="C263" s="1">
         <v>14</v>
@@ -11996,7 +12043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="264" spans="2:24">
+    <row r="264" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B264" s="1"/>
       <c r="C264" s="1">
         <v>14</v>
@@ -12068,7 +12115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="2:24">
+    <row r="265" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B265" s="1"/>
       <c r="C265" s="1">
         <v>7</v>
@@ -12140,7 +12187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="2:24">
+    <row r="266" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B266" s="1"/>
       <c r="C266" s="1">
         <v>7</v>
@@ -12212,7 +12259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="267" spans="2:24">
+    <row r="267" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B267" s="1"/>
       <c r="C267" s="1">
         <v>14</v>
@@ -12284,7 +12331,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="268" spans="2:24">
+    <row r="268" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B268" s="1"/>
       <c r="C268" s="1">
         <v>7</v>
@@ -12356,15 +12403,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="271" spans="2:24">
+    <row r="271" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L277" s="3"/>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -12390,7 +12437,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C280">
         <v>1760</v>
       </c>
@@ -12415,7 +12462,7 @@
         <v>1.2103437500000001</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C281">
         <v>1760</v>
       </c>
@@ -12440,7 +12487,7 @@
         <v>1.0616914016489989</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C282">
         <v>1760</v>
       </c>
@@ -12465,7 +12512,7 @@
         <v>1.7302392461390803</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283">
         <f>2560*2560/1760/1760</f>
         <v>2.115702479338843</v>
@@ -12494,7 +12541,7 @@
         <v>3.9549804547267646</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C284">
         <v>2048</v>
       </c>
@@ -12519,7 +12566,7 @@
         <v>0.99194987439042404</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C285">
         <v>2048</v>
       </c>
@@ -12544,7 +12591,7 @@
         <v>1.3433109465679409</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C286">
         <v>2048</v>
       </c>
@@ -12569,7 +12616,7 @@
         <v>1.743965913224214</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287">
         <f>2560*2560/2048/2048</f>
         <v>1.5625</v>
@@ -12598,7 +12645,7 @@
         <v>4.7455106398020499</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C288">
         <v>2560</v>
       </c>
@@ -12623,7 +12670,7 @@
         <v>1.0194214618973561</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C289">
         <v>2560</v>
       </c>
@@ -12648,7 +12695,7 @@
         <v>1.6464376766091051</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C290">
         <v>2560</v>
       </c>
@@ -12673,7 +12720,7 @@
         <v>2.3196700027647221</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C291">
         <v>2560</v>
       </c>
@@ -12698,7 +12745,7 @@
         <v>5.8714110566829953</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -12724,7 +12771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C296">
         <v>512</v>
       </c>
@@ -12749,7 +12796,7 @@
         <v>0.43329586776859502</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C297">
         <v>512</v>
       </c>
@@ -12774,7 +12821,7 @@
         <v>0.42270637440161257</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C298">
         <v>512</v>
       </c>
@@ -12799,7 +12846,7 @@
         <v>0.84054188376753503</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C299">
         <v>512</v>
       </c>
@@ -12824,7 +12871,7 @@
         <v>1.3451365804770496</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C300">
         <v>1024</v>
       </c>
@@ -12849,7 +12896,7 @@
         <v>1.1752865849387042</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C301">
         <v>1024</v>
       </c>
@@ -12874,7 +12921,7 @@
         <v>1.2972910110187512</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C302">
         <v>1024</v>
       </c>
@@ -12899,7 +12946,7 @@
         <v>1.6490690256788305</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C303">
         <v>1024</v>
       </c>
@@ -12924,7 +12971,7 @@
         <v>2.2468858793002426</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C304">
         <v>2048</v>
       </c>
@@ -12949,7 +12996,7 @@
         <v>1.3638626968803984</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C305">
         <v>2048</v>
       </c>
@@ -12974,7 +13021,7 @@
         <v>2.2771925347811335</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C306">
         <v>2048</v>
       </c>
@@ -12999,7 +13046,7 @@
         <v>2.7928570566508868</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C307">
         <v>2048</v>
       </c>
@@ -13024,7 +13071,7 @@
         <v>5.472690234454638</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C308">
         <v>4096</v>
       </c>
@@ -13049,7 +13096,7 @@
         <v>0.93779854667411966</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C309">
         <v>4096</v>
       </c>
@@ -13074,7 +13121,7 @@
         <v>2.957559080016527</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C310">
         <v>4096</v>
       </c>
@@ -13099,7 +13146,7 @@
         <v>4.6570026847093011</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C311">
         <v>4096</v>
       </c>
@@ -13124,7 +13171,7 @@
         <v>7.2643381638590077</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C312">
         <v>1536</v>
       </c>
@@ -13149,7 +13196,7 @@
         <v>1.0386225340486999</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C313">
         <v>1536</v>
       </c>
@@ -13174,7 +13221,7 @@
         <v>1.6128492202520828</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C314">
         <v>1536</v>
       </c>
@@ -13199,7 +13246,7 @@
         <v>0.96544081841432217</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C315">
         <v>256</v>
       </c>
@@ -13224,7 +13271,7 @@
         <v>0.34174122759369907</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C316">
         <v>256</v>
       </c>
@@ -13249,7 +13296,7 @@
         <v>0.16464392541707557</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C317">
         <v>256</v>
       </c>
@@ -13274,15 +13321,15 @@
         <v>0.55364259157408424</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>62</v>
       </c>
@@ -13308,7 +13355,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="321" spans="3:10">
+    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C321">
         <v>2816</v>
       </c>
@@ -13333,7 +13380,7 @@
         <v>1.7952005810548755</v>
       </c>
     </row>
-    <row r="322" spans="3:10">
+    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C322">
         <v>2816</v>
       </c>
@@ -13358,7 +13405,7 @@
         <v>1.7892078124143118</v>
       </c>
     </row>
-    <row r="323" spans="3:10">
+    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C323">
         <v>2816</v>
       </c>
@@ -13383,7 +13430,7 @@
         <v>1.7848869325997248</v>
       </c>
     </row>
-    <row r="324" spans="3:10">
+    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C324">
         <v>2816</v>
       </c>
@@ -13408,7 +13455,7 @@
         <v>1.7784148676652469</v>
       </c>
     </row>
-    <row r="325" spans="3:10">
+    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C325">
         <v>2048</v>
       </c>
@@ -13433,7 +13480,7 @@
         <v>1.3027980379722264</v>
       </c>
     </row>
-    <row r="326" spans="3:10">
+    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C326">
         <v>2048</v>
       </c>
@@ -13458,7 +13505,7 @@
         <v>1.2993506815365552</v>
       </c>
     </row>
-    <row r="327" spans="3:10">
+    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C327">
         <v>2048</v>
       </c>
@@ -13483,7 +13530,7 @@
         <v>1.2955823794896435</v>
       </c>
     </row>
-    <row r="328" spans="3:10">
+    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C328">
         <v>2048</v>
       </c>
@@ -13508,7 +13555,7 @@
         <v>1.2940372490075103</v>
       </c>
     </row>
-    <row r="329" spans="3:10">
+    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C329">
         <v>1536</v>
       </c>
@@ -13533,7 +13580,7 @@
         <v>0.97860569295380306</v>
       </c>
     </row>
-    <row r="330" spans="3:10">
+    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C330">
         <v>1536</v>
       </c>
@@ -13558,7 +13605,7 @@
         <v>0.97479541952754911</v>
       </c>
     </row>
-    <row r="331" spans="3:10">
+    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C331">
         <v>1536</v>
       </c>
@@ -13583,7 +13630,7 @@
         <v>0.96816455501410625</v>
       </c>
     </row>
-    <row r="332" spans="3:10">
+    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C332">
         <v>1536</v>
       </c>
@@ -13608,7 +13655,7 @@
         <v>0.95534086236297189</v>
       </c>
     </row>
-    <row r="333" spans="3:10">
+    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C333">
         <v>2560</v>
       </c>
@@ -13633,7 +13680,7 @@
         <v>1.6342731765013518</v>
       </c>
     </row>
-    <row r="334" spans="3:10">
+    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C334">
         <v>2560</v>
       </c>
@@ -13658,7 +13705,7 @@
         <v>1.6287968850319989</v>
       </c>
     </row>
-    <row r="335" spans="3:10">
+    <row r="335" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C335">
         <v>2560</v>
       </c>
@@ -13683,7 +13730,7 @@
         <v>1.6246804759806082</v>
       </c>
     </row>
-    <row r="336" spans="3:10">
+    <row r="336" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C336">
         <v>2560</v>
       </c>
@@ -13708,7 +13755,7 @@
         <v>1.6200579336555545</v>
       </c>
     </row>
-    <row r="337" spans="3:10">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C337">
         <v>512</v>
       </c>
@@ -13733,7 +13780,7 @@
         <v>0.28597527272727269</v>
       </c>
     </row>
-    <row r="338" spans="3:10">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C338">
         <v>1024</v>
       </c>
@@ -13758,7 +13805,7 @@
         <v>0.64330912251401695</v>
       </c>
     </row>
-    <row r="339" spans="3:10">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C339">
         <v>1024</v>
       </c>
@@ -13783,14 +13830,800 @@
         <v>3.4452493668286674</v>
       </c>
     </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I340" s="3"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G341" s="2"/>
+      <c r="H341" s="2"/>
+      <c r="I341" s="2"/>
+      <c r="K341" s="2"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>69</v>
+      </c>
+      <c r="C342" t="s">
+        <v>70</v>
+      </c>
+      <c r="D342" t="s">
+        <v>71</v>
+      </c>
+      <c r="G342" t="s">
+        <v>72</v>
+      </c>
+      <c r="I342" t="s">
+        <v>73</v>
+      </c>
+      <c r="J342" t="s">
+        <v>74</v>
+      </c>
+      <c r="K342" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C344">
+        <v>100000</v>
+      </c>
+      <c r="D344">
+        <v>2</v>
+      </c>
+      <c r="G344" s="2">
+        <v>6.1872369999999996E-2</v>
+      </c>
+      <c r="H344" s="2"/>
+      <c r="I344" s="2">
+        <v>12.929842512901963</v>
+      </c>
+      <c r="J344" t="s">
+        <v>76</v>
+      </c>
+      <c r="K344" s="2">
+        <v>2.7217404818666263E-3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C345">
+        <v>100000</v>
+      </c>
+      <c r="D345">
+        <v>4</v>
+      </c>
+      <c r="G345" s="2">
+        <v>9.1706224999999988E-2</v>
+      </c>
+      <c r="H345" s="2"/>
+      <c r="I345" s="2">
+        <v>17.447016273977042</v>
+      </c>
+      <c r="J345" t="s">
+        <v>76</v>
+      </c>
+      <c r="K345" s="2">
+        <v>2.8143182937997221E-3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C346">
+        <v>100000</v>
+      </c>
+      <c r="D346">
+        <v>8</v>
+      </c>
+      <c r="G346" s="2">
+        <v>0.15023339999999999</v>
+      </c>
+      <c r="H346" s="2"/>
+      <c r="I346" s="2">
+        <v>21.30019023732406</v>
+      </c>
+      <c r="J346" t="s">
+        <v>76</v>
+      </c>
+      <c r="K346" s="2">
+        <v>3.0198935219988374E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C347">
+        <v>100000</v>
+      </c>
+      <c r="D347">
+        <v>16</v>
+      </c>
+      <c r="E347">
+        <v>2</v>
+      </c>
+      <c r="G347" s="2">
+        <v>0.49410334999999994</v>
+      </c>
+      <c r="I347" s="2">
+        <v>12.952755734200144</v>
+      </c>
+      <c r="J347" t="s">
+        <v>76</v>
+      </c>
+      <c r="K347" s="2">
+        <v>1.4072668142911852E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C348">
+        <v>100000</v>
+      </c>
+      <c r="D348">
+        <v>32</v>
+      </c>
+      <c r="E348">
+        <v>4</v>
+      </c>
+      <c r="G348" s="2">
+        <v>0.74659179999999981</v>
+      </c>
+      <c r="I348" s="2">
+        <v>17.14457619277362</v>
+      </c>
+      <c r="J348" t="s">
+        <v>77</v>
+      </c>
+      <c r="K348" s="2">
+        <v>1.2046923143319737E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C349">
+        <v>3097600</v>
+      </c>
+      <c r="D349">
+        <v>2</v>
+      </c>
+      <c r="G349" s="2">
+        <v>1.0376500000000002</v>
+      </c>
+      <c r="H349" s="2"/>
+      <c r="I349" s="2">
+        <v>23.881655664241311</v>
+      </c>
+      <c r="J349" t="s">
+        <v>78</v>
+      </c>
+      <c r="K349" s="2">
+        <v>1.4244112357114759E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C350">
+        <v>3097600</v>
+      </c>
+      <c r="D350">
+        <v>4</v>
+      </c>
+      <c r="G350" s="2">
+        <v>1.6703500000000002</v>
+      </c>
+      <c r="H350" s="2"/>
+      <c r="I350" s="2">
+        <v>29.671386236417515</v>
+      </c>
+      <c r="J350" t="s">
+        <v>78</v>
+      </c>
+      <c r="K350" s="2">
+        <v>2.5396850198400474E-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C351">
+        <v>3097600</v>
+      </c>
+      <c r="D351">
+        <v>8</v>
+      </c>
+      <c r="G351" s="2">
+        <v>2.4847885000000001</v>
+      </c>
+      <c r="H351" s="2"/>
+      <c r="I351" s="2">
+        <v>39.892006905215467</v>
+      </c>
+      <c r="J351" t="s">
+        <v>76</v>
+      </c>
+      <c r="K351" s="2">
+        <v>3.6299779251177419E-3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C352">
+        <v>3097600</v>
+      </c>
+      <c r="D352">
+        <v>16</v>
+      </c>
+      <c r="E352">
+        <v>2</v>
+      </c>
+      <c r="G352" s="2">
+        <v>4.1802454999999998</v>
+      </c>
+      <c r="I352" s="2">
+        <v>47.42458307771637</v>
+      </c>
+      <c r="J352" t="s">
+        <v>76</v>
+      </c>
+      <c r="K352" s="2">
+        <v>8.2743340547744307E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C353">
+        <v>3097600</v>
+      </c>
+      <c r="D353">
+        <v>32</v>
+      </c>
+      <c r="E353">
+        <v>4</v>
+      </c>
+      <c r="G353" s="2">
+        <v>4.6409674999999995</v>
+      </c>
+      <c r="I353" s="2">
+        <v>85.433220551533722</v>
+      </c>
+      <c r="J353" t="s">
+        <v>76</v>
+      </c>
+      <c r="K353" s="2">
+        <v>0.13990011861380916</v>
+      </c>
+    </row>
+    <row r="354" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C354">
+        <v>4194304</v>
+      </c>
+      <c r="D354">
+        <v>2</v>
+      </c>
+      <c r="G354" s="2">
+        <v>1.3961000000000001</v>
+      </c>
+      <c r="H354" s="2"/>
+      <c r="I354" s="2">
+        <v>24.034404412291384</v>
+      </c>
+      <c r="J354" t="s">
+        <v>78</v>
+      </c>
+      <c r="K354" s="2">
+        <v>1.5525869752736773E-3</v>
+      </c>
+    </row>
+    <row r="355" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C355">
+        <v>4194304</v>
+      </c>
+      <c r="D355">
+        <v>4</v>
+      </c>
+      <c r="G355" s="2">
+        <v>2.2573500000000002</v>
+      </c>
+      <c r="H355" s="2"/>
+      <c r="I355" s="2">
+        <v>29.729046891266307</v>
+      </c>
+      <c r="J355" t="s">
+        <v>78</v>
+      </c>
+      <c r="K355" s="2">
+        <v>3.2811262507992625E-3</v>
+      </c>
+    </row>
+    <row r="356" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C356">
+        <v>4194304</v>
+      </c>
+      <c r="D356">
+        <v>8</v>
+      </c>
+      <c r="G356" s="2">
+        <v>3.3682315000000003</v>
+      </c>
+      <c r="H356" s="2"/>
+      <c r="I356" s="2">
+        <v>39.848130391275063</v>
+      </c>
+      <c r="J356" t="s">
+        <v>76</v>
+      </c>
+      <c r="K356" s="2">
+        <v>4.2892095640351307E-3</v>
+      </c>
+    </row>
+    <row r="357" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C357">
+        <v>4194304</v>
+      </c>
+      <c r="D357">
+        <v>16</v>
+      </c>
+      <c r="E357">
+        <v>2</v>
+      </c>
+      <c r="G357" s="2">
+        <v>5.630695499999999</v>
+      </c>
+      <c r="I357" s="2">
+        <v>47.673587747730288</v>
+      </c>
+      <c r="J357" t="s">
+        <v>76</v>
+      </c>
+      <c r="K357" s="2">
+        <v>2.016955508603064E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C358">
+        <v>4194304</v>
+      </c>
+      <c r="D358">
+        <v>32</v>
+      </c>
+      <c r="E358">
+        <v>4</v>
+      </c>
+      <c r="G358" s="2">
+        <v>5.8521274999999999</v>
+      </c>
+      <c r="I358" s="2">
+        <v>91.739442108874087</v>
+      </c>
+      <c r="J358" t="s">
+        <v>76</v>
+      </c>
+      <c r="K358" s="2">
+        <v>1.7192171987028774E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C359">
+        <v>6553600</v>
+      </c>
+      <c r="D359">
+        <v>2</v>
+      </c>
+      <c r="G359" s="2">
+        <v>2.1714500000000001</v>
+      </c>
+      <c r="H359" s="2"/>
+      <c r="I359" s="2">
+        <v>24.144603836146352</v>
+      </c>
+      <c r="J359" t="s">
+        <v>78</v>
+      </c>
+      <c r="K359" s="2">
+        <v>2.3946211655115719E-3</v>
+      </c>
+    </row>
+    <row r="360" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C360">
+        <v>6553600</v>
+      </c>
+      <c r="D360">
+        <v>4</v>
+      </c>
+      <c r="G360" s="2">
+        <v>3.5013499999999995</v>
+      </c>
+      <c r="H360" s="2"/>
+      <c r="I360" s="2">
+        <v>29.947763005697809</v>
+      </c>
+      <c r="J360" t="s">
+        <v>78</v>
+      </c>
+      <c r="K360" s="2">
+        <v>3.9639825800243155E-3</v>
+      </c>
+    </row>
+    <row r="361" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C361">
+        <v>6553600</v>
+      </c>
+      <c r="D361">
+        <v>8</v>
+      </c>
+      <c r="G361" s="2">
+        <v>5.2477500000000017</v>
+      </c>
+      <c r="H361" s="2"/>
+      <c r="I361" s="2">
+        <v>39.96287932923633</v>
+      </c>
+      <c r="J361" t="s">
+        <v>78</v>
+      </c>
+      <c r="K361" s="2">
+        <v>5.9989034085624502E-3</v>
+      </c>
+    </row>
+    <row r="362" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C362">
+        <v>6553600</v>
+      </c>
+      <c r="D362">
+        <v>16</v>
+      </c>
+      <c r="E362">
+        <v>2</v>
+      </c>
+      <c r="G362" s="2">
+        <v>8.8667420000000003</v>
+      </c>
+      <c r="I362" s="2">
+        <v>47.303778546843922</v>
+      </c>
+      <c r="J362" t="s">
+        <v>76</v>
+      </c>
+      <c r="K362" s="2">
+        <v>2.8287996077934911E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C363">
+        <v>6553600</v>
+      </c>
+      <c r="D363">
+        <v>32</v>
+      </c>
+      <c r="E363">
+        <v>4</v>
+      </c>
+      <c r="G363" s="2">
+        <v>8.9931055000000004</v>
+      </c>
+      <c r="I363" s="2">
+        <v>93.278211847953969</v>
+      </c>
+      <c r="J363" t="s">
+        <v>76</v>
+      </c>
+      <c r="K363" s="2">
+        <v>2.8402430673410639E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C364">
+        <v>16777216</v>
+      </c>
+      <c r="D364">
+        <v>2</v>
+      </c>
+      <c r="G364" s="2">
+        <v>5.5086499999999994</v>
+      </c>
+      <c r="H364" s="2"/>
+      <c r="I364" s="2">
+        <v>24.364903923828887</v>
+      </c>
+      <c r="J364" t="s">
+        <v>78</v>
+      </c>
+      <c r="K364" s="2">
+        <v>5.5086057076273323E-3</v>
+      </c>
+    </row>
+    <row r="365" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C365">
+        <v>16777216</v>
+      </c>
+      <c r="D365">
+        <v>4</v>
+      </c>
+      <c r="G365" s="2">
+        <v>8.975200000000001</v>
+      </c>
+      <c r="H365" s="2"/>
+      <c r="I365" s="2">
+        <v>29.908576521971654</v>
+      </c>
+      <c r="J365" t="s">
+        <v>78</v>
+      </c>
+      <c r="K365" s="2">
+        <v>6.9175596548888335E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C366">
+        <v>16777216</v>
+      </c>
+      <c r="D366">
+        <v>8</v>
+      </c>
+      <c r="G366" s="2">
+        <v>13.423849999999998</v>
+      </c>
+      <c r="H366" s="2"/>
+      <c r="I366" s="2">
+        <v>39.993810419514524</v>
+      </c>
+      <c r="J366" t="s">
+        <v>78</v>
+      </c>
+      <c r="K366" s="2">
+        <v>1.620355711434673E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C367">
+        <v>16777216</v>
+      </c>
+      <c r="D367">
+        <v>16</v>
+      </c>
+      <c r="E367">
+        <v>2</v>
+      </c>
+      <c r="G367" s="2">
+        <v>56.440174999999996</v>
+      </c>
+      <c r="H367" s="2"/>
+      <c r="I367" s="2">
+        <v>19.024424073809129</v>
+      </c>
+      <c r="J367" t="s">
+        <v>79</v>
+      </c>
+      <c r="K367" s="2">
+        <v>0.14542319323814551</v>
+      </c>
+    </row>
+    <row r="368" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C368">
+        <v>16777216</v>
+      </c>
+      <c r="D368">
+        <v>32</v>
+      </c>
+      <c r="E368">
+        <v>4</v>
+      </c>
+      <c r="G368" s="2">
+        <v>61.81405500000001</v>
+      </c>
+      <c r="H368" s="2"/>
+      <c r="I368" s="2">
+        <v>34.741025289475012</v>
+      </c>
+      <c r="J368" t="s">
+        <v>79</v>
+      </c>
+      <c r="K368" s="2">
+        <v>0.11239437837131218</v>
+      </c>
+    </row>
+    <row r="369" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C369">
+        <v>38360000</v>
+      </c>
+      <c r="D369">
+        <v>2</v>
+      </c>
+      <c r="G369" s="2">
+        <v>12.541549999999997</v>
+      </c>
+      <c r="I369" s="2">
+        <v>24.469064828510039</v>
+      </c>
+      <c r="J369" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K369" s="2">
+        <v>1.1203735279384621E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C370">
+        <v>38360000</v>
+      </c>
+      <c r="D370">
+        <v>4</v>
+      </c>
+      <c r="G370" s="2">
+        <v>20.453049999999998</v>
+      </c>
+      <c r="I370" s="2">
+        <v>30.008238380094905</v>
+      </c>
+      <c r="J370" t="s">
+        <v>78</v>
+      </c>
+      <c r="K370" s="2">
+        <v>1.4427586879236077E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C371">
+        <v>38360000</v>
+      </c>
+      <c r="D371">
+        <v>8</v>
+      </c>
+      <c r="G371" s="2">
+        <v>30.548499999999997</v>
+      </c>
+      <c r="I371" s="2">
+        <v>40.182660359755808</v>
+      </c>
+      <c r="J371" t="s">
+        <v>78</v>
+      </c>
+      <c r="K371" s="2">
+        <v>2.5303421861375297E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C372">
+        <v>38360000</v>
+      </c>
+      <c r="D372">
+        <v>16</v>
+      </c>
+      <c r="E372">
+        <v>2</v>
+      </c>
+      <c r="G372" s="2">
+        <v>51.944070000000011</v>
+      </c>
+      <c r="I372" s="2">
+        <v>47.263142838056389</v>
+      </c>
+      <c r="J372" t="s">
+        <v>76</v>
+      </c>
+      <c r="K372" s="2">
+        <v>0.12958876291439875</v>
+      </c>
+    </row>
+    <row r="373" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C373">
+        <v>38360000</v>
+      </c>
+      <c r="D373">
+        <v>32</v>
+      </c>
+      <c r="E373">
+        <v>4</v>
+      </c>
+      <c r="G373" s="2">
+        <v>57.407889999999988</v>
+      </c>
+      <c r="I373" s="2">
+        <v>85.52970680510991</v>
+      </c>
+      <c r="J373" t="s">
+        <v>76</v>
+      </c>
+      <c r="K373" s="2">
+        <v>0.1155943219330338</v>
+      </c>
+    </row>
+    <row r="374" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C374">
+        <v>64500000</v>
+      </c>
+      <c r="D374">
+        <v>2</v>
+      </c>
+      <c r="G374" s="2">
+        <v>21.0748</v>
+      </c>
+      <c r="I374" s="2">
+        <v>24.484218118321408</v>
+      </c>
+      <c r="J374" t="s">
+        <v>78</v>
+      </c>
+      <c r="K374" s="2">
+        <v>1.6054512400601084E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C375">
+        <v>64500000</v>
+      </c>
+      <c r="D375">
+        <v>4</v>
+      </c>
+      <c r="G375" s="2">
+        <v>34.42895</v>
+      </c>
+      <c r="I375" s="2">
+        <v>29.97477413630099</v>
+      </c>
+      <c r="J375" t="s">
+        <v>78</v>
+      </c>
+      <c r="K375" s="2">
+        <v>2.9023538541564975E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C376">
+        <v>64500000</v>
+      </c>
+      <c r="D376">
+        <v>8</v>
+      </c>
+      <c r="G376" s="2">
+        <v>51.290750000000017</v>
+      </c>
+      <c r="I376" s="2">
+        <v>40.241174090844822</v>
+      </c>
+      <c r="J376" t="s">
+        <v>78</v>
+      </c>
+      <c r="K376" s="2">
+        <v>3.3668468772335348E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C377">
+        <v>64500000</v>
+      </c>
+      <c r="D377">
+        <v>16</v>
+      </c>
+      <c r="E377">
+        <v>2</v>
+      </c>
+      <c r="G377" s="2">
+        <v>87.46893</v>
+      </c>
+      <c r="I377" s="2">
+        <v>47.193900737096016</v>
+      </c>
+      <c r="J377" t="s">
+        <v>76</v>
+      </c>
+      <c r="K377" s="2">
+        <v>0.22045191169146514</v>
+      </c>
+    </row>
+    <row r="378" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C378">
+        <v>64500000</v>
+      </c>
+      <c r="D378">
+        <v>32</v>
+      </c>
+      <c r="E378">
+        <v>4</v>
+      </c>
+      <c r="G378" s="2">
+        <v>97.33543499999999</v>
+      </c>
+      <c r="I378" s="2">
+        <v>84.820086333409833</v>
+      </c>
+      <c r="J378" t="s">
+        <v>76</v>
+      </c>
+      <c r="K378" s="2">
+        <v>0.25675923859768651</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13802,12 +14635,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -13815,7 +14648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>42</v>
       </c>
@@ -13823,7 +14656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -13831,7 +14664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -13839,7 +14672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -13847,7 +14680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
@@ -13855,7 +14688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -13863,7 +14696,7 @@
         <v>367.48</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -13871,7 +14704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
@@ -13879,7 +14712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -13889,10 +14722,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/results/train/DeepBench_NV_TitanX_Pascal.xlsx
+++ b/results/train/DeepBench_NV_TitanX_Pascal.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patwarymostofa/Documents/mostofa/deepbench-internal/DeepBench-internal/results/train/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharan/Desktop/svail_mnt/DeepBench-ext/results/train/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B0D9AA57-EC6E-1949-8D75-947F19181543}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33340" windowHeight="19220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33340" windowHeight="19220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="3" r:id="rId1"/>
     <sheet name="Specs" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="81">
   <si>
     <t>Dense Matrix Multiplication</t>
   </si>
@@ -82,15 +83,6 @@
   </si>
   <si>
     <t>Time Forward (msec)</t>
-  </si>
-  <si>
-    <t>Time Backward (msec)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Forward (msec) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Backward (msec) </t>
   </si>
   <si>
     <t>Forward (msec)</t>
@@ -148,9 +140,6 @@
   </si>
   <si>
     <t>TERAFLOPS FWD</t>
-  </si>
-  <si>
-    <t>TERAFLOPS BWD</t>
   </si>
   <si>
     <t>CPU Model</t>
@@ -269,11 +258,26 @@
   <si>
     <t>Baidu RingAllReduce</t>
   </si>
+  <si>
+    <t>Time Backward wrt Weights (msec)</t>
+  </si>
+  <si>
+    <t>Time Backward wrt Inputs (msec)</t>
+  </si>
+  <si>
+    <t>TERAFLOPS BWD Inputs</t>
+  </si>
+  <si>
+    <t>TERAFLOPS BWD Weights</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -983,6 +987,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1308,11 +1315,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="H380" sqref="H380"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,10 +1328,10 @@
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -1335,10 +1342,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1361,10 +1368,10 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -5567,52 +5574,52 @@
         <v>10</v>
       </c>
       <c r="H174" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I174" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J174" t="s">
+        <v>24</v>
+      </c>
+      <c r="K174" t="s">
+        <v>23</v>
+      </c>
+      <c r="L174" t="s">
+        <v>26</v>
+      </c>
+      <c r="M174" t="s">
+        <v>25</v>
+      </c>
+      <c r="N174" t="s">
+        <v>18</v>
+      </c>
+      <c r="O174" t="s">
+        <v>19</v>
+      </c>
+      <c r="P174" t="s">
+        <v>20</v>
+      </c>
+      <c r="R174" t="s">
         <v>27</v>
       </c>
-      <c r="K174" t="s">
-        <v>26</v>
-      </c>
-      <c r="L174" t="s">
+      <c r="S174" t="s">
+        <v>28</v>
+      </c>
+      <c r="T174" t="s">
+        <v>55</v>
+      </c>
+      <c r="U174" t="s">
+        <v>33</v>
+      </c>
+      <c r="V174" t="s">
+        <v>34</v>
+      </c>
+      <c r="W174" t="s">
+        <v>35</v>
+      </c>
+      <c r="X174" t="s">
         <v>29</v>
-      </c>
-      <c r="M174" t="s">
-        <v>28</v>
-      </c>
-      <c r="N174" t="s">
-        <v>21</v>
-      </c>
-      <c r="O174" t="s">
-        <v>22</v>
-      </c>
-      <c r="P174" t="s">
-        <v>23</v>
-      </c>
-      <c r="R174" t="s">
-        <v>30</v>
-      </c>
-      <c r="S174" t="s">
-        <v>31</v>
-      </c>
-      <c r="T174" t="s">
-        <v>59</v>
-      </c>
-      <c r="U174" t="s">
-        <v>36</v>
-      </c>
-      <c r="V174" t="s">
-        <v>37</v>
-      </c>
-      <c r="W174" t="s">
-        <v>38</v>
-      </c>
-      <c r="X174" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.2">
@@ -5653,7 +5660,7 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P175" s="2">
         <v>0.28000000000000003</v>
@@ -5675,14 +5682,14 @@
         <v>5.2245333333333326</v>
       </c>
       <c r="V175" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W175" s="2">
         <f t="shared" ref="W175:W206" si="10">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
         <v>2.4629942857142857</v>
       </c>
       <c r="X175" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA175" s="2"/>
       <c r="AE175" s="2"/>
@@ -5725,7 +5732,7 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P176" s="2">
         <v>0.51500000000000001</v>
@@ -5747,14 +5754,14 @@
         <v>5.9708952380952383</v>
       </c>
       <c r="V176" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W176" s="2">
         <f t="shared" si="10"/>
         <v>2.6782073786407765</v>
       </c>
       <c r="X176" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA176" s="2"/>
       <c r="AE176" s="2"/>
@@ -5797,7 +5804,7 @@
         <v>0.41</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P177" s="2">
         <v>0.98699999999999999</v>
@@ -5819,14 +5826,14 @@
         <v>6.7281795121951218</v>
       </c>
       <c r="V177" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W177" s="2">
         <f t="shared" si="10"/>
         <v>2.7948871327254308</v>
       </c>
       <c r="X177" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA177" s="2"/>
       <c r="AE177" s="2"/>
@@ -5869,7 +5876,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P178" s="2">
         <v>2.1349999999999998</v>
@@ -5891,14 +5898,14 @@
         <v>6.6874026666666673</v>
       </c>
       <c r="V178" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W178" s="2">
         <f t="shared" si="10"/>
         <v>2.5841251522248245</v>
       </c>
       <c r="X178" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA178" s="2"/>
       <c r="AE178" s="2"/>
@@ -5971,7 +5978,7 @@
         <v>5.7289507760532148</v>
       </c>
       <c r="X179" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA179" s="2"/>
       <c r="AE179" s="2"/>
@@ -6044,7 +6051,7 @@
         <v>5.7802165548098428</v>
       </c>
       <c r="X180" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA180" s="2"/>
       <c r="AE180" s="2"/>
@@ -6117,7 +6124,7 @@
         <v>5.9878488991888759</v>
       </c>
       <c r="X181" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA181" s="2"/>
       <c r="AE181" s="2"/>
@@ -6190,7 +6197,7 @@
         <v>6.0687182618907807</v>
       </c>
       <c r="X182" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA182" s="2"/>
       <c r="AE182" s="2"/>
@@ -6233,7 +6240,7 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P183" s="2">
         <v>0.40600000000000003</v>
@@ -6255,14 +6262,14 @@
         <v>0.89217075630252107</v>
       </c>
       <c r="V183" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W183" s="2">
         <f t="shared" si="10"/>
         <v>0.26149832512315269</v>
       </c>
       <c r="X183" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA183" s="2"/>
       <c r="AE183" s="2"/>
@@ -6335,7 +6342,7 @@
         <v>1.7158516363636365</v>
       </c>
       <c r="X184" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA184" s="2"/>
       <c r="AE184" s="2"/>
@@ -6408,7 +6415,7 @@
         <v>2.5582727710843374</v>
       </c>
       <c r="X185" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA185" s="2"/>
       <c r="AE185" s="2"/>
@@ -6481,7 +6488,7 @@
         <v>4.6412380327868847</v>
       </c>
       <c r="X186" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA186" s="2"/>
       <c r="AE186" s="2"/>
@@ -6524,7 +6531,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P187" s="2">
         <v>0.10199999999999999</v>
@@ -6546,14 +6553,14 @@
         <v>2.1789612972972972</v>
       </c>
       <c r="V187" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W187" s="2">
         <f t="shared" si="10"/>
         <v>0.79040752941176473</v>
       </c>
       <c r="X187" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA187" s="2"/>
       <c r="AE187" s="2"/>
@@ -6626,7 +6633,7 @@
         <v>5.5303112025723467</v>
       </c>
       <c r="X188" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA188" s="2"/>
       <c r="AE188" s="2"/>
@@ -6699,7 +6706,7 @@
         <v>7.3816600171673805</v>
       </c>
       <c r="X189" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA189" s="2"/>
       <c r="AE189" s="2"/>
@@ -6772,7 +6779,7 @@
         <v>6.0447322352941173</v>
       </c>
       <c r="X190" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA190" s="2"/>
       <c r="AE190" s="2"/>
@@ -6845,7 +6852,7 @@
         <v>3.2680001130742049</v>
       </c>
       <c r="X191" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA191" s="2"/>
       <c r="AE191" s="2"/>
@@ -6888,7 +6895,7 @@
         <v>0.39800000000000002</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P192" s="2">
         <v>1.611</v>
@@ -6910,14 +6917,14 @@
         <v>3.4855930854271353</v>
       </c>
       <c r="V192" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W192" s="2">
         <f t="shared" si="10"/>
         <v>0.86112107262569837</v>
       </c>
       <c r="X192" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA192" s="2"/>
       <c r="AE192" s="2"/>
@@ -6990,7 +6997,7 @@
         <v>8.0116429409853822</v>
       </c>
       <c r="X193" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA193" s="2"/>
       <c r="AE193" s="2"/>
@@ -7064,7 +7071,7 @@
         <v>9.0009151532846712</v>
       </c>
       <c r="X194" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA194" s="2"/>
       <c r="AE194" s="2"/>
@@ -7138,7 +7145,7 @@
         <v>7.8626485185972372</v>
       </c>
       <c r="X195" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA195" s="2"/>
       <c r="AE195" s="2"/>
@@ -7211,7 +7218,7 @@
         <v>6.0054807272727277</v>
       </c>
       <c r="X196" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA196" s="2"/>
       <c r="AE196" s="2"/>
@@ -7284,7 +7291,7 @@
         <v>3.3448247088607594</v>
       </c>
       <c r="X197" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA197" s="2"/>
       <c r="AE197" s="2"/>
@@ -7327,7 +7334,7 @@
         <v>0.77400000000000002</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P198" s="2">
         <v>3.198</v>
@@ -7349,14 +7356,14 @@
         <v>3.5846667906976744</v>
       </c>
       <c r="V198" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W198" s="2">
         <f t="shared" si="10"/>
         <v>0.8675835196998124</v>
       </c>
       <c r="X198" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA198" s="2"/>
       <c r="AE198" s="2"/>
@@ -7429,7 +7436,7 @@
         <v>8.5708106064291929</v>
       </c>
       <c r="X199" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA199" s="2"/>
       <c r="AE199" s="2"/>
@@ -7503,7 +7510,7 @@
         <v>9.398224523340744</v>
       </c>
       <c r="X200" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA200" s="2"/>
       <c r="AE200" s="2"/>
@@ -7577,7 +7584,7 @@
         <v>8.3248970531645572</v>
       </c>
       <c r="X201" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA201" s="2"/>
       <c r="AE201" s="2"/>
@@ -7650,7 +7657,7 @@
         <v>7.8584729219330862</v>
       </c>
       <c r="X202" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA202" s="2"/>
       <c r="AE202" s="2"/>
@@ -7723,7 +7730,7 @@
         <v>2.1470552106790479</v>
       </c>
       <c r="X203" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AA203" s="2"/>
       <c r="AE203" s="2"/>
@@ -7766,7 +7773,7 @@
         <v>0.498</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P204" s="2">
         <v>1.1020000000000001</v>
@@ -7788,14 +7795,14 @@
         <v>7.5832258313253016</v>
       </c>
       <c r="V204" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W204" s="2">
         <f t="shared" si="10"/>
         <v>3.4269024174228671</v>
       </c>
       <c r="X204" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA204" s="2"/>
       <c r="AE204" s="2"/>
@@ -7868,7 +7875,7 @@
         <v>6.4874020202020199</v>
       </c>
       <c r="X205" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA205" s="2"/>
       <c r="AE205" s="2"/>
@@ -7941,7 +7948,7 @@
         <v>2.0971519999999999</v>
       </c>
       <c r="X206" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA206" s="2"/>
       <c r="AE206" s="2"/>
@@ -8014,7 +8021,7 @@
         <v>3.0754324022346369</v>
       </c>
       <c r="X207" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA207" s="2"/>
       <c r="AE207" s="2"/>
@@ -8087,7 +8094,7 @@
         <v>3.7595285853658535</v>
       </c>
       <c r="X208" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA208" s="2"/>
       <c r="AE208" s="2"/>
@@ -8160,7 +8167,7 @@
         <v>3.3734490505050503</v>
       </c>
       <c r="X209" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA209" s="2"/>
       <c r="AE209" s="2"/>
@@ -8233,7 +8240,7 @@
         <v>5.3247999999999989</v>
       </c>
       <c r="X210" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA210" s="2"/>
       <c r="AE210" s="2"/>
@@ -8306,7 +8313,7 @@
         <v>5.7089137777777772</v>
       </c>
       <c r="X211" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="2:31" x14ac:dyDescent="0.2">
@@ -8377,7 +8384,7 @@
         <v>2.5690111999999998</v>
       </c>
       <c r="X212" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="2:31" x14ac:dyDescent="0.2">
@@ -8448,7 +8455,7 @@
         <v>10.754000372093026</v>
       </c>
       <c r="X213" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="214" spans="2:31" x14ac:dyDescent="0.2">
@@ -8520,7 +8527,7 @@
         <v>2.6015303291139245</v>
       </c>
       <c r="X214" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="2:31" x14ac:dyDescent="0.2">
@@ -8591,7 +8598,7 @@
         <v>2.6691025454545456</v>
       </c>
       <c r="X215" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="2:31" x14ac:dyDescent="0.2">
@@ -8662,7 +8669,7 @@
         <v>8.331928216216216</v>
       </c>
       <c r="X216" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="217" spans="2:31" x14ac:dyDescent="0.2">
@@ -8734,7 +8741,7 @@
         <v>2.1408426666666664</v>
       </c>
       <c r="X217" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="2:31" x14ac:dyDescent="0.2">
@@ -8806,7 +8813,7 @@
         <v>2.3897778604651165</v>
       </c>
       <c r="X218" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219" spans="2:31" x14ac:dyDescent="0.2">
@@ -8878,7 +8885,7 @@
         <v>3.877752754716981</v>
       </c>
       <c r="X219" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220" spans="2:31" x14ac:dyDescent="0.2">
@@ -8949,7 +8956,7 @@
         <v>6.1349521194029855</v>
       </c>
       <c r="X220" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221" spans="2:31" x14ac:dyDescent="0.2">
@@ -9020,7 +9027,7 @@
         <v>3.236549543307087</v>
       </c>
       <c r="X221" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222" spans="2:31" x14ac:dyDescent="0.2">
@@ -9091,7 +9098,7 @@
         <v>12.582912</v>
       </c>
       <c r="X222" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223" spans="2:31" x14ac:dyDescent="0.2">
@@ -9162,7 +9169,7 @@
         <v>3.877752754716981</v>
       </c>
       <c r="X223" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="224" spans="2:31" x14ac:dyDescent="0.2">
@@ -9234,7 +9241,7 @@
         <v>4.8357857882352944</v>
       </c>
       <c r="X224" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225" spans="2:24" x14ac:dyDescent="0.2">
@@ -9305,7 +9312,7 @@
         <v>11.669956239747634</v>
       </c>
       <c r="X225" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226" spans="2:24" x14ac:dyDescent="0.2">
@@ -9376,7 +9383,7 @@
         <v>3.369195016393443</v>
       </c>
       <c r="X226" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="227" spans="2:24" x14ac:dyDescent="0.2">
@@ -9448,7 +9455,7 @@
         <v>3.7367435636363631</v>
       </c>
       <c r="X227" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="2:24" x14ac:dyDescent="0.2">
@@ -9520,7 +9527,7 @@
         <v>4.3153993910761157</v>
       </c>
       <c r="X228" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229" spans="2:24" x14ac:dyDescent="0.2">
@@ -9592,7 +9599,7 @@
         <v>0.82013998852553061</v>
       </c>
       <c r="X229" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="2:24" x14ac:dyDescent="0.2">
@@ -9664,7 +9671,7 @@
         <v>6.2285770318687543</v>
       </c>
       <c r="X230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231" spans="2:24" x14ac:dyDescent="0.2">
@@ -9736,7 +9743,7 @@
         <v>8.6911724838772724</v>
       </c>
       <c r="X231" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="232" spans="2:24" x14ac:dyDescent="0.2">
@@ -9808,7 +9815,7 @@
         <v>14.073346399659139</v>
       </c>
       <c r="X232" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="233" spans="2:24" x14ac:dyDescent="0.2">
@@ -9880,7 +9887,7 @@
         <v>9.0672532328939095</v>
       </c>
       <c r="X233" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234" spans="2:24" x14ac:dyDescent="0.2">
@@ -9952,7 +9959,7 @@
         <v>20.300216542893725</v>
       </c>
       <c r="X234" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="235" spans="2:24" x14ac:dyDescent="0.2">
@@ -10024,7 +10031,7 @@
         <v>8.8238208437856329</v>
       </c>
       <c r="X235" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236" spans="2:24" x14ac:dyDescent="0.2">
@@ -10096,7 +10103,7 @@
         <v>19.477234791154793</v>
       </c>
       <c r="X236" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="237" spans="2:24" x14ac:dyDescent="0.2">
@@ -10168,7 +10175,7 @@
         <v>1.447330253521127</v>
       </c>
       <c r="X237" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238" spans="2:24" x14ac:dyDescent="0.2">
@@ -10240,7 +10247,7 @@
         <v>3.0905397894736839</v>
       </c>
       <c r="X238" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="239" spans="2:24" x14ac:dyDescent="0.2">
@@ -10312,7 +10319,7 @@
         <v>2.289926417827298</v>
       </c>
       <c r="X239" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240" spans="2:24" x14ac:dyDescent="0.2">
@@ -10384,7 +10391,7 @@
         <v>2.8347709793103446</v>
       </c>
       <c r="X240" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="2:24" x14ac:dyDescent="0.2">
@@ -10456,7 +10463,7 @@
         <v>4.3496485925925921</v>
       </c>
       <c r="X241" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="2:24" x14ac:dyDescent="0.2">
@@ -10528,7 +10535,7 @@
         <v>4.4198042150537633</v>
       </c>
       <c r="X242" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="243" spans="2:24" x14ac:dyDescent="0.2">
@@ -10600,7 +10607,7 @@
         <v>3.1377236030534346</v>
       </c>
       <c r="X243" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="244" spans="2:24" x14ac:dyDescent="0.2">
@@ -10672,7 +10679,7 @@
         <v>4.6445400225988704</v>
       </c>
       <c r="X244" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245" spans="2:24" x14ac:dyDescent="0.2">
@@ -10744,7 +10751,7 @@
         <v>4.3381719472295517</v>
       </c>
       <c r="X245" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246" spans="2:24" x14ac:dyDescent="0.2">
@@ -10816,7 +10823,7 @@
         <v>4.5418982541436463</v>
       </c>
       <c r="X246" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247" spans="2:24" x14ac:dyDescent="0.2">
@@ -10888,7 +10895,7 @@
         <v>4.6709294545454547</v>
       </c>
       <c r="X247" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="248" spans="2:24" x14ac:dyDescent="0.2">
@@ -10960,7 +10967,7 @@
         <v>2.4911623757575758</v>
       </c>
       <c r="X248" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="2:24" x14ac:dyDescent="0.2">
@@ -11032,7 +11039,7 @@
         <v>4.7065854045801521</v>
       </c>
       <c r="X249" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250" spans="2:24" x14ac:dyDescent="0.2">
@@ -11104,7 +11111,7 @@
         <v>2.9255643558718858</v>
       </c>
       <c r="X250" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251" spans="2:24" x14ac:dyDescent="0.2">
@@ -11176,7 +11183,7 @@
         <v>2.7773094054054059</v>
       </c>
       <c r="X251" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="252" spans="2:24" x14ac:dyDescent="0.2">
@@ -11248,7 +11255,7 @@
         <v>2.7867240135593221</v>
       </c>
       <c r="X252" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="2:24" x14ac:dyDescent="0.2">
@@ -11320,7 +11327,7 @@
         <v>1.458888347826087</v>
       </c>
       <c r="X253" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="254" spans="2:24" x14ac:dyDescent="0.2">
@@ -11392,7 +11399,7 @@
         <v>3.0963600150659136</v>
       </c>
       <c r="X254" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="255" spans="2:24" x14ac:dyDescent="0.2">
@@ -11464,7 +11471,7 @@
         <v>2.3555403553008598</v>
       </c>
       <c r="X255" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256" spans="2:24" x14ac:dyDescent="0.2">
@@ -11536,7 +11543,7 @@
         <v>3.1139529696969692</v>
       </c>
       <c r="X256" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="257" spans="2:24" x14ac:dyDescent="0.2">
@@ -11608,7 +11615,7 @@
         <v>5.2195783111111114</v>
       </c>
       <c r="X257" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258" spans="2:24" x14ac:dyDescent="0.2">
@@ -11680,7 +11687,7 @@
         <v>5.303765058064517</v>
       </c>
       <c r="X258" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259" spans="2:24" x14ac:dyDescent="0.2">
@@ -11752,7 +11759,7 @@
         <v>4.0697207128712867</v>
       </c>
       <c r="X259" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="260" spans="2:24" x14ac:dyDescent="0.2">
@@ -11824,7 +11831,7 @@
         <v>5.728805463414635</v>
       </c>
       <c r="X260" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="261" spans="2:24" x14ac:dyDescent="0.2">
@@ -11896,7 +11903,7 @@
         <v>5.0667709337442215</v>
       </c>
       <c r="X261" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="262" spans="2:24" x14ac:dyDescent="0.2">
@@ -11968,7 +11975,7 @@
         <v>5.390712026229509</v>
       </c>
       <c r="X262" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="263" spans="2:24" x14ac:dyDescent="0.2">
@@ -12040,7 +12047,7 @@
         <v>5.7089137777777781</v>
       </c>
       <c r="X263" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="264" spans="2:24" x14ac:dyDescent="0.2">
@@ -12112,7 +12119,7 @@
         <v>3.3418031869918696</v>
       </c>
       <c r="X264" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265" spans="2:24" x14ac:dyDescent="0.2">
@@ -12184,7 +12191,7 @@
         <v>8.2391450512249449</v>
       </c>
       <c r="X265" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266" spans="2:24" x14ac:dyDescent="0.2">
@@ -12256,7 +12263,7 @@
         <v>4.3844457813333326</v>
       </c>
       <c r="X266" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267" spans="2:24" x14ac:dyDescent="0.2">
@@ -12328,7 +12335,7 @@
         <v>3.9475802352941178</v>
       </c>
       <c r="X267" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268" spans="2:24" x14ac:dyDescent="0.2">
@@ -12400,18 +12407,18 @@
         <v>4.0697207128712867</v>
       </c>
       <c r="X268" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L277" s="3"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -12428,16 +12435,25 @@
         <v>17</v>
       </c>
       <c r="H278" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I278" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J278" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="K278" t="s">
+        <v>78</v>
+      </c>
+      <c r="L278" t="s">
+        <v>79</v>
+      </c>
+      <c r="M278" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C280">
         <v>1760</v>
       </c>
@@ -12448,21 +12464,32 @@
         <v>50</v>
       </c>
       <c r="G280" s="2">
-        <v>4.32</v>
+        <v>4.516</v>
       </c>
       <c r="H280" s="2">
-        <v>4.0960000000000001</v>
+        <v>3.5459999999999998</v>
       </c>
       <c r="I280" s="2">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="J280" s="2">
         <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
-        <v>1.147585185185185</v>
-      </c>
-      <c r="J280" s="2">
+        <v>1.0977785651018599</v>
+      </c>
+      <c r="K280" s="2">
         <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(H280/1000)/10^12</f>
-        <v>1.2103437500000001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1.3980733220530175</v>
+      </c>
+      <c r="L280" s="2">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(I280/1000)/10^12</f>
+        <v>7.8442531645569629</v>
+      </c>
+      <c r="M280" s="2">
+        <f>G280+H280+I280</f>
+        <v>8.6939999999999991</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C281">
         <v>1760</v>
       </c>
@@ -12473,21 +12500,32 @@
         <v>50</v>
       </c>
       <c r="G281" s="2">
-        <v>8.7520000000000007</v>
+        <v>10.943</v>
       </c>
       <c r="H281" s="2">
-        <v>9.3390000000000004</v>
+        <v>10.483000000000001</v>
       </c>
       <c r="I281" s="2">
-        <f t="shared" ref="I281:J291" si="28">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
-        <v>1.1328994515539303</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="J281" s="2">
-        <f t="shared" si="28"/>
-        <v>1.0616914016489989</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+        <f>(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
+        <v>0.90607109567760213</v>
+      </c>
+      <c r="K281" s="2">
+        <f>(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(H281/1000)/10^12</f>
+        <v>0.94583001049317927</v>
+      </c>
+      <c r="L281" s="2">
+        <f t="shared" ref="L281:L291" si="28">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(I281/1000)/10^12</f>
+        <v>9.163711645101662</v>
+      </c>
+      <c r="M281" s="2">
+        <f t="shared" ref="M281:M291" si="29">G281+H281+I281</f>
+        <v>22.508000000000003</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C282">
         <v>1760</v>
       </c>
@@ -12498,21 +12536,32 @@
         <v>50</v>
       </c>
       <c r="G282" s="2">
-        <v>11.506</v>
+        <v>6.1630000000000003</v>
       </c>
       <c r="H282" s="2">
-        <v>11.461</v>
+        <v>5.3550000000000004</v>
       </c>
       <c r="I282" s="2">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="J282" s="2">
+        <f>(2*$E282*$D282*$C282*$C282+$E282*$D282*$C282)/(G282/1000)/10^12</f>
+        <v>3.217632970955703</v>
+      </c>
+      <c r="K282" s="2">
+        <f>(2*$E282*$D282*$C282*$C282+$E282*$D282*$C282)/(H282/1000)/10^12</f>
+        <v>3.7031320261437903</v>
+      </c>
+      <c r="L282" s="2">
         <f t="shared" si="28"/>
-        <v>1.7234722753346079</v>
-      </c>
-      <c r="J282" s="2">
-        <f t="shared" si="28"/>
-        <v>1.7302392461390803</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.900285571642538</v>
+      </c>
+      <c r="M282" s="2">
+        <f t="shared" si="29"/>
+        <v>13.521000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283">
         <f>2560*2560/1760/1760</f>
         <v>2.115702479338843</v>
@@ -12527,21 +12576,32 @@
         <v>50</v>
       </c>
       <c r="G283" s="2">
-        <v>12.007999999999999</v>
+        <v>6.9530000000000003</v>
       </c>
       <c r="H283" s="2">
-        <v>10.028</v>
+        <v>6.3730000000000002</v>
       </c>
       <c r="I283" s="2">
+        <v>4.0140000000000002</v>
+      </c>
+      <c r="J283" s="2">
+        <f>(2*$E283*$D283*$C283*$C283+$E283*$D283*$C283)/(G283/1000)/10^12</f>
+        <v>5.7040908960161083</v>
+      </c>
+      <c r="K283" s="2">
+        <f>(2*$E283*$D283*$C283*$C283+$E283*$D283*$C283)/(H283/1000)/10^12</f>
+        <v>6.2232141848423037</v>
+      </c>
+      <c r="L283" s="2">
         <f t="shared" si="28"/>
-        <v>3.3028434377081948</v>
-      </c>
-      <c r="J283" s="2">
-        <f t="shared" si="28"/>
-        <v>3.9549804547267646</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.8805540607872437</v>
+      </c>
+      <c r="M283" s="2">
+        <f t="shared" si="29"/>
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C284">
         <v>2048</v>
       </c>
@@ -12552,21 +12612,32 @@
         <v>50</v>
       </c>
       <c r="G284" s="2">
-        <v>6.7720000000000002</v>
+        <v>6.859</v>
       </c>
       <c r="H284" s="2">
-        <v>6.7670000000000003</v>
+        <v>5.6710000000000003</v>
       </c>
       <c r="I284" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="J284" s="2">
+        <f>(2*$E284*$D284*$C284*$C284+$E284*$D284*$C284)/(G284/1000)/10^12</f>
+        <v>0.97864481702872141</v>
+      </c>
+      <c r="K284" s="2">
+        <f>(2*$E284*$D284*$C284*$C284+$E284*$D284*$C284)/(H284/1000)/10^12</f>
+        <v>1.1836580497266795</v>
+      </c>
+      <c r="L284" s="2">
         <f t="shared" si="28"/>
-        <v>0.99121748375664498</v>
-      </c>
-      <c r="J284" s="2">
-        <f t="shared" si="28"/>
-        <v>0.99194987439042404</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.4647223203026467</v>
+      </c>
+      <c r="M284" s="2">
+        <f t="shared" si="29"/>
+        <v>13.323</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C285">
         <v>2048</v>
       </c>
@@ -12577,21 +12648,32 @@
         <v>50</v>
       </c>
       <c r="G285" s="2">
-        <v>10.119</v>
+        <v>12.414999999999999</v>
       </c>
       <c r="H285" s="2">
-        <v>9.9939999999999998</v>
+        <v>11.92</v>
       </c>
       <c r="I285" s="2">
+        <v>1.381</v>
+      </c>
+      <c r="J285" s="2">
+        <f>(2*$E285*$D285*$C285*$C285+$E285*$D285*$C285)/(G285/1000)/10^12</f>
+        <v>1.0813571969391864</v>
+      </c>
+      <c r="K285" s="2">
+        <f>(2*$E285*$D285*$C285*$C285+$E285*$D285*$C285)/(H285/1000)/10^12</f>
+        <v>1.1262625503355705</v>
+      </c>
+      <c r="L285" s="2">
         <f t="shared" si="28"/>
-        <v>1.3267170273742466</v>
-      </c>
-      <c r="J285" s="2">
-        <f t="shared" si="28"/>
-        <v>1.3433109465679409</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.7212524257784221</v>
+      </c>
+      <c r="M285" s="2">
+        <f t="shared" si="29"/>
+        <v>25.716000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C286">
         <v>2048</v>
       </c>
@@ -12602,21 +12684,32 @@
         <v>50</v>
       </c>
       <c r="G286" s="2">
-        <v>15.912000000000001</v>
+        <v>11.162000000000001</v>
       </c>
       <c r="H286" s="2">
-        <v>15.396000000000001</v>
+        <v>10.009</v>
       </c>
       <c r="I286" s="2">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="J286" s="2">
+        <f>(2*$E286*$D286*$C286*$C286+$E286*$D286*$C286)/(G286/1000)/10^12</f>
+        <v>2.4054917756674428</v>
+      </c>
+      <c r="K286" s="2">
+        <f>(2*$E286*$D286*$C286*$C286+$E286*$D286*$C286)/(H286/1000)/10^12</f>
+        <v>2.6825955839744227</v>
+      </c>
+      <c r="L286" s="2">
         <f t="shared" si="28"/>
-        <v>1.6874119658119655</v>
-      </c>
-      <c r="J286" s="2">
-        <f t="shared" si="28"/>
-        <v>1.743965913224214</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10.431273970473971</v>
+      </c>
+      <c r="M286" s="2">
+        <f t="shared" si="29"/>
+        <v>23.744999999999997</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287">
         <f>2560*2560/2048/2048</f>
         <v>1.5625</v>
@@ -12631,21 +12724,32 @@
         <v>50</v>
       </c>
       <c r="G287" s="2">
-        <v>14.18</v>
+        <v>9.4190000000000005</v>
       </c>
       <c r="H287" s="2">
-        <v>11.316000000000001</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="I287" s="2">
+        <v>5.016</v>
+      </c>
+      <c r="J287" s="2">
+        <f>(2*$E287*$D287*$C287*$C287+$E287*$D287*$C287)/(G287/1000)/10^12</f>
+        <v>5.7012632338889473</v>
+      </c>
+      <c r="K287" s="2">
+        <f>(2*$E287*$D287*$C287*$C287+$E287*$D287*$C287)/(H287/1000)/10^12</f>
+        <v>5.9673517501944655</v>
+      </c>
+      <c r="L287" s="2">
         <f t="shared" si="28"/>
-        <v>3.787037968970381</v>
-      </c>
-      <c r="J287" s="2">
-        <f t="shared" si="28"/>
-        <v>4.7455106398020499</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10.705781180223287</v>
+      </c>
+      <c r="M287" s="2">
+        <f t="shared" si="29"/>
+        <v>23.433999999999997</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C288">
         <v>2560</v>
       </c>
@@ -12656,21 +12760,32 @@
         <v>50</v>
       </c>
       <c r="G288" s="2">
-        <v>10.563000000000001</v>
+        <v>10.526999999999999</v>
       </c>
       <c r="H288" s="2">
-        <v>10.288</v>
+        <v>9.3870000000000005</v>
       </c>
       <c r="I288" s="2">
+        <v>1.256</v>
+      </c>
+      <c r="J288" s="2">
+        <f>(2*$E288*$D288*$C288*$C288+$E288*$D288*$C288)/(G288/1000)/10^12</f>
+        <v>0.99627700199487035</v>
+      </c>
+      <c r="K288" s="2">
+        <f>(2*$E288*$D288*$C288*$C288+$E288*$D288*$C288)/(H288/1000)/10^12</f>
+        <v>1.1172694151486096</v>
+      </c>
+      <c r="L288" s="2">
         <f t="shared" si="28"/>
-        <v>0.99288156773643832</v>
-      </c>
-      <c r="J288" s="2">
-        <f t="shared" si="28"/>
-        <v>1.0194214618973561</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8.3501656050955422</v>
+      </c>
+      <c r="M288" s="2">
+        <f t="shared" si="29"/>
+        <v>21.17</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C289">
         <v>2560</v>
       </c>
@@ -12681,21 +12796,32 @@
         <v>50</v>
       </c>
       <c r="G289" s="2">
-        <v>12.906000000000001</v>
+        <v>15.121</v>
       </c>
       <c r="H289" s="2">
-        <v>12.74</v>
+        <v>14.598000000000001</v>
       </c>
       <c r="I289" s="2">
+        <v>2.2210000000000001</v>
+      </c>
+      <c r="J289" s="2">
+        <f>(2*$E289*$D289*$C289*$C289+$E289*$D289*$C289)/(G289/1000)/10^12</f>
+        <v>1.3871844454731828</v>
+      </c>
+      <c r="K289" s="2">
+        <f>(2*$E289*$D289*$C289*$C289+$E289*$D289*$C289)/(H289/1000)/10^12</f>
+        <v>1.4368828606658446</v>
+      </c>
+      <c r="L289" s="2">
         <f t="shared" si="28"/>
-        <v>1.6252608089260807</v>
-      </c>
-      <c r="J289" s="2">
-        <f t="shared" si="28"/>
-        <v>1.6464376766091051</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9.4442215218370116</v>
+      </c>
+      <c r="M289" s="2">
+        <f t="shared" si="29"/>
+        <v>31.94</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C290">
         <v>2560</v>
       </c>
@@ -12706,21 +12832,32 @@
         <v>50</v>
       </c>
       <c r="G290" s="2">
-        <v>18.486999999999998</v>
+        <v>16.381</v>
       </c>
       <c r="H290" s="2">
-        <v>18.085000000000001</v>
+        <v>15.938000000000001</v>
       </c>
       <c r="I290" s="2">
+        <v>4.0990000000000002</v>
+      </c>
+      <c r="J290" s="2">
+        <f>(2*$E290*$D290*$C290*$C290+$E290*$D290*$C290)/(G290/1000)/10^12</f>
+        <v>2.5609689274159089</v>
+      </c>
+      <c r="K290" s="2">
+        <f>(2*$E290*$D290*$C290*$C290+$E290*$D290*$C290)/(H290/1000)/10^12</f>
+        <v>2.6321515874011792</v>
+      </c>
+      <c r="L290" s="2">
         <f t="shared" si="28"/>
-        <v>2.2692287553415915</v>
-      </c>
-      <c r="J290" s="2">
-        <f t="shared" si="28"/>
-        <v>2.3196700027647221</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10.234504025372042</v>
+      </c>
+      <c r="M290" s="2">
+        <f t="shared" si="29"/>
+        <v>36.418000000000006</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C291">
         <v>2560</v>
       </c>
@@ -12731,21 +12868,32 @@
         <v>50</v>
       </c>
       <c r="G291" s="2">
-        <v>16.983000000000001</v>
+        <v>17.024000000000001</v>
       </c>
       <c r="H291" s="2">
-        <v>14.29</v>
+        <v>16.341000000000001</v>
       </c>
       <c r="I291" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="J291" s="2">
+        <f>(2*$E291*$D291*$C291*$C291+$E291*$D291*$C291)/(G291/1000)/10^12</f>
+        <v>4.9284812030075189</v>
+      </c>
+      <c r="K291" s="2">
+        <f>(2*$E291*$D291*$C291*$C291+$E291*$D291*$C291)/(H291/1000)/10^12</f>
+        <v>5.1344754910960155</v>
+      </c>
+      <c r="L291" s="2">
         <f t="shared" si="28"/>
-        <v>4.9403794382617914</v>
-      </c>
-      <c r="J291" s="2">
-        <f t="shared" si="28"/>
-        <v>5.8714110566829953</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10.553769056603773</v>
+      </c>
+      <c r="M291" s="2">
+        <f t="shared" si="29"/>
+        <v>41.315000000000005</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -12759,19 +12907,28 @@
         <v>14</v>
       </c>
       <c r="G295" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H295" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I295" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J295" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="K295" t="s">
+        <v>78</v>
+      </c>
+      <c r="L295" t="s">
+        <v>79</v>
+      </c>
+      <c r="M295" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C296">
         <v>512</v>
       </c>
@@ -12782,21 +12939,32 @@
         <v>25</v>
       </c>
       <c r="G296" s="2">
-        <v>1.5589999999999999</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="H296" s="2">
-        <v>1.9359999999999999</v>
+        <v>1.401</v>
       </c>
       <c r="I296" s="2">
-        <f t="shared" ref="I296:J312" si="29">(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
-        <v>0.53807620269403467</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="J296" s="2">
-        <f t="shared" ref="J296:J311" si="30">(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
-        <v>0.43329586776859502</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
+        <v>0.63453918305597579</v>
+      </c>
+      <c r="K296" s="2">
+        <f>(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
+        <v>0.59875860099928613</v>
+      </c>
+      <c r="L296" s="2">
+        <f>(8*$E296*$D296*$C296*$C296)/(I296/1000)/10^12</f>
+        <v>4.8489063583815035</v>
+      </c>
+      <c r="M296" s="2">
+        <f t="shared" ref="M296:M317" si="30">G296+H296+I296</f>
+        <v>2.8959999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C297">
         <v>512</v>
       </c>
@@ -12807,21 +12975,32 @@
         <v>25</v>
       </c>
       <c r="G297" s="2">
-        <v>2.7610000000000001</v>
+        <v>2.4119999999999999</v>
       </c>
       <c r="H297" s="2">
-        <v>3.9689999999999999</v>
+        <v>5.7619999999999996</v>
       </c>
       <c r="I297" s="2">
-        <f t="shared" si="29"/>
-        <v>0.60764998189061936</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="J297" s="2">
+        <f>(8*$E297*$D297*$C297*$C297)/(G297/1000)/10^12</f>
+        <v>0.69557280265339971</v>
+      </c>
+      <c r="K297" s="2">
+        <f>(8*$E297*$D297*$C297*$C297)/(H297/1000)/10^12</f>
+        <v>0.29117001041305102</v>
+      </c>
+      <c r="L297" s="2">
+        <f t="shared" ref="L297:L317" si="31">(8*$E297*$D297*$C297*$C297)/(I297/1000)/10^12</f>
+        <v>6.4280521072796937</v>
+      </c>
+      <c r="M297" s="2">
         <f t="shared" si="30"/>
-        <v>0.42270637440161257</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8.4349999999999987</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C298">
         <v>512</v>
       </c>
@@ -12832,21 +13011,32 @@
         <v>25</v>
       </c>
       <c r="G298" s="2">
-        <v>2.347</v>
+        <v>2.09</v>
       </c>
       <c r="H298" s="2">
-        <v>3.992</v>
+        <v>2.1680000000000001</v>
       </c>
       <c r="I298" s="2">
-        <f t="shared" si="29"/>
-        <v>1.4296732850447378</v>
+        <v>0.442</v>
       </c>
       <c r="J298" s="2">
+        <f>(8*$E298*$D298*$C298*$C298)/(G298/1000)/10^12</f>
+        <v>1.6054752153110048</v>
+      </c>
+      <c r="K298" s="2">
+        <f>(8*$E298*$D298*$C298*$C298)/(H298/1000)/10^12</f>
+        <v>1.5477136531365312</v>
+      </c>
+      <c r="L298" s="2">
+        <f t="shared" si="31"/>
+        <v>7.5915004524886873</v>
+      </c>
+      <c r="M298" s="2">
         <f t="shared" si="30"/>
-        <v>0.84054188376753503</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C299">
         <v>512</v>
       </c>
@@ -12857,21 +13047,32 @@
         <v>25</v>
       </c>
       <c r="G299" s="2">
-        <v>2.67</v>
+        <v>2.403</v>
       </c>
       <c r="H299" s="2">
-        <v>4.9889999999999999</v>
+        <v>2.5489999999999999</v>
       </c>
       <c r="I299" s="2">
-        <f t="shared" si="29"/>
-        <v>2.5134405992509361</v>
+        <v>0.76</v>
       </c>
       <c r="J299" s="2">
+        <f>(8*$E299*$D299*$C299*$C299)/(G299/1000)/10^12</f>
+        <v>2.7927117769454846</v>
+      </c>
+      <c r="K299" s="2">
+        <f>(8*$E299*$D299*$C299*$C299)/(H299/1000)/10^12</f>
+        <v>2.6327526088662223</v>
+      </c>
+      <c r="L299" s="2">
+        <f t="shared" si="31"/>
+        <v>8.8301136842105254</v>
+      </c>
+      <c r="M299" s="2">
         <f t="shared" si="30"/>
-        <v>1.3451365804770496</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.7119999999999997</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C300">
         <v>1024</v>
       </c>
@@ -12882,21 +13083,32 @@
         <v>25</v>
       </c>
       <c r="G300" s="2">
-        <v>4.6369999999999996</v>
+        <v>4.1920000000000002</v>
       </c>
       <c r="H300" s="2">
-        <v>2.855</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="I300" s="2">
-        <f t="shared" si="29"/>
-        <v>0.72362372223420324</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="J300" s="2">
+        <f>(8*$E300*$D300*$C300*$C300)/(G300/1000)/10^12</f>
+        <v>0.80043969465648857</v>
+      </c>
+      <c r="K300" s="2">
+        <f>(8*$E300*$D300*$C300*$C300)/(H300/1000)/10^12</f>
+        <v>1.3712477319166325</v>
+      </c>
+      <c r="L300" s="2">
+        <f t="shared" si="31"/>
+        <v>6.3913203809523802</v>
+      </c>
+      <c r="M300" s="2">
         <f t="shared" si="30"/>
-        <v>1.1752865849387042</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7.1640000000000006</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C301">
         <v>1024</v>
       </c>
@@ -12907,21 +13119,32 @@
         <v>25</v>
       </c>
       <c r="G301" s="2">
-        <v>4.5620000000000003</v>
+        <v>4.1660000000000004</v>
       </c>
       <c r="H301" s="2">
-        <v>5.173</v>
+        <v>10.8</v>
       </c>
       <c r="I301" s="2">
-        <f t="shared" si="29"/>
-        <v>1.4710404208680403</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="J301" s="2">
+        <f>(8*$E301*$D301*$C301*$C301)/(G301/1000)/10^12</f>
+        <v>1.6108704752760439</v>
+      </c>
+      <c r="K301" s="2">
+        <f>(8*$E301*$D301*$C301*$C301)/(H301/1000)/10^12</f>
+        <v>0.62137837037037036</v>
+      </c>
+      <c r="L301" s="2">
+        <f t="shared" si="31"/>
+        <v>8.0177854241338107</v>
+      </c>
+      <c r="M301" s="2">
         <f t="shared" si="30"/>
-        <v>1.2972910110187512</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15.803000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C302">
         <v>1024</v>
       </c>
@@ -12932,21 +13155,32 @@
         <v>25</v>
       </c>
       <c r="G302" s="2">
-        <v>4.359</v>
+        <v>4.4909999999999997</v>
       </c>
       <c r="H302" s="2">
-        <v>8.1389999999999993</v>
+        <v>3.504</v>
       </c>
       <c r="I302" s="2">
-        <f t="shared" si="29"/>
-        <v>3.0790944712089927</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="J302" s="2">
+        <f>(8*$E302*$D302*$C302*$C302)/(G302/1000)/10^12</f>
+        <v>2.9885933645067921</v>
+      </c>
+      <c r="K302" s="2">
+        <f>(8*$E302*$D302*$C302*$C302)/(H302/1000)/10^12</f>
+        <v>3.830414611872146</v>
+      </c>
+      <c r="L302" s="2">
+        <f t="shared" si="31"/>
+        <v>9.2245861168384859</v>
+      </c>
+      <c r="M302" s="2">
         <f t="shared" si="30"/>
-        <v>1.6490690256788305</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C303">
         <v>1024</v>
       </c>
@@ -12957,21 +13191,32 @@
         <v>25</v>
       </c>
       <c r="G303" s="2">
-        <v>5.1719999999999997</v>
+        <v>5.6029999999999998</v>
       </c>
       <c r="H303" s="2">
-        <v>11.946999999999999</v>
+        <v>4.734</v>
       </c>
       <c r="I303" s="2">
-        <f t="shared" si="29"/>
-        <v>5.1901673627223515</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="J303" s="2">
+        <f>(8*$E303*$D303*$C303*$C303)/(G303/1000)/10^12</f>
+        <v>4.7909237194360168</v>
+      </c>
+      <c r="K303" s="2">
+        <f>(8*$E303*$D303*$C303*$C303)/(H303/1000)/10^12</f>
+        <v>5.67037296155471</v>
+      </c>
+      <c r="L303" s="2">
+        <f t="shared" si="31"/>
+        <v>9.9753049424005962</v>
+      </c>
+      <c r="M303" s="2">
         <f t="shared" si="30"/>
-        <v>2.2468858793002426</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+        <v>13.027999999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C304">
         <v>2048</v>
       </c>
@@ -12982,21 +13227,32 @@
         <v>25</v>
       </c>
       <c r="G304" s="2">
-        <v>20.658000000000001</v>
+        <v>20.073</v>
       </c>
       <c r="H304" s="2">
-        <v>9.8409999999999993</v>
+        <v>9.4949999999999992</v>
       </c>
       <c r="I304" s="2">
-        <f t="shared" si="29"/>
-        <v>0.64971307967857483</v>
+        <v>1.784</v>
       </c>
       <c r="J304" s="2">
+        <f>(8*$E304*$D304*$C304*$C304)/(G304/1000)/10^12</f>
+        <v>0.66864807452797292</v>
+      </c>
+      <c r="K304" s="2">
+        <f>(8*$E304*$D304*$C304*$C304)/(H304/1000)/10^12</f>
+        <v>1.4135621695629279</v>
+      </c>
+      <c r="L304" s="2">
+        <f t="shared" si="31"/>
+        <v>7.5234152466367714</v>
+      </c>
+      <c r="M304" s="2">
         <f t="shared" si="30"/>
-        <v>1.3638626968803984</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31.351999999999997</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C305">
         <v>2048</v>
       </c>
@@ -13007,21 +13263,32 @@
         <v>25</v>
       </c>
       <c r="G305" s="2">
-        <v>13.087999999999999</v>
+        <v>8.1739999999999995</v>
       </c>
       <c r="H305" s="2">
-        <v>11.788</v>
+        <v>20.907</v>
       </c>
       <c r="I305" s="2">
-        <f t="shared" si="29"/>
-        <v>2.0510044009779955</v>
+        <v>2.895</v>
       </c>
       <c r="J305" s="2">
+        <f>(8*$E305*$D305*$C305*$C305)/(G305/1000)/10^12</f>
+        <v>3.2840158551504777</v>
+      </c>
+      <c r="K305" s="2">
+        <f>(8*$E305*$D305*$C305*$C305)/(H305/1000)/10^12</f>
+        <v>1.2839501411010668</v>
+      </c>
+      <c r="L305" s="2">
+        <f t="shared" si="31"/>
+        <v>9.2723818998272893</v>
+      </c>
+      <c r="M305" s="2">
         <f t="shared" si="30"/>
-        <v>2.2771925347811335</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31.975999999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C306">
         <v>2048</v>
       </c>
@@ -13032,21 +13299,32 @@
         <v>25</v>
       </c>
       <c r="G306" s="2">
-        <v>10.186999999999999</v>
+        <v>11.02</v>
       </c>
       <c r="H306" s="2">
-        <v>19.222999999999999</v>
+        <v>21.306999999999999</v>
       </c>
       <c r="I306" s="2">
-        <f t="shared" si="29"/>
-        <v>5.2701571807205267</v>
+        <v>5.2450000000000001</v>
       </c>
       <c r="J306" s="2">
+        <f>(8*$E306*$D306*$C306*$C306)/(G306/1000)/10^12</f>
+        <v>4.8717868602540833</v>
+      </c>
+      <c r="K306" s="2">
+        <f>(8*$E306*$D306*$C306*$C306)/(H306/1000)/10^12</f>
+        <v>2.5196926456094242</v>
+      </c>
+      <c r="L306" s="2">
+        <f t="shared" si="31"/>
+        <v>10.23586104861773</v>
+      </c>
+      <c r="M306" s="2">
         <f t="shared" si="30"/>
-        <v>2.7928570566508868</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37.571999999999996</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C307">
         <v>2048</v>
       </c>
@@ -13057,21 +13335,32 @@
         <v>25</v>
       </c>
       <c r="G307" s="2">
-        <v>16.128</v>
+        <v>16.521999999999998</v>
       </c>
       <c r="H307" s="2">
-        <v>19.62</v>
+        <v>13.784000000000001</v>
       </c>
       <c r="I307" s="2">
-        <f t="shared" si="29"/>
-        <v>6.6576253968253969</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="J307" s="2">
+        <f>(8*$E307*$D307*$C307*$C307)/(G307/1000)/10^12</f>
+        <v>6.4988610579832962</v>
+      </c>
+      <c r="K307" s="2">
+        <f>(8*$E307*$D307*$C307*$C307)/(H307/1000)/10^12</f>
+        <v>7.7897694718514208</v>
+      </c>
+      <c r="L307" s="2">
+        <f t="shared" si="31"/>
+        <v>10.694639681274902</v>
+      </c>
+      <c r="M307" s="2">
         <f t="shared" si="30"/>
-        <v>5.472690234454638</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40.345999999999997</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C308">
         <v>4096</v>
       </c>
@@ -13082,21 +13371,32 @@
         <v>25</v>
       </c>
       <c r="G308" s="2">
-        <v>80.944999999999993</v>
+        <v>78.269000000000005</v>
       </c>
       <c r="H308" s="2">
-        <v>57.247999999999998</v>
+        <v>57.773000000000003</v>
       </c>
       <c r="I308" s="2">
-        <f t="shared" si="29"/>
-        <v>0.66325395268392129</v>
+        <v>6.657</v>
       </c>
       <c r="J308" s="2">
+        <f>(8*$E308*$D308*$C308*$C308)/(G308/1000)/10^12</f>
+        <v>0.68593046033550953</v>
+      </c>
+      <c r="K308" s="2">
+        <f>(8*$E308*$D308*$C308*$C308)/(H308/1000)/10^12</f>
+        <v>0.92927649940283519</v>
+      </c>
+      <c r="L308" s="2">
+        <f t="shared" si="31"/>
+        <v>8.064757578488809</v>
+      </c>
+      <c r="M308" s="2">
         <f t="shared" si="30"/>
-        <v>0.93779854667411966</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+        <v>142.69900000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C309">
         <v>4096</v>
       </c>
@@ -13107,21 +13407,32 @@
         <v>25</v>
       </c>
       <c r="G309" s="2">
-        <v>39.863</v>
+        <v>23.702999999999999</v>
       </c>
       <c r="H309" s="2">
-        <v>36.305</v>
+        <v>48.731000000000002</v>
       </c>
       <c r="I309" s="2">
-        <f t="shared" si="29"/>
-        <v>2.6935800717457292</v>
+        <v>11.257</v>
       </c>
       <c r="J309" s="2">
+        <f>(8*$E309*$D309*$C309*$C309)/(G309/1000)/10^12</f>
+        <v>4.52998280386449</v>
+      </c>
+      <c r="K309" s="2">
+        <f>(8*$E309*$D309*$C309*$C309)/(H309/1000)/10^12</f>
+        <v>2.2034060946830558</v>
+      </c>
+      <c r="L309" s="2">
+        <f t="shared" si="31"/>
+        <v>9.5384367415830162</v>
+      </c>
+      <c r="M309" s="2">
         <f t="shared" si="30"/>
-        <v>2.957559080016527</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+        <v>83.691000000000003</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C310">
         <v>4096</v>
       </c>
@@ -13132,21 +13443,32 @@
         <v>25</v>
       </c>
       <c r="G310" s="2">
-        <v>32.213999999999999</v>
+        <v>47.393999999999998</v>
       </c>
       <c r="H310" s="2">
-        <v>46.113</v>
+        <v>52.892000000000003</v>
       </c>
       <c r="I310" s="2">
-        <f t="shared" si="29"/>
-        <v>6.666305482088533</v>
+        <v>20.782</v>
       </c>
       <c r="J310" s="2">
+        <f>(8*$E310*$D310*$C310*$C310)/(G310/1000)/10^12</f>
+        <v>4.5311297801409465</v>
+      </c>
+      <c r="K310" s="2">
+        <f>(8*$E310*$D310*$C310*$C310)/(H310/1000)/10^12</f>
+        <v>4.0601294108749899</v>
+      </c>
+      <c r="L310" s="2">
+        <f t="shared" si="31"/>
+        <v>10.333382966028294</v>
+      </c>
+      <c r="M310" s="2">
         <f t="shared" si="30"/>
-        <v>4.6570026847093011</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121.068</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C311">
         <v>4096</v>
       </c>
@@ -13157,21 +13479,32 @@
         <v>25</v>
       </c>
       <c r="G311" s="2">
-        <v>54.881999999999998</v>
+        <v>52.686999999999998</v>
       </c>
       <c r="H311" s="2">
-        <v>59.124000000000002</v>
+        <v>69.744</v>
       </c>
       <c r="I311" s="2">
-        <f t="shared" si="29"/>
-        <v>7.825821391348712</v>
+        <v>43.350999999999999</v>
       </c>
       <c r="J311" s="2">
+        <f>(8*$E311*$D311*$C311*$C311)/(G311/1000)/10^12</f>
+        <v>8.1518539601799311</v>
+      </c>
+      <c r="K311" s="2">
+        <f>(8*$E311*$D311*$C311*$C311)/(H311/1000)/10^12</f>
+        <v>6.1581889424179854</v>
+      </c>
+      <c r="L311" s="2">
+        <f t="shared" si="31"/>
+        <v>9.9074238102927268</v>
+      </c>
+      <c r="M311" s="2">
         <f t="shared" si="30"/>
-        <v>7.2643381638590077</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+        <v>165.78199999999998</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C312">
         <v>1536</v>
       </c>
@@ -13182,21 +13515,32 @@
         <v>50</v>
       </c>
       <c r="G312" s="2">
-        <v>11.853999999999999</v>
+        <v>11.811</v>
       </c>
       <c r="H312" s="2">
-        <v>7.2690000000000001</v>
+        <v>7.6740000000000004</v>
       </c>
       <c r="I312" s="2">
-        <f t="shared" si="29"/>
-        <v>0.63689448287497885</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J312" s="2">
-        <f t="shared" si="29"/>
-        <v>1.0386225340486999</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
+        <v>0.63921320802641601</v>
+      </c>
+      <c r="K312" s="2">
+        <f>(8*$E312*$D312*$C312*$C312)/(H312/1000)/10^12</f>
+        <v>0.98380860046911645</v>
+      </c>
+      <c r="L312" s="2">
+        <f t="shared" si="31"/>
+        <v>6.681192212389381</v>
+      </c>
+      <c r="M312" s="2">
+        <f t="shared" si="30"/>
+        <v>20.614999999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C313">
         <v>1536</v>
       </c>
@@ -13207,21 +13551,32 @@
         <v>50</v>
       </c>
       <c r="G313" s="2">
-        <v>22.073</v>
+        <v>21.866</v>
       </c>
       <c r="H313" s="2">
-        <v>9.3620000000000001</v>
+        <v>9.8859999999999992</v>
       </c>
       <c r="I313" s="2">
-        <f t="shared" ref="I313:J317" si="31">(8*$E313*$D313*$C313*$C313)/(G313/1000)/10^12</f>
-        <v>0.6840707833099261</v>
+        <v>1.89</v>
       </c>
       <c r="J313" s="2">
+        <f>(8*$E313*$D313*$C313*$C313)/(G313/1000)/10^12</f>
+        <v>0.69054671178999361</v>
+      </c>
+      <c r="K313" s="2">
+        <f>(8*$E313*$D313*$C313*$C313)/(H313/1000)/10^12</f>
+        <v>1.5273613594982804</v>
+      </c>
+      <c r="L313" s="2">
         <f t="shared" si="31"/>
-        <v>1.6128492202520828</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7.9891504761904768</v>
+      </c>
+      <c r="M313" s="2">
+        <f t="shared" si="30"/>
+        <v>33.641999999999996</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C314">
         <v>1536</v>
       </c>
@@ -13232,21 +13587,32 @@
         <v>50</v>
       </c>
       <c r="G314" s="2">
-        <v>11.577</v>
+        <v>11.811999999999999</v>
       </c>
       <c r="H314" s="2">
-        <v>31.28</v>
+        <v>31.908999999999999</v>
       </c>
       <c r="I314" s="2">
+        <v>3.1720000000000002</v>
+      </c>
+      <c r="J314" s="2">
+        <f>(8*$E314*$D314*$C314*$C314)/(G314/1000)/10^12</f>
+        <v>2.5566363697934307</v>
+      </c>
+      <c r="K314" s="2">
+        <f>(8*$E314*$D314*$C314*$C314)/(H314/1000)/10^12</f>
+        <v>0.94640975273433825</v>
+      </c>
+      <c r="L314" s="2">
         <f t="shared" si="31"/>
-        <v>2.6085331951282713</v>
-      </c>
-      <c r="J314" s="2">
-        <f t="shared" si="31"/>
-        <v>0.96544081841432217</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9.5204882723833535</v>
+      </c>
+      <c r="M314" s="2">
+        <f t="shared" si="30"/>
+        <v>46.892999999999994</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C315">
         <v>256</v>
       </c>
@@ -13257,21 +13623,32 @@
         <v>150</v>
       </c>
       <c r="G315" s="2">
-        <v>1.962</v>
+        <v>2.4529999999999998</v>
       </c>
       <c r="H315" s="2">
-        <v>3.6819999999999999</v>
+        <v>4.0590000000000002</v>
       </c>
       <c r="I315" s="2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J315" s="2">
+        <f>(8*$E315*$D315*$C315*$C315)/(G315/1000)/10^12</f>
+        <v>0.5129601304525071</v>
+      </c>
+      <c r="K315" s="2">
+        <f>(8*$E315*$D315*$C315*$C315)/(H315/1000)/10^12</f>
+        <v>0.31000029563932002</v>
+      </c>
+      <c r="L315" s="2">
         <f t="shared" si="31"/>
-        <v>0.64133088685015294</v>
-      </c>
-      <c r="J315" s="2">
-        <f t="shared" si="31"/>
-        <v>0.34174122759369907</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6.3230713567839185</v>
+      </c>
+      <c r="M315" s="2">
+        <f t="shared" si="30"/>
+        <v>6.7110000000000003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C316">
         <v>256</v>
       </c>
@@ -13282,21 +13659,32 @@
         <v>150</v>
       </c>
       <c r="G316" s="2">
-        <v>6.6989999999999998</v>
+        <v>6.6070000000000002</v>
       </c>
       <c r="H316" s="2">
-        <v>15.285</v>
+        <v>15.624000000000001</v>
       </c>
       <c r="I316" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="J316" s="2">
+        <f>(8*$E316*$D316*$C316*$C316)/(G316/1000)/10^12</f>
+        <v>0.38089638262448922</v>
+      </c>
+      <c r="K316" s="2">
+        <f>(8*$E316*$D316*$C316*$C316)/(H316/1000)/10^12</f>
+        <v>0.16107158218125958</v>
+      </c>
+      <c r="L316" s="2">
         <f t="shared" si="31"/>
-        <v>0.37566538289296914</v>
-      </c>
-      <c r="J316" s="2">
-        <f t="shared" si="31"/>
-        <v>0.16464392541707557</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7.1291286118980173</v>
+      </c>
+      <c r="M316" s="2">
+        <f t="shared" si="30"/>
+        <v>22.584000000000003</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C317">
         <v>256</v>
       </c>
@@ -13307,34 +13695,45 @@
         <v>150</v>
       </c>
       <c r="G317" s="2">
-        <v>6.51</v>
+        <v>6.2590000000000003</v>
       </c>
       <c r="H317" s="2">
-        <v>9.0909999999999993</v>
+        <v>9.4909999999999997</v>
       </c>
       <c r="I317" s="2">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="J317" s="2">
+        <f>(8*$E317*$D317*$C317*$C317)/(G317/1000)/10^12</f>
+        <v>0.80414839431219032</v>
+      </c>
+      <c r="K317" s="2">
+        <f>(8*$E317*$D317*$C317*$C317)/(H317/1000)/10^12</f>
+        <v>0.53030921926035191</v>
+      </c>
+      <c r="L317" s="2">
         <f t="shared" si="31"/>
-        <v>0.77314359447004599</v>
-      </c>
-      <c r="J317" s="2">
-        <f t="shared" si="31"/>
-        <v>0.55364259157408424</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8.2241254901960783</v>
+      </c>
+      <c r="M317" s="2">
+        <f t="shared" si="30"/>
+        <v>16.361999999999998</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C320" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
@@ -13342,20 +13741,29 @@
       <c r="E320" t="s">
         <v>14</v>
       </c>
-      <c r="G320" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H320" s="2" t="s">
-        <v>20</v>
+      <c r="G320" t="s">
+        <v>17</v>
+      </c>
+      <c r="H320" t="s">
+        <v>77</v>
       </c>
       <c r="I320" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J320" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="K320" t="s">
+        <v>78</v>
+      </c>
+      <c r="L320" t="s">
+        <v>79</v>
+      </c>
+      <c r="M320" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="321" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C321">
         <v>2816</v>
       </c>
@@ -13366,21 +13774,32 @@
         <v>1500</v>
       </c>
       <c r="G321" s="2">
-        <v>592.91800000000001</v>
+        <v>643.70500000000004</v>
       </c>
       <c r="H321" s="2">
-        <v>1272.1690000000001</v>
+        <v>1319.0709999999999</v>
       </c>
       <c r="I321" s="2">
+        <v>233.00700000000001</v>
+      </c>
+      <c r="J321" s="2">
         <f>(6*$E321*$D321*$C321*$C321)/(G321/1000)/10^12</f>
-        <v>3.8517948991260171</v>
-      </c>
-      <c r="J321" s="2">
+        <v>3.5478962071135065</v>
+      </c>
+      <c r="K321" s="2">
         <f>(6*$E321*$D321*$C321*$C321)/(H321/1000)/10^12</f>
-        <v>1.7952005810548755</v>
-      </c>
-    </row>
-    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
+        <v>1.7313689164571129</v>
+      </c>
+      <c r="L321" s="2">
+        <f>(6*$E321*$D321*$C321*$C321)/(I321/1000)/10^12</f>
+        <v>9.801415957460506</v>
+      </c>
+      <c r="M321" s="2">
+        <f>G321+H321+J321</f>
+        <v>1966.3238962071134</v>
+      </c>
+    </row>
+    <row r="322" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C322">
         <v>2816</v>
       </c>
@@ -13391,21 +13810,32 @@
         <v>750</v>
       </c>
       <c r="G322" s="2">
-        <v>298.53500000000003</v>
+        <v>332.334</v>
       </c>
       <c r="H322" s="2">
-        <v>638.21500000000003</v>
+        <v>656.85199999999998</v>
       </c>
       <c r="I322" s="2">
-        <f t="shared" ref="I322:I339" si="32">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
-        <v>3.8250096772572726</v>
+        <v>113.032</v>
       </c>
       <c r="J322" s="2">
-        <f t="shared" ref="J322:J339" si="33">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
-        <v>1.7892078124143118</v>
-      </c>
-    </row>
-    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
+        <f>(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <v>3.4359989167524234</v>
+      </c>
+      <c r="K322" s="2">
+        <f>(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <v>1.7384422426969852</v>
+      </c>
+      <c r="L322" s="2">
+        <f t="shared" ref="L322:L339" si="32">(6*$E322*$D322*$C322*$C322)/(I322/1000)/10^12</f>
+        <v>10.102442352608112</v>
+      </c>
+      <c r="M322" s="2">
+        <f>G322+H322+J322</f>
+        <v>992.62199891675232</v>
+      </c>
+    </row>
+    <row r="323" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C323">
         <v>2816</v>
       </c>
@@ -13416,21 +13846,32 @@
         <v>375</v>
       </c>
       <c r="G323" s="2">
-        <v>150.70599999999999</v>
+        <v>170.238</v>
       </c>
       <c r="H323" s="2">
-        <v>319.88</v>
+        <v>331.95299999999997</v>
       </c>
       <c r="I323" s="2">
+        <v>59.963999999999999</v>
+      </c>
+      <c r="J323" s="2">
+        <f>(6*$E323*$D323*$C323*$C323)/(G323/1000)/10^12</f>
+        <v>3.3538318824234308</v>
+      </c>
+      <c r="K323" s="2">
+        <f>(6*$E323*$D323*$C323*$C323)/(H323/1000)/10^12</f>
+        <v>1.7199712971414629</v>
+      </c>
+      <c r="L323" s="2">
         <f t="shared" si="32"/>
-        <v>3.7884996748636421</v>
-      </c>
-      <c r="J323" s="2">
-        <f t="shared" si="33"/>
-        <v>1.7848869325997248</v>
-      </c>
-    </row>
-    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
+        <v>9.5215401240744448</v>
+      </c>
+      <c r="M323" s="2">
+        <f>G323+H323+J323</f>
+        <v>505.54483188242341</v>
+      </c>
+    </row>
+    <row r="324" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C324">
         <v>2816</v>
       </c>
@@ -13441,21 +13882,32 @@
         <v>187</v>
       </c>
       <c r="G324" s="2">
-        <v>76.058999999999997</v>
+        <v>85.332999999999998</v>
       </c>
       <c r="H324" s="2">
-        <v>160.09399999999999</v>
+        <v>167.07599999999999</v>
       </c>
       <c r="I324" s="2">
+        <v>29.652999999999999</v>
+      </c>
+      <c r="J324" s="2">
+        <f>(6*$E324*$D324*$C324*$C324)/(G324/1000)/10^12</f>
+        <v>3.3364999452029109</v>
+      </c>
+      <c r="K324" s="2">
+        <f>(6*$E324*$D324*$C324*$C324)/(H324/1000)/10^12</f>
+        <v>1.704096039072039</v>
+      </c>
+      <c r="L324" s="2">
         <f t="shared" si="32"/>
-        <v>3.7433249164990339</v>
-      </c>
-      <c r="J324" s="2">
-        <f t="shared" si="33"/>
-        <v>1.7784148676652469</v>
-      </c>
-    </row>
-    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
+        <v>9.6015091162445625</v>
+      </c>
+      <c r="M324" s="2">
+        <f>G324+H324+J324</f>
+        <v>255.74549994520291</v>
+      </c>
+    </row>
+    <row r="325" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C325">
         <v>2048</v>
       </c>
@@ -13466,21 +13918,32 @@
         <v>1500</v>
       </c>
       <c r="G325" s="2">
-        <v>396.38499999999999</v>
+        <v>420.95600000000002</v>
       </c>
       <c r="H325" s="2">
-        <v>927.20399999999995</v>
+        <v>939.24800000000005</v>
       </c>
       <c r="I325" s="2">
+        <v>120.626</v>
+      </c>
+      <c r="J325" s="2">
+        <f>(6*$E325*$D325*$C325*$C325)/(G325/1000)/10^12</f>
+        <v>2.8695625005938861</v>
+      </c>
+      <c r="K325" s="2">
+        <f>(6*$E325*$D325*$C325*$C325)/(H325/1000)/10^12</f>
+        <v>1.2860922269730677</v>
+      </c>
+      <c r="L325" s="2">
         <f t="shared" si="32"/>
-        <v>3.0474401200852705</v>
-      </c>
-      <c r="J325" s="2">
-        <f t="shared" si="33"/>
-        <v>1.3027980379722264</v>
-      </c>
-    </row>
-    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
+        <v>10.014089433455473</v>
+      </c>
+      <c r="M325" s="2">
+        <f>G325+H325+J325</f>
+        <v>1363.0735625005941</v>
+      </c>
+    </row>
+    <row r="326" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C326">
         <v>2048</v>
       </c>
@@ -13491,21 +13954,32 @@
         <v>750</v>
       </c>
       <c r="G326" s="2">
-        <v>198.95500000000001</v>
+        <v>217.07400000000001</v>
       </c>
       <c r="H326" s="2">
-        <v>464.83199999999999</v>
+        <v>471.69400000000002</v>
       </c>
       <c r="I326" s="2">
+        <v>60.24</v>
+      </c>
+      <c r="J326" s="2">
+        <f>(6*$E326*$D326*$C326*$C326)/(G326/1000)/10^12</f>
+        <v>2.7823681140993393</v>
+      </c>
+      <c r="K326" s="2">
+        <f>(6*$E326*$D326*$C326*$C326)/(H326/1000)/10^12</f>
+        <v>1.2804482906290942</v>
+      </c>
+      <c r="L326" s="2">
         <f t="shared" si="32"/>
-        <v>3.0357607298132741</v>
-      </c>
-      <c r="J326" s="2">
-        <f t="shared" si="33"/>
-        <v>1.2993506815365552</v>
-      </c>
-    </row>
-    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
+        <v>10.026224701195218</v>
+      </c>
+      <c r="M326" s="2">
+        <f>G326+H326+J326</f>
+        <v>691.55036811409934</v>
+      </c>
+    </row>
+    <row r="327" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C327">
         <v>2048</v>
       </c>
@@ -13516,21 +13990,32 @@
         <v>375</v>
       </c>
       <c r="G327" s="2">
-        <v>100.9</v>
+        <v>109.117</v>
       </c>
       <c r="H327" s="2">
-        <v>233.09200000000001</v>
+        <v>237.125</v>
       </c>
       <c r="I327" s="2">
+        <v>30.475999999999999</v>
+      </c>
+      <c r="J327" s="2">
+        <f>(6*$E327*$D327*$C327*$C327)/(G327/1000)/10^12</f>
+        <v>2.7675787274210251</v>
+      </c>
+      <c r="K327" s="2">
+        <f>(6*$E327*$D327*$C327*$C327)/(H327/1000)/10^12</f>
+        <v>1.2735472345809173</v>
+      </c>
+      <c r="L327" s="2">
         <f t="shared" si="32"/>
-        <v>2.9929622200198214</v>
-      </c>
-      <c r="J327" s="2">
-        <f t="shared" si="33"/>
-        <v>1.2955823794896435</v>
-      </c>
-    </row>
-    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
+        <v>9.909105131907074</v>
+      </c>
+      <c r="M327" s="2">
+        <f>G327+H327+J327</f>
+        <v>349.00957872742106</v>
+      </c>
+    </row>
+    <row r="328" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C328">
         <v>2048</v>
       </c>
@@ -13541,21 +14026,32 @@
         <v>187</v>
       </c>
       <c r="G328" s="2">
-        <v>51.545000000000002</v>
+        <v>54.591999999999999</v>
       </c>
       <c r="H328" s="2">
-        <v>116.374</v>
+        <v>119.077</v>
       </c>
       <c r="I328" s="2">
+        <v>14.928000000000001</v>
+      </c>
+      <c r="J328" s="2">
+        <f>(6*$E328*$D328*$C328*$C328)/(G328/1000)/10^12</f>
+        <v>2.7585047409144194</v>
+      </c>
+      <c r="K328" s="2">
+        <f>(6*$E328*$D328*$C328*$C328)/(H328/1000)/10^12</f>
+        <v>1.264663123995398</v>
+      </c>
+      <c r="L328" s="2">
         <f t="shared" si="32"/>
-        <v>2.9215693242021534</v>
-      </c>
-      <c r="J328" s="2">
-        <f t="shared" si="33"/>
-        <v>1.2940372490075103</v>
-      </c>
-    </row>
-    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
+        <v>10.087908012861737</v>
+      </c>
+      <c r="M328" s="2">
+        <f>G328+H328+J328</f>
+        <v>176.4275047409144</v>
+      </c>
+    </row>
+    <row r="329" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C329">
         <v>1536</v>
       </c>
@@ -13566,21 +14062,32 @@
         <v>1500</v>
       </c>
       <c r="G329" s="2">
-        <v>296.66699999999997</v>
+        <v>308.45400000000001</v>
       </c>
       <c r="H329" s="2">
-        <v>694.33199999999999</v>
+        <v>704.15099999999995</v>
       </c>
       <c r="I329" s="2">
+        <v>69.688000000000002</v>
+      </c>
+      <c r="J329" s="2">
+        <f>(6*$E329*$D329*$C329*$C329)/(G329/1000)/10^12</f>
+        <v>2.2028479060086754</v>
+      </c>
+      <c r="K329" s="2">
+        <f>(6*$E329*$D329*$C329*$C329)/(H329/1000)/10^12</f>
+        <v>0.96495957259167431</v>
+      </c>
+      <c r="L329" s="2">
         <f t="shared" si="32"/>
-        <v>2.2903701726177839</v>
-      </c>
-      <c r="J329" s="2">
-        <f t="shared" si="33"/>
-        <v>0.97860569295380306</v>
-      </c>
-    </row>
-    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
+        <v>9.7502762025025813</v>
+      </c>
+      <c r="M329" s="2">
+        <f>G329+H329+J329</f>
+        <v>1014.8078479060086</v>
+      </c>
+    </row>
+    <row r="330" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C330">
         <v>1536</v>
       </c>
@@ -13591,21 +14098,32 @@
         <v>750</v>
       </c>
       <c r="G330" s="2">
-        <v>149.95599999999999</v>
+        <v>153.66</v>
       </c>
       <c r="H330" s="2">
-        <v>348.52300000000002</v>
+        <v>353.55399999999997</v>
       </c>
       <c r="I330" s="2">
+        <v>34.82</v>
+      </c>
+      <c r="J330" s="2">
+        <f>(6*$E330*$D330*$C330*$C330)/(G330/1000)/10^12</f>
+        <v>2.2109763373682156</v>
+      </c>
+      <c r="K330" s="2">
+        <f>(6*$E330*$D330*$C330*$C330)/(H330/1000)/10^12</f>
+        <v>0.9609242831363809</v>
+      </c>
+      <c r="L330" s="2">
         <f t="shared" si="32"/>
-        <v>2.2655887326949244</v>
-      </c>
-      <c r="J330" s="2">
-        <f t="shared" si="33"/>
-        <v>0.97479541952754911</v>
-      </c>
-    </row>
-    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
+        <v>9.756996668581273</v>
+      </c>
+      <c r="M330" s="2">
+        <f>G330+H330+J330</f>
+        <v>509.42497633736815</v>
+      </c>
+    </row>
+    <row r="331" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C331">
         <v>1536</v>
       </c>
@@ -13616,21 +14134,32 @@
         <v>375</v>
       </c>
       <c r="G331" s="2">
-        <v>76.866</v>
+        <v>78.302000000000007</v>
       </c>
       <c r="H331" s="2">
-        <v>175.45500000000001</v>
+        <v>178.547</v>
       </c>
       <c r="I331" s="2">
+        <v>17.274000000000001</v>
+      </c>
+      <c r="J331" s="2">
+        <f>(6*$E331*$D331*$C331*$C331)/(G331/1000)/10^12</f>
+        <v>2.1694121733799898</v>
+      </c>
+      <c r="K331" s="2">
+        <f>(6*$E331*$D331*$C331*$C331)/(H331/1000)/10^12</f>
+        <v>0.95139829848723312</v>
+      </c>
+      <c r="L331" s="2">
         <f t="shared" si="32"/>
-        <v>2.2099408320974159</v>
-      </c>
-      <c r="J331" s="2">
-        <f t="shared" si="33"/>
-        <v>0.96816455501410625</v>
-      </c>
-    </row>
-    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
+        <v>9.8338145189301844</v>
+      </c>
+      <c r="M331" s="2">
+        <f>G331+H331+J331</f>
+        <v>259.01841217338</v>
+      </c>
+    </row>
+    <row r="332" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C332">
         <v>1536</v>
       </c>
@@ -13641,21 +14170,32 @@
         <v>187</v>
       </c>
       <c r="G332" s="2">
-        <v>39.563000000000002</v>
+        <v>40.225000000000001</v>
       </c>
       <c r="H332" s="2">
-        <v>88.668000000000006</v>
+        <v>90.17</v>
       </c>
       <c r="I332" s="2">
+        <v>8.5850000000000009</v>
+      </c>
+      <c r="J332" s="2">
+        <f>(6*$E332*$D332*$C332*$C332)/(G332/1000)/10^12</f>
+        <v>2.105858634779366</v>
+      </c>
+      <c r="K332" s="2">
+        <f>(6*$E332*$D332*$C332*$C332)/(H332/1000)/10^12</f>
+        <v>0.93942734372851278</v>
+      </c>
+      <c r="L332" s="2">
         <f t="shared" si="32"/>
-        <v>2.1410955585774589</v>
-      </c>
-      <c r="J332" s="2">
-        <f t="shared" si="33"/>
-        <v>0.95534086236297189</v>
-      </c>
-    </row>
-    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
+        <v>9.8669963405940582</v>
+      </c>
+      <c r="M332" s="2">
+        <f>G332+H332+J332</f>
+        <v>132.50085863477938</v>
+      </c>
+    </row>
+    <row r="333" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C333">
         <v>2560</v>
       </c>
@@ -13666,21 +14206,32 @@
         <v>1500</v>
       </c>
       <c r="G333" s="2">
-        <v>522.601</v>
+        <v>583.35799999999995</v>
       </c>
       <c r="H333" s="2">
-        <v>1154.9090000000001</v>
+        <v>1190.5219999999999</v>
       </c>
       <c r="I333" s="2">
+        <v>198.49299999999999</v>
+      </c>
+      <c r="J333" s="2">
+        <f>(6*$E333*$D333*$C333*$C333)/(G333/1000)/10^12</f>
+        <v>3.2354691287339854</v>
+      </c>
+      <c r="K333" s="2">
+        <f>(6*$E333*$D333*$C333*$C333)/(H333/1000)/10^12</f>
+        <v>1.5853859063503237</v>
+      </c>
+      <c r="L333" s="2">
         <f t="shared" si="32"/>
-        <v>3.6116211029064238</v>
-      </c>
-      <c r="J333" s="2">
-        <f t="shared" si="33"/>
-        <v>1.6342731765013518</v>
-      </c>
-    </row>
-    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
+        <v>9.5088330570851376</v>
+      </c>
+      <c r="M333" s="2">
+        <f>G333+H333+J333</f>
+        <v>1777.1154691287338</v>
+      </c>
+    </row>
+    <row r="334" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C334">
         <v>2560</v>
       </c>
@@ -13691,21 +14242,32 @@
         <v>750</v>
       </c>
       <c r="G334" s="2">
-        <v>263.452</v>
+        <v>302.53699999999998</v>
       </c>
       <c r="H334" s="2">
-        <v>579.39599999999996</v>
+        <v>596.52099999999996</v>
       </c>
       <c r="I334" s="2">
+        <v>94.861000000000004</v>
+      </c>
+      <c r="J334" s="2">
+        <f>(6*$E334*$D334*$C334*$C334)/(G334/1000)/10^12</f>
+        <v>3.1193487077613646</v>
+      </c>
+      <c r="K334" s="2">
+        <f>(6*$E334*$D334*$C334*$C334)/(H334/1000)/10^12</f>
+        <v>1.5820371789090411</v>
+      </c>
+      <c r="L334" s="2">
         <f t="shared" si="32"/>
-        <v>3.5821265353840546</v>
-      </c>
-      <c r="J334" s="2">
-        <f t="shared" si="33"/>
-        <v>1.6287968850319989</v>
-      </c>
-    </row>
-    <row r="335" spans="3:10" x14ac:dyDescent="0.2">
+        <v>9.948434024520088</v>
+      </c>
+      <c r="M334" s="2">
+        <f>G334+H334+J334</f>
+        <v>902.17734870776133</v>
+      </c>
+    </row>
+    <row r="335" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C335">
         <v>2560</v>
       </c>
@@ -13716,21 +14278,32 @@
         <v>375</v>
       </c>
       <c r="G335" s="2">
-        <v>132.929</v>
+        <v>153.83699999999999</v>
       </c>
       <c r="H335" s="2">
-        <v>290.43200000000002</v>
+        <v>299.49099999999999</v>
       </c>
       <c r="I335" s="2">
+        <v>47.874000000000002</v>
+      </c>
+      <c r="J335" s="2">
+        <f>(6*$E335*$D335*$C335*$C335)/(G335/1000)/10^12</f>
+        <v>3.0672673024044932</v>
+      </c>
+      <c r="K335" s="2">
+        <f>(6*$E335*$D335*$C335*$C335)/(H335/1000)/10^12</f>
+        <v>1.5755371613838145</v>
+      </c>
+      <c r="L335" s="2">
         <f t="shared" si="32"/>
-        <v>3.5497084909989547</v>
-      </c>
-      <c r="J335" s="2">
-        <f t="shared" si="33"/>
-        <v>1.6246804759806082</v>
-      </c>
-    </row>
-    <row r="336" spans="3:10" x14ac:dyDescent="0.2">
+        <v>9.8562727158791841</v>
+      </c>
+      <c r="M335" s="2">
+        <f>G335+H335+J335</f>
+        <v>456.39526730240448</v>
+      </c>
+    </row>
+    <row r="336" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C336">
         <v>2560</v>
       </c>
@@ -13741,21 +14314,32 @@
         <v>187</v>
       </c>
       <c r="G336" s="2">
-        <v>67.132000000000005</v>
+        <v>77.613</v>
       </c>
       <c r="H336" s="2">
-        <v>145.24199999999999</v>
+        <v>150.583</v>
       </c>
       <c r="I336" s="2">
+        <v>23.888000000000002</v>
+      </c>
+      <c r="J336" s="2">
+        <f>(6*$E336*$D336*$C336*$C336)/(G336/1000)/10^12</f>
+        <v>3.0317144602064086</v>
+      </c>
+      <c r="K336" s="2">
+        <f>(6*$E336*$D336*$C336*$C336)/(H336/1000)/10^12</f>
+        <v>1.5625964046406302</v>
+      </c>
+      <c r="L336" s="2">
         <f t="shared" si="32"/>
-        <v>3.5050416254543282</v>
-      </c>
-      <c r="J336" s="2">
-        <f t="shared" si="33"/>
-        <v>1.6200579336555545</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9.85015298057602</v>
+      </c>
+      <c r="M336" s="2">
+        <f>G336+H336+J336</f>
+        <v>231.22771446020641</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C337">
         <v>512</v>
       </c>
@@ -13766,21 +14350,32 @@
         <v>1</v>
       </c>
       <c r="G337" s="2">
-        <v>0.11600000000000001</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H337" s="2">
-        <v>0.17599999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="I337" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J337" s="2">
+        <f>(6*$E337*$D337*$C337*$C337)/(G337/1000)/10^12</f>
+        <v>0.66225852631578941</v>
+      </c>
+      <c r="K337" s="2">
+        <f>(6*$E337*$D337*$C337*$C337)/(H337/1000)/10^12</f>
+        <v>0.23967451428571429</v>
+      </c>
+      <c r="L337" s="2">
         <f t="shared" si="32"/>
-        <v>0.43389351724137931</v>
-      </c>
-      <c r="J337" s="2">
-        <f t="shared" si="33"/>
-        <v>0.28597527272727269</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.3603148108108107</v>
+      </c>
+      <c r="M337" s="2">
+        <f>G337+H337+J337</f>
+        <v>0.94825852631578944</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C338">
         <v>1024</v>
       </c>
@@ -13791,21 +14386,32 @@
         <v>1500</v>
       </c>
       <c r="G338" s="2">
-        <v>179.69399999999999</v>
+        <v>189.238</v>
       </c>
       <c r="H338" s="2">
-        <v>469.43200000000002</v>
+        <v>477.36399999999998</v>
       </c>
       <c r="I338" s="2">
+        <v>32.561999999999998</v>
+      </c>
+      <c r="J338" s="2">
+        <f>(6*$E338*$D338*$C338*$C338)/(G338/1000)/10^12</f>
+        <v>1.5958205434426489</v>
+      </c>
+      <c r="K338" s="2">
+        <f>(6*$E338*$D338*$C338*$C338)/(H338/1000)/10^12</f>
+        <v>0.63261973672082528</v>
+      </c>
+      <c r="L338" s="2">
         <f t="shared" si="32"/>
-        <v>1.6805785835921068</v>
-      </c>
-      <c r="J338" s="2">
-        <f t="shared" si="33"/>
-        <v>0.64330912251401695</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9.2743040353786625</v>
+      </c>
+      <c r="M338" s="2">
+        <f>G338+H338+J338</f>
+        <v>668.19782054344262</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C339">
         <v>1024</v>
       </c>
@@ -13816,53 +14422,64 @@
         <v>1500</v>
       </c>
       <c r="G339" s="2">
-        <v>210.16399999999999</v>
+        <v>218.98</v>
       </c>
       <c r="H339" s="2">
-        <v>175.30799999999999</v>
+        <v>181.887</v>
       </c>
       <c r="I339" s="2">
+        <v>68.981999999999999</v>
+      </c>
+      <c r="J339" s="2">
+        <f>(6*$E339*$D339*$C339*$C339)/(G339/1000)/10^12</f>
+        <v>2.7581504064298112</v>
+      </c>
+      <c r="K339" s="2">
+        <f>(6*$E339*$D339*$C339*$C339)/(H339/1000)/10^12</f>
+        <v>3.3206319088225107</v>
+      </c>
+      <c r="L339" s="2">
         <f t="shared" si="32"/>
-        <v>2.8738498315601153</v>
-      </c>
-      <c r="J339" s="2">
-        <f t="shared" si="33"/>
-        <v>3.4452493668286674</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8.7556141602157087</v>
+      </c>
+      <c r="M339" s="2">
+        <f>G339+H339+J339</f>
+        <v>403.62515040642978</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I340" s="3"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="I341" s="2"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
+        <v>65</v>
+      </c>
+      <c r="C342" t="s">
+        <v>66</v>
+      </c>
+      <c r="D342" t="s">
+        <v>67</v>
+      </c>
+      <c r="G342" t="s">
+        <v>68</v>
+      </c>
+      <c r="I342" t="s">
         <v>69</v>
       </c>
-      <c r="C342" t="s">
+      <c r="J342" t="s">
         <v>70</v>
       </c>
-      <c r="D342" t="s">
+      <c r="K342" t="s">
         <v>71</v>
       </c>
-      <c r="G342" t="s">
-        <v>72</v>
-      </c>
-      <c r="I342" t="s">
-        <v>73</v>
-      </c>
-      <c r="J342" t="s">
-        <v>74</v>
-      </c>
-      <c r="K342" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C344">
         <v>100000</v>
       </c>
@@ -13877,13 +14494,13 @@
         <v>12.929842512901963</v>
       </c>
       <c r="J344" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K344" s="2">
         <v>2.7217404818666263E-3</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C345">
         <v>100000</v>
       </c>
@@ -13898,13 +14515,13 @@
         <v>17.447016273977042</v>
       </c>
       <c r="J345" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K345" s="2">
         <v>2.8143182937997221E-3</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C346">
         <v>100000</v>
       </c>
@@ -13919,13 +14536,13 @@
         <v>21.30019023732406</v>
       </c>
       <c r="J346" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K346" s="2">
         <v>3.0198935219988374E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C347">
         <v>100000</v>
       </c>
@@ -13942,13 +14559,13 @@
         <v>12.952755734200144</v>
       </c>
       <c r="J347" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K347" s="2">
         <v>1.4072668142911852E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C348">
         <v>100000</v>
       </c>
@@ -13965,13 +14582,13 @@
         <v>17.14457619277362</v>
       </c>
       <c r="J348" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K348" s="2">
         <v>1.2046923143319737E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C349">
         <v>3097600</v>
       </c>
@@ -13986,13 +14603,13 @@
         <v>23.881655664241311</v>
       </c>
       <c r="J349" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K349" s="2">
         <v>1.4244112357114759E-3</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C350">
         <v>3097600</v>
       </c>
@@ -14007,13 +14624,13 @@
         <v>29.671386236417515</v>
       </c>
       <c r="J350" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K350" s="2">
         <v>2.5396850198400474E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C351">
         <v>3097600</v>
       </c>
@@ -14028,13 +14645,13 @@
         <v>39.892006905215467</v>
       </c>
       <c r="J351" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K351" s="2">
         <v>3.6299779251177419E-3</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C352">
         <v>3097600</v>
       </c>
@@ -14051,7 +14668,7 @@
         <v>47.42458307771637</v>
       </c>
       <c r="J352" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K352" s="2">
         <v>8.2743340547744307E-2</v>
@@ -14074,7 +14691,7 @@
         <v>85.433220551533722</v>
       </c>
       <c r="J353" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K353" s="2">
         <v>0.13990011861380916</v>
@@ -14095,7 +14712,7 @@
         <v>24.034404412291384</v>
       </c>
       <c r="J354" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K354" s="2">
         <v>1.5525869752736773E-3</v>
@@ -14116,7 +14733,7 @@
         <v>29.729046891266307</v>
       </c>
       <c r="J355" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K355" s="2">
         <v>3.2811262507992625E-3</v>
@@ -14137,7 +14754,7 @@
         <v>39.848130391275063</v>
       </c>
       <c r="J356" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K356" s="2">
         <v>4.2892095640351307E-3</v>
@@ -14160,7 +14777,7 @@
         <v>47.673587747730288</v>
       </c>
       <c r="J357" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K357" s="2">
         <v>2.016955508603064E-2</v>
@@ -14183,7 +14800,7 @@
         <v>91.739442108874087</v>
       </c>
       <c r="J358" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K358" s="2">
         <v>1.7192171987028774E-2</v>
@@ -14204,7 +14821,7 @@
         <v>24.144603836146352</v>
       </c>
       <c r="J359" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K359" s="2">
         <v>2.3946211655115719E-3</v>
@@ -14225,7 +14842,7 @@
         <v>29.947763005697809</v>
       </c>
       <c r="J360" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K360" s="2">
         <v>3.9639825800243155E-3</v>
@@ -14246,7 +14863,7 @@
         <v>39.96287932923633</v>
       </c>
       <c r="J361" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K361" s="2">
         <v>5.9989034085624502E-3</v>
@@ -14269,7 +14886,7 @@
         <v>47.303778546843922</v>
       </c>
       <c r="J362" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K362" s="2">
         <v>2.8287996077934911E-2</v>
@@ -14292,7 +14909,7 @@
         <v>93.278211847953969</v>
       </c>
       <c r="J363" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K363" s="2">
         <v>2.8402430673410639E-2</v>
@@ -14313,7 +14930,7 @@
         <v>24.364903923828887</v>
       </c>
       <c r="J364" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K364" s="2">
         <v>5.5086057076273323E-3</v>
@@ -14334,7 +14951,7 @@
         <v>29.908576521971654</v>
       </c>
       <c r="J365" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K365" s="2">
         <v>6.9175596548888335E-3</v>
@@ -14355,7 +14972,7 @@
         <v>39.993810419514524</v>
       </c>
       <c r="J366" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K366" s="2">
         <v>1.620355711434673E-2</v>
@@ -14379,7 +14996,7 @@
         <v>19.024424073809129</v>
       </c>
       <c r="J367" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K367" s="2">
         <v>0.14542319323814551</v>
@@ -14403,7 +15020,7 @@
         <v>34.741025289475012</v>
       </c>
       <c r="J368" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K368" s="2">
         <v>0.11239437837131218</v>
@@ -14423,7 +15040,7 @@
         <v>24.469064828510039</v>
       </c>
       <c r="J369" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K369" s="2">
         <v>1.1203735279384621E-2</v>
@@ -14443,7 +15060,7 @@
         <v>30.008238380094905</v>
       </c>
       <c r="J370" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K370" s="2">
         <v>1.4427586879236077E-2</v>
@@ -14463,7 +15080,7 @@
         <v>40.182660359755808</v>
       </c>
       <c r="J371" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K371" s="2">
         <v>2.5303421861375297E-2</v>
@@ -14486,7 +15103,7 @@
         <v>47.263142838056389</v>
       </c>
       <c r="J372" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K372" s="2">
         <v>0.12958876291439875</v>
@@ -14509,7 +15126,7 @@
         <v>85.52970680510991</v>
       </c>
       <c r="J373" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K373" s="2">
         <v>0.1155943219330338</v>
@@ -14529,7 +15146,7 @@
         <v>24.484218118321408</v>
       </c>
       <c r="J374" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K374" s="2">
         <v>1.6054512400601084E-2</v>
@@ -14549,7 +15166,7 @@
         <v>29.97477413630099</v>
       </c>
       <c r="J375" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K375" s="2">
         <v>2.9023538541564975E-2</v>
@@ -14569,7 +15186,7 @@
         <v>40.241174090844822</v>
       </c>
       <c r="J376" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K376" s="2">
         <v>3.3668468772335348E-2</v>
@@ -14592,7 +15209,7 @@
         <v>47.193900737096016</v>
       </c>
       <c r="J377" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K377" s="2">
         <v>0.22045191169146514</v>
@@ -14615,7 +15232,7 @@
         <v>84.820086333409833</v>
       </c>
       <c r="J378" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K378" s="2">
         <v>0.25675923859768651</v>
@@ -14628,7 +15245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14642,31 +15259,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8">
         <v>8</v>
@@ -14674,7 +15291,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="8">
         <v>5</v>
@@ -14682,15 +15299,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9">
         <v>367.48</v>
@@ -14698,26 +15315,26 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
